--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matej\Programming\wingsearch\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B006DF11-ED50-4D21-A305-F1A296F5DCC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A3E580-9475-4230-BBAD-5457E630C139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$262</definedName>
-    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$357</definedName>
+    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1018">
   <si>
     <t>id</t>
   </si>
@@ -2511,6 +2511,591 @@
   </si>
   <si>
     <t>Trznadel Zwyczajny</t>
+  </si>
+  <si>
+    <t>Abbott's Booby</t>
+  </si>
+  <si>
+    <t>Papasula abbotti</t>
+  </si>
+  <si>
+    <t>Australasian Pipit</t>
+  </si>
+  <si>
+    <t>Anthus novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Australasian Shoveler</t>
+  </si>
+  <si>
+    <t>Spatula rhynchotis</t>
+  </si>
+  <si>
+    <t>Australian Ibis</t>
+  </si>
+  <si>
+    <t>Threskiornis moluccus</t>
+  </si>
+  <si>
+    <t>Australian Magpie</t>
+  </si>
+  <si>
+    <t>Gymnorhina tibicen</t>
+  </si>
+  <si>
+    <t>Australian Owlet-Nightjar</t>
+  </si>
+  <si>
+    <t>Aegotheles cristatus</t>
+  </si>
+  <si>
+    <t>Australian Raven</t>
+  </si>
+  <si>
+    <t>Corvus coronoides</t>
+  </si>
+  <si>
+    <t>Australian Reed Warbler</t>
+  </si>
+  <si>
+    <t>Acrocephalus australis</t>
+  </si>
+  <si>
+    <t>Australian Shelduck</t>
+  </si>
+  <si>
+    <t>Tadorna tadornoides</t>
+  </si>
+  <si>
+    <t>Australian Zebra Finch</t>
+  </si>
+  <si>
+    <t>Taeniopygia castanotis</t>
+  </si>
+  <si>
+    <t>Black Noddy</t>
+  </si>
+  <si>
+    <t>Anous minutus</t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>Cygnus atratus</t>
+  </si>
+  <si>
+    <t>Black-Shouldered Kite</t>
+  </si>
+  <si>
+    <t>Elanus axillaris</t>
+  </si>
+  <si>
+    <t>Blyth's Hornbill</t>
+  </si>
+  <si>
+    <t>Rhyticeros plicatus</t>
+  </si>
+  <si>
+    <t>Brolga</t>
+  </si>
+  <si>
+    <t>Antigone rubicunda</t>
+  </si>
+  <si>
+    <t>Brown Falcon</t>
+  </si>
+  <si>
+    <t>Falco berigora</t>
+  </si>
+  <si>
+    <t>Budgerigar</t>
+  </si>
+  <si>
+    <t>Melopsittacus undulatus</t>
+  </si>
+  <si>
+    <t>Cockatiel</t>
+  </si>
+  <si>
+    <t>Nymphicus hollandicus</t>
+  </si>
+  <si>
+    <t>Count Raggi's Bird-of-Paradise</t>
+  </si>
+  <si>
+    <t>Paradisaea raggiana</t>
+  </si>
+  <si>
+    <t>Crested Pigeon</t>
+  </si>
+  <si>
+    <t>Ocyphaps lophotes</t>
+  </si>
+  <si>
+    <t>Crimson Chat</t>
+  </si>
+  <si>
+    <t>Epthianura tricolor</t>
+  </si>
+  <si>
+    <t>Eastern Rosella</t>
+  </si>
+  <si>
+    <t>Platycercus eximius</t>
+  </si>
+  <si>
+    <t>Eastern Whipbird</t>
+  </si>
+  <si>
+    <t>Psophodes olivaceus</t>
+  </si>
+  <si>
+    <t>Emu</t>
+  </si>
+  <si>
+    <t>Dromaius novaehollandiae</t>
+  </si>
+  <si>
+    <t>Galah</t>
+  </si>
+  <si>
+    <t>Eolophus roseicapilla</t>
+  </si>
+  <si>
+    <t>Golden-Headed Cisticola</t>
+  </si>
+  <si>
+    <t>Cisticola exilis</t>
+  </si>
+  <si>
+    <t>Gould's Finch</t>
+  </si>
+  <si>
+    <t>Erythrura gouldiae</t>
+  </si>
+  <si>
+    <t>Green Pygmy-Goose</t>
+  </si>
+  <si>
+    <t>Nettapus pulchellus</t>
+  </si>
+  <si>
+    <t>Grey Butcherbird</t>
+  </si>
+  <si>
+    <t>Cracticus torquatus</t>
+  </si>
+  <si>
+    <t>Grey Shrikethrush</t>
+  </si>
+  <si>
+    <t>Colluricincla harmonica</t>
+  </si>
+  <si>
+    <t>Grey Teal</t>
+  </si>
+  <si>
+    <t>Anas gracilis</t>
+  </si>
+  <si>
+    <t>Grey Warbler</t>
+  </si>
+  <si>
+    <t>Gerygone igata</t>
+  </si>
+  <si>
+    <t>Grey-Headed Mannikin</t>
+  </si>
+  <si>
+    <t>Lonchura caniceps</t>
+  </si>
+  <si>
+    <t>Horsfield's Bronze-Cuckoo</t>
+  </si>
+  <si>
+    <t>Chrysococcyx basalis</t>
+  </si>
+  <si>
+    <t>Horsfield's Bushlark</t>
+  </si>
+  <si>
+    <t>Mirafra javanica</t>
+  </si>
+  <si>
+    <t>Kākāpо̄</t>
+  </si>
+  <si>
+    <t>Strigops habroptila</t>
+  </si>
+  <si>
+    <t>Kea</t>
+  </si>
+  <si>
+    <t>Nestor notabilis</t>
+  </si>
+  <si>
+    <t>Kelp Gull</t>
+  </si>
+  <si>
+    <t>Larus dominicanus</t>
+  </si>
+  <si>
+    <t>Kererū</t>
+  </si>
+  <si>
+    <t>Hemiphaga novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Korimako</t>
+  </si>
+  <si>
+    <t>Anthornis melanura</t>
+  </si>
+  <si>
+    <t>Laughing Kookaburra</t>
+  </si>
+  <si>
+    <t>Dacelo novaeguineae</t>
+  </si>
+  <si>
+    <t>Lesser Frigatebird</t>
+  </si>
+  <si>
+    <t>Fregata ariel</t>
+  </si>
+  <si>
+    <t>Lewin's Honeyeater</t>
+  </si>
+  <si>
+    <t>Meliphaga lewinii</t>
+  </si>
+  <si>
+    <t>Little Penguin</t>
+  </si>
+  <si>
+    <t>Eudyptula minor</t>
+  </si>
+  <si>
+    <t>Little Pied Cormorant</t>
+  </si>
+  <si>
+    <t>Microcarbo melanoleucos</t>
+  </si>
+  <si>
+    <t>Magpie-Lark</t>
+  </si>
+  <si>
+    <t>Grallina cyanoleuca</t>
+  </si>
+  <si>
+    <t>Major Mitchell's Cockatoo</t>
+  </si>
+  <si>
+    <t>Lophochroa leadbeateri</t>
+  </si>
+  <si>
+    <t>Malleefowl</t>
+  </si>
+  <si>
+    <t>Leipoa ocellata</t>
+  </si>
+  <si>
+    <t>Maned Duck</t>
+  </si>
+  <si>
+    <t>Chenonetta jubata</t>
+  </si>
+  <si>
+    <t>Many-Colored Fruit Dove</t>
+  </si>
+  <si>
+    <t>Ptilinopus perousii</t>
+  </si>
+  <si>
+    <t>Masked Lapwing</t>
+  </si>
+  <si>
+    <t>Vanellus miles</t>
+  </si>
+  <si>
+    <t>Mistletoebird</t>
+  </si>
+  <si>
+    <t>Dicaeum hirundinaceum</t>
+  </si>
+  <si>
+    <t>Musk Duck</t>
+  </si>
+  <si>
+    <t>Biziura lobata</t>
+  </si>
+  <si>
+    <t>New Holland Honeyeater</t>
+  </si>
+  <si>
+    <t>Phylidonyris novaehollandiae</t>
+  </si>
+  <si>
+    <t>Noisy Miner</t>
+  </si>
+  <si>
+    <t>Manorina melanocephala</t>
+  </si>
+  <si>
+    <t>North Island Brown Kiwi</t>
+  </si>
+  <si>
+    <t>Apteryx mantelli</t>
+  </si>
+  <si>
+    <t>Orange-Footed Scrubfowl</t>
+  </si>
+  <si>
+    <t>Megapodius reinwardt</t>
+  </si>
+  <si>
+    <t>Pacific Black Duck</t>
+  </si>
+  <si>
+    <t>Anas superciliosa</t>
+  </si>
+  <si>
+    <t>Peaceful Dove</t>
+  </si>
+  <si>
+    <t>Geopelia placida</t>
+  </si>
+  <si>
+    <t>Pesquet's Parrot</t>
+  </si>
+  <si>
+    <t>Psittrichas fulgidus</t>
+  </si>
+  <si>
+    <t>Pheasant Coucal</t>
+  </si>
+  <si>
+    <t>Centropus phasianinus</t>
+  </si>
+  <si>
+    <t>Pink-Eared Duck</t>
+  </si>
+  <si>
+    <t>Malacorhynchus membranaceus</t>
+  </si>
+  <si>
+    <t>Plains-Wanderer</t>
+  </si>
+  <si>
+    <t>Pedionomus torquatus</t>
+  </si>
+  <si>
+    <t>Princess Stephanie's Astrapia</t>
+  </si>
+  <si>
+    <t>Astrapia stephaniae</t>
+  </si>
+  <si>
+    <t>Pūkeko</t>
+  </si>
+  <si>
+    <t>Porphyrio melanotus</t>
+  </si>
+  <si>
+    <t>Rainbow Lorikeet</t>
+  </si>
+  <si>
+    <t>Trichoglossus moluccanus</t>
+  </si>
+  <si>
+    <t>Red Wattlebird</t>
+  </si>
+  <si>
+    <t>Anthochaera carunculata</t>
+  </si>
+  <si>
+    <t>Red-Backed Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus melanocephalus</t>
+  </si>
+  <si>
+    <t>Red-Capped Robin</t>
+  </si>
+  <si>
+    <t>Petroica goodenovii</t>
+  </si>
+  <si>
+    <t>Red-Necked Avocet</t>
+  </si>
+  <si>
+    <t>Recurvirostra novaehollandiae</t>
+  </si>
+  <si>
+    <t>Red-Winged Parrot</t>
+  </si>
+  <si>
+    <t>Aprosmictus erythropterus</t>
+  </si>
+  <si>
+    <t>Regent Bowerbird</t>
+  </si>
+  <si>
+    <t>Sericulus chrysocephalus</t>
+  </si>
+  <si>
+    <t>Royal Spoonbill</t>
+  </si>
+  <si>
+    <t>Platalea regia</t>
+  </si>
+  <si>
+    <t>Rufous Night-Heron</t>
+  </si>
+  <si>
+    <t>Nycticorax caledonicus</t>
+  </si>
+  <si>
+    <t>Rufous Owl</t>
+  </si>
+  <si>
+    <t>Ninox rufa</t>
+  </si>
+  <si>
+    <t>Rufous-Banded Honeyeater</t>
+  </si>
+  <si>
+    <t>Conopophila albogularis</t>
+  </si>
+  <si>
+    <t>Sacred Kingfisher</t>
+  </si>
+  <si>
+    <t>Todiramphus sanctus</t>
+  </si>
+  <si>
+    <t>Silvereye</t>
+  </si>
+  <si>
+    <t>Zosterops lateralis</t>
+  </si>
+  <si>
+    <t>South Island Robin</t>
+  </si>
+  <si>
+    <t>Petroica australis</t>
+  </si>
+  <si>
+    <t>Southern Cassowary</t>
+  </si>
+  <si>
+    <t>Casuarius casuarius</t>
+  </si>
+  <si>
+    <t>Spangled Drongo</t>
+  </si>
+  <si>
+    <t>Dicrurus bracteatus</t>
+  </si>
+  <si>
+    <t>Splendid Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus splendens</t>
+  </si>
+  <si>
+    <t>Spotless Crake</t>
+  </si>
+  <si>
+    <t>Zapornia tabuensis</t>
+  </si>
+  <si>
+    <t>Stubble Quail</t>
+  </si>
+  <si>
+    <t>Coturnix pectoralis</t>
+  </si>
+  <si>
+    <t>Sulphur-Crested Cockatoo</t>
+  </si>
+  <si>
+    <t>Cacatua galerita</t>
+  </si>
+  <si>
+    <t>Superb Lyrebird</t>
+  </si>
+  <si>
+    <t>Menura novaehollandiae</t>
+  </si>
+  <si>
+    <t>Tawny Frogmouth</t>
+  </si>
+  <si>
+    <t>Podargus strigoides</t>
+  </si>
+  <si>
+    <t>Tūī</t>
+  </si>
+  <si>
+    <t>Prosthemadera novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Wedge-Tailed Eagle</t>
+  </si>
+  <si>
+    <t>Aquila audax</t>
+  </si>
+  <si>
+    <t>Welcome Swallow</t>
+  </si>
+  <si>
+    <t>Hirundo neoxena</t>
+  </si>
+  <si>
+    <t>White-Bellied Sea-Eagle</t>
+  </si>
+  <si>
+    <t>Haliaeetus leucogaster</t>
+  </si>
+  <si>
+    <t>White-Breasted Woodswallow</t>
+  </si>
+  <si>
+    <t>Artamus leucoryn</t>
+  </si>
+  <si>
+    <t>White-Faced Heron</t>
+  </si>
+  <si>
+    <t>Egretta novaehollandiae</t>
+  </si>
+  <si>
+    <t>Willie-Wagtail</t>
+  </si>
+  <si>
+    <t>Rhipidura leucophrys</t>
+  </si>
+  <si>
+    <t>Wrybill</t>
+  </si>
+  <si>
+    <t>Anarhynchus frontalis</t>
+  </si>
+  <si>
+    <t>Forest Data Analyst</t>
+  </si>
+  <si>
+    <t>Grassland Data Analyst</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Site Selection Expert</t>
+  </si>
+  <si>
+    <t>Wetland Data Analyst</t>
   </si>
 </sst>
 </file>
@@ -2546,12 +3131,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2632,8 +3223,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F262" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F262" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:F357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
@@ -2647,8 +3238,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6299CC7B-9130-4C9A-A587-FBEBFEEB5D0F}" name="bonuses" displayName="bonuses" ref="A1:G34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G34" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6299CC7B-9130-4C9A-A587-FBEBFEEB5D0F}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
@@ -2936,23 +3527,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D262"/>
+    <sheetView topLeftCell="A350" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:C357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +3563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2992,7 +3583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3012,7 +3603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3032,7 +3623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3052,7 +3643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3072,7 +3663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3092,7 +3683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3112,7 +3703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3132,7 +3723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3152,7 +3743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3172,7 +3763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3192,7 +3783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3212,7 +3803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3232,7 +3823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3252,7 +3843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3272,7 +3863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3292,7 +3883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3312,7 +3903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3332,7 +3923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3352,7 +3943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3372,7 +3963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3392,7 +3983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3412,7 +4003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3432,7 +4023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3452,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3472,7 +4063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3492,7 +4083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3512,7 +4103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3532,7 +4123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3552,7 +4143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3572,7 +4163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3592,7 +4183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3612,7 +4203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3632,7 +4223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3652,7 +4243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3672,7 +4263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3692,7 +4283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3712,7 +4303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3732,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3752,7 +4343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3772,7 +4363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3792,7 +4383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3812,7 +4403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3832,7 +4423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3852,7 +4443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3872,7 +4463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3892,7 +4483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3912,7 +4503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3932,7 +4523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3952,7 +4543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -3972,7 +4563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -3992,7 +4583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4012,7 +4603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4032,7 +4623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4052,7 +4643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4072,7 +4663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4092,7 +4683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4112,7 +4703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4132,7 +4723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4152,7 +4743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4172,7 +4763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4192,7 +4783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4212,7 +4803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4232,7 +4823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4252,7 +4843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4272,7 +4863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4292,7 +4883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4312,7 +4903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4332,7 +4923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4352,7 +4943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4372,7 +4963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4392,7 +4983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -4412,7 +5003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -4432,7 +5023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -4452,7 +5043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -4472,7 +5063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -4492,7 +5083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -4512,7 +5103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -4532,7 +5123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -4552,7 +5143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -4572,7 +5163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -4592,7 +5183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -4612,7 +5203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -4632,7 +5223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -4652,7 +5243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -4672,7 +5263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -4692,7 +5283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4712,7 +5303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4732,7 +5323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4752,7 +5343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4772,7 +5363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4792,7 +5383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4812,7 +5403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -4832,7 +5423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4852,7 +5443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4872,7 +5463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4892,7 +5483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4912,7 +5503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4932,7 +5523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4952,7 +5543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4972,7 +5563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -4992,7 +5583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5012,7 +5603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5032,7 +5623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5052,7 +5643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5072,7 +5663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5092,7 +5683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5112,7 +5703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5132,7 +5723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5152,7 +5743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5172,7 +5763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5192,7 +5783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5212,7 +5803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5232,7 +5823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5252,7 +5843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5272,7 +5863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5292,7 +5883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5312,7 +5903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5332,7 +5923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5352,7 +5943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5372,7 +5963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5392,7 +5983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -5412,7 +6003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -5432,7 +6023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -5452,7 +6043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -5472,7 +6063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -5492,7 +6083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -5512,7 +6103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -5532,7 +6123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -5552,7 +6143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -5572,7 +6163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -5592,7 +6183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -5612,7 +6203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -5632,7 +6223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -5652,7 +6243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -5672,7 +6263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -5692,7 +6283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -5712,7 +6303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -5732,7 +6323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -5752,7 +6343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -5772,7 +6363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -5792,7 +6383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -5812,7 +6403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -5832,7 +6423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -5852,7 +6443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -5872,7 +6463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -5892,7 +6483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -5912,7 +6503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -5932,7 +6523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -5952,7 +6543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -5972,7 +6563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -5992,7 +6583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -6012,7 +6603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6032,7 +6623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6052,7 +6643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6072,7 +6663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6092,7 +6683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6112,7 +6703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6132,7 +6723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6152,7 +6743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6172,7 +6763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6192,7 +6783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6212,7 +6803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6232,7 +6823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6252,7 +6843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6272,7 +6863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6292,7 +6883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6312,7 +6903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6332,7 +6923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6352,7 +6943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6372,7 +6963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6392,7 +6983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -6412,7 +7003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -6432,7 +7023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -6452,7 +7043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -6472,7 +7063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -6492,7 +7083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -6512,7 +7103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -6532,7 +7123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -6552,7 +7143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -6572,7 +7163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -6592,7 +7183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -6612,7 +7203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -6632,7 +7223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -6652,7 +7243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -6672,7 +7263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -6692,7 +7283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -6712,7 +7303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -6732,7 +7323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -6752,7 +7343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -6772,7 +7363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -6792,7 +7383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -6812,7 +7403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -6832,7 +7423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -6852,7 +7443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -6872,7 +7463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -6892,7 +7483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -6912,7 +7503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -6932,7 +7523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -6952,7 +7543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -6972,7 +7563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>203</v>
       </c>
@@ -6992,7 +7583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>204</v>
       </c>
@@ -7012,7 +7603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>205</v>
       </c>
@@ -7032,7 +7623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>206</v>
       </c>
@@ -7052,7 +7643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>207</v>
       </c>
@@ -7072,7 +7663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>208</v>
       </c>
@@ -7092,7 +7683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>209</v>
       </c>
@@ -7112,7 +7703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210</v>
       </c>
@@ -7132,7 +7723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>211</v>
       </c>
@@ -7152,7 +7743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>212</v>
       </c>
@@ -7172,7 +7763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>213</v>
       </c>
@@ -7192,7 +7783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>214</v>
       </c>
@@ -7212,7 +7803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>215</v>
       </c>
@@ -7232,7 +7823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>216</v>
       </c>
@@ -7252,7 +7843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>217</v>
       </c>
@@ -7272,7 +7863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>218</v>
       </c>
@@ -7292,7 +7883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>219</v>
       </c>
@@ -7312,7 +7903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -7332,7 +7923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -7352,7 +7943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -7372,7 +7963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -7392,7 +7983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -7412,7 +8003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -7432,7 +8023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -7452,7 +8043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -7472,7 +8063,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -7492,7 +8083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -7512,7 +8103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -7532,7 +8123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -7552,7 +8143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -7572,7 +8163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -7592,7 +8183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -7612,7 +8203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -7632,7 +8223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -7652,7 +8243,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -7672,7 +8263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -7692,7 +8283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -7712,7 +8303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -7732,7 +8323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>241</v>
       </c>
@@ -7752,7 +8343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>242</v>
       </c>
@@ -7772,7 +8363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>243</v>
       </c>
@@ -7792,7 +8383,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>244</v>
       </c>
@@ -7812,7 +8403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>245</v>
       </c>
@@ -7832,7 +8423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>246</v>
       </c>
@@ -7852,7 +8443,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>247</v>
       </c>
@@ -7872,7 +8463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>248</v>
       </c>
@@ -7892,7 +8483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>249</v>
       </c>
@@ -7912,7 +8503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>250</v>
       </c>
@@ -7932,7 +8523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>251</v>
       </c>
@@ -7952,7 +8543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>252</v>
       </c>
@@ -7972,7 +8563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>253</v>
       </c>
@@ -7992,7 +8583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>254</v>
       </c>
@@ -8012,7 +8603,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>255</v>
       </c>
@@ -8032,7 +8623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>256</v>
       </c>
@@ -8052,7 +8643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>257</v>
       </c>
@@ -8072,7 +8663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>258</v>
       </c>
@@ -8092,7 +8683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -8112,7 +8703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>260</v>
       </c>
@@ -8132,7 +8723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>261</v>
       </c>
@@ -8152,7 +8743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>262</v>
       </c>
@@ -8172,7 +8763,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>263</v>
       </c>
@@ -8191,6 +8782,1336 @@
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>264</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+      <c r="F263" s="1"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>265</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+      <c r="F264" s="1"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>266</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+      <c r="F265" s="1"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>267</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+      <c r="F266" s="1"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>268</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+      <c r="F267" s="1"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>269</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+      <c r="F268" s="1"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>270</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+      <c r="F269" s="1"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>271</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+      <c r="F270" s="1"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>272</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+      <c r="F271" s="1"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>273</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+      <c r="F272" s="1"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>274</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+      <c r="F273" s="1"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>275</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+      <c r="F274" s="1"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>276</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+      <c r="F275" s="1"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>277</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+      <c r="F276" s="1"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>278</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>279</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+      <c r="F278" s="1"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>280</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+      <c r="F279" s="1"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>281</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+      <c r="F280" s="1"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>282</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+      <c r="F281" s="1"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>283</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+      <c r="F282" s="1"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>284</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+      <c r="F283" s="1"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>285</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+      <c r="F284" s="1"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>286</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+      <c r="F285" s="1"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>287</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+      <c r="F286" s="1"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>288</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+      <c r="F287" s="1"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>289</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+      <c r="F288" s="1"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>290</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+      <c r="F289" s="1"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>291</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+      <c r="F290" s="1"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>292</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+      <c r="F291" s="1"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>293</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>294</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>295</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>296</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>297</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>298</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>299</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+      <c r="F298" s="1"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>300</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+      <c r="F299" s="1"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>301</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+      <c r="F300" s="1"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>302</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+      <c r="F301" s="1"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>303</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+      <c r="F302" s="1"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>304</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+      <c r="F303" s="1"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>305</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+      <c r="F304" s="1"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>306</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+      <c r="F305" s="1"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>307</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+      <c r="F306" s="1"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>308</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+      <c r="F307" s="1"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>309</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+      <c r="F308" s="1"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>310</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+      <c r="F309" s="1"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>311</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+      <c r="F310" s="1"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>312</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+      <c r="F311" s="1"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>313</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+      <c r="F312" s="1"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>314</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+      <c r="F313" s="1"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>315</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+      <c r="F314" s="1"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>316</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+      <c r="F315" s="1"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>317</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+      <c r="F316" s="1"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>318</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+      <c r="F317" s="1"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>319</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+      <c r="F318" s="1"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>320</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+      <c r="F319" s="1"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>321</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+      <c r="F320" s="1"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>322</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+      <c r="F321" s="1"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>323</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+      <c r="F322" s="1"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>324</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+      <c r="F323" s="1"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>325</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+      <c r="F324" s="1"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>326</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>327</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+      <c r="F326" s="1"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>328</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+      <c r="F327" s="1"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>329</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>330</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+      <c r="F329" s="1"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>331</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+      <c r="F330" s="1"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>332</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+      <c r="F331" s="1"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>333</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+      <c r="F332" s="1"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>334</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+      <c r="F333" s="1"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>335</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+      <c r="F334" s="1"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>336</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+      <c r="F335" s="1"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>337</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+      <c r="F336" s="1"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>338</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+      <c r="F337" s="1"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>339</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+      <c r="F338" s="1"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>340</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+      <c r="F339" s="1"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>341</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+      <c r="F340" s="1"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>342</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+      <c r="F341" s="1"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>343</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+      <c r="F342" s="1"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>344</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+      <c r="F343" s="1"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>345</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+      <c r="F344" s="1"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>346</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+      <c r="F345" s="1"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>347</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>348</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>349</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+      <c r="F348" s="1"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>350</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+      <c r="F349" s="1"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>351</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+      <c r="F350" s="1"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>352</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+      <c r="F351" s="1"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>353</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+      <c r="F352" s="1"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>354</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+      <c r="F353" s="1"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>355</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+      <c r="F354" s="1"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>356</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+      <c r="F355" s="1"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>357</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+      <c r="F356" s="1"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>358</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+      <c r="F357" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8202,22 +10123,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.86328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8240,7 +10163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -8263,7 +10186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -8286,7 +10209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -8309,7 +10232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -8332,7 +10255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -8355,7 +10278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -8378,7 +10301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -8401,7 +10324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -8424,7 +10347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -8447,7 +10370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -8470,7 +10393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -8493,7 +10416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -8516,7 +10439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -8539,7 +10462,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -8562,7 +10485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -8585,7 +10508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -8608,7 +10531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -8631,7 +10554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -8654,7 +10577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -8677,7 +10600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -8700,7 +10623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -8723,7 +10646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -8746,7 +10669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -8769,7 +10692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -8792,7 +10715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -8815,7 +10738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -8838,7 +10761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -8861,7 +10784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -8884,7 +10807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -8907,7 +10830,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -8930,7 +10853,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -8953,7 +10876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -8976,7 +10899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -8998,6 +10921,71 @@
       <c r="G34" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1034</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1035</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9015,13 +11003,13 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.9296875" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9029,27 +11017,27 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>571</v>
       </c>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A3E580-9475-4230-BBAD-5457E630C139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A0748-950D-46DD-8A74-8B8E57995F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1019">
   <si>
     <t>id</t>
   </si>
@@ -3096,6 +3096,9 @@
   </si>
   <si>
     <t>Wetland Data Analyst</t>
+  </si>
+  <si>
+    <t>GAME END</t>
   </si>
 </sst>
 </file>
@@ -3254,8 +3257,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0">
-  <autoFilter ref="A1:B6" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EA688C91-7F6D-4D7A-9D79-A30EB35759F6}" name="English name"/>
     <tableColumn id="2" xr3:uid="{3A0CACDB-DCE4-4775-8258-271B6485FC6A}" name="Translated"/>
@@ -10125,8 +10128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10997,10 +11000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11039,6 +11042,11 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>571</v>
       </c>
     </row>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A0748-950D-46DD-8A74-8B8E57995F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CC73D-A37A-495D-BF29-E5314676600B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1020">
   <si>
     <t>id</t>
   </si>
@@ -3099,6 +3099,9 @@
   </si>
   <si>
     <t>GAME END</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3147,7 +3150,19 @@
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3196,14 +3211,18 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{342334EA-CD0C-475A-9424-8830DAA235E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="11" unboundColumnsRight="4">
+    <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="English name" tableColumnId="2"/>
       <queryTableField id="3" name="Scientific name" tableColumnId="3"/>
       <queryTableField id="4" name="Common name" tableColumnId="4"/>
       <queryTableField id="5" name="Power text" tableColumnId="5"/>
       <queryTableField id="6" name="Note" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3226,15 +3245,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:J357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+  <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{00F6B350-611E-413C-ACEF-9BE3EEBC5A14}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{4BF88D6D-660D-4F99-9A08-77FA3AE137B2}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{6648C19F-84C3-4B75-A5AD-8E4F4CA8A1EC}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{C4A8FE27-67CB-4AC8-ABCF-38C2E0FB069F}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3245,12 +3268,12 @@
   <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3530,10 +3553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView topLeftCell="A350" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:C357"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3546,7 +3569,7 @@
     <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3565,8 +3588,20 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3585,8 +3620,20 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3605,8 +3652,20 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3625,8 +3684,20 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3645,8 +3716,20 @@
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3665,8 +3748,20 @@
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3685,8 +3780,20 @@
       <c r="F7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3705,8 +3812,20 @@
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3725,8 +3844,20 @@
       <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3745,8 +3876,20 @@
       <c r="F10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3765,8 +3908,20 @@
       <c r="F11" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3785,8 +3940,20 @@
       <c r="F12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3805,8 +3972,20 @@
       <c r="F13" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3825,8 +4004,20 @@
       <c r="F14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3845,8 +4036,20 @@
       <c r="F15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3865,8 +4068,20 @@
       <c r="F16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3885,8 +4100,20 @@
       <c r="F17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3905,8 +4132,20 @@
       <c r="F18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3925,8 +4164,20 @@
       <c r="F19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3945,8 +4196,20 @@
       <c r="F20" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3965,8 +4228,20 @@
       <c r="F21" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3985,8 +4260,20 @@
       <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4005,8 +4292,20 @@
       <c r="F23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4025,8 +4324,20 @@
       <c r="F24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4045,8 +4356,20 @@
       <c r="F25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4065,8 +4388,20 @@
       <c r="F26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4085,8 +4420,20 @@
       <c r="F27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4105,8 +4452,20 @@
       <c r="F28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4125,8 +4484,20 @@
       <c r="F29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4145,8 +4516,20 @@
       <c r="F30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4165,8 +4548,20 @@
       <c r="F31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4185,8 +4580,20 @@
       <c r="F32" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4205,8 +4612,20 @@
       <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4225,8 +4644,20 @@
       <c r="F34" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4245,8 +4676,20 @@
       <c r="F35" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4265,8 +4708,20 @@
       <c r="F36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4285,8 +4740,20 @@
       <c r="F37" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4305,8 +4772,20 @@
       <c r="F38" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4325,8 +4804,20 @@
       <c r="F39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4345,8 +4836,20 @@
       <c r="F40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4365,8 +4868,20 @@
       <c r="F41" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4385,8 +4900,20 @@
       <c r="F42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4405,8 +4932,20 @@
       <c r="F43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4425,8 +4964,20 @@
       <c r="F44" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -4445,8 +4996,20 @@
       <c r="F45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -4465,8 +5028,20 @@
       <c r="F46" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -4485,8 +5060,20 @@
       <c r="F47" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -4505,8 +5092,20 @@
       <c r="F48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -4525,8 +5124,20 @@
       <c r="F49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -4545,8 +5156,20 @@
       <c r="F50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -4565,8 +5188,20 @@
       <c r="F51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -4585,8 +5220,20 @@
       <c r="F52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -4605,8 +5252,20 @@
       <c r="F53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -4625,8 +5284,20 @@
       <c r="F54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -4645,8 +5316,20 @@
       <c r="F55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -4665,8 +5348,20 @@
       <c r="F56" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -4685,8 +5380,20 @@
       <c r="F57" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -4705,8 +5412,20 @@
       <c r="F58" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -4725,8 +5444,20 @@
       <c r="F59" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -4745,8 +5476,20 @@
       <c r="F60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -4765,8 +5508,20 @@
       <c r="F61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -4785,8 +5540,20 @@
       <c r="F62" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -4805,8 +5572,20 @@
       <c r="F63" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -4825,8 +5604,20 @@
       <c r="F64" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -4845,8 +5636,20 @@
       <c r="F65" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -4865,8 +5668,20 @@
       <c r="F66" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -4885,8 +5700,20 @@
       <c r="F67" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -4905,8 +5732,20 @@
       <c r="F68" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -4925,8 +5764,20 @@
       <c r="F69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -4945,8 +5796,20 @@
       <c r="F70" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -4965,8 +5828,20 @@
       <c r="F71" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -4985,8 +5860,20 @@
       <c r="F72" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5005,8 +5892,20 @@
       <c r="F73" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -5025,8 +5924,20 @@
       <c r="F74" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5045,8 +5956,20 @@
       <c r="F75" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -5065,8 +5988,20 @@
       <c r="F76" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -5085,8 +6020,20 @@
       <c r="F77" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -5105,8 +6052,20 @@
       <c r="F78" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -5125,8 +6084,20 @@
       <c r="F79" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -5145,8 +6116,20 @@
       <c r="F80" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -5165,8 +6148,20 @@
       <c r="F81" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -5185,8 +6180,20 @@
       <c r="F82" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -5205,8 +6212,20 @@
       <c r="F83" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -5225,8 +6244,20 @@
       <c r="F84" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -5245,8 +6276,20 @@
       <c r="F85" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -5265,8 +6308,20 @@
       <c r="F86" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -5285,8 +6340,20 @@
       <c r="F87" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -5305,8 +6372,20 @@
       <c r="F88" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -5325,8 +6404,20 @@
       <c r="F89" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -5345,8 +6436,20 @@
       <c r="F90" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -5365,8 +6468,20 @@
       <c r="F91" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -5385,8 +6500,20 @@
       <c r="F92" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -5405,8 +6532,20 @@
       <c r="F93" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -5425,8 +6564,20 @@
       <c r="F94" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -5445,8 +6596,20 @@
       <c r="F95" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -5465,8 +6628,20 @@
       <c r="F96" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -5485,8 +6660,20 @@
       <c r="F97" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -5505,8 +6692,20 @@
       <c r="F98" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -5525,8 +6724,20 @@
       <c r="F99" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -5545,8 +6756,20 @@
       <c r="F100" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -5565,8 +6788,20 @@
       <c r="F101" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -5585,8 +6820,20 @@
       <c r="F102" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -5605,8 +6852,20 @@
       <c r="F103" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5625,8 +6884,20 @@
       <c r="F104" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -5645,8 +6916,20 @@
       <c r="F105" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -5665,8 +6948,20 @@
       <c r="F106" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -5685,8 +6980,20 @@
       <c r="F107" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -5705,8 +7012,20 @@
       <c r="F108" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -5725,8 +7044,20 @@
       <c r="F109" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -5745,8 +7076,20 @@
       <c r="F110" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -5765,8 +7108,20 @@
       <c r="F111" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -5785,8 +7140,20 @@
       <c r="F112" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -5805,8 +7172,20 @@
       <c r="F113" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -5825,8 +7204,20 @@
       <c r="F114" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -5845,8 +7236,20 @@
       <c r="F115" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -5865,8 +7268,20 @@
       <c r="F116" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -5885,8 +7300,20 @@
       <c r="F117" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -5905,8 +7332,20 @@
       <c r="F118" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -5925,8 +7364,20 @@
       <c r="F119" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -5945,8 +7396,20 @@
       <c r="F120" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -5965,8 +7428,20 @@
       <c r="F121" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -5985,8 +7460,20 @@
       <c r="F122" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -6005,8 +7492,20 @@
       <c r="F123" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -6025,8 +7524,20 @@
       <c r="F124" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -6045,8 +7556,20 @@
       <c r="F125" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -6065,8 +7588,20 @@
       <c r="F126" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -6085,8 +7620,20 @@
       <c r="F127" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -6105,8 +7652,20 @@
       <c r="F128" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -6125,8 +7684,20 @@
       <c r="F129" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -6145,8 +7716,20 @@
       <c r="F130" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -6165,8 +7748,20 @@
       <c r="F131" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -6185,8 +7780,20 @@
       <c r="F132" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -6205,8 +7812,20 @@
       <c r="F133" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G133" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -6225,8 +7844,20 @@
       <c r="F134" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G134" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -6245,8 +7876,20 @@
       <c r="F135" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -6265,8 +7908,20 @@
       <c r="F136" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -6285,8 +7940,20 @@
       <c r="F137" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -6305,8 +7972,20 @@
       <c r="F138" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -6325,8 +8004,20 @@
       <c r="F139" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -6345,8 +8036,20 @@
       <c r="F140" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -6365,8 +8068,20 @@
       <c r="F141" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -6385,8 +8100,20 @@
       <c r="F142" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -6405,8 +8132,20 @@
       <c r="F143" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -6425,8 +8164,20 @@
       <c r="F144" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -6445,8 +8196,20 @@
       <c r="F145" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -6465,8 +8228,20 @@
       <c r="F146" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -6485,8 +8260,20 @@
       <c r="F147" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -6505,8 +8292,20 @@
       <c r="F148" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -6525,8 +8324,20 @@
       <c r="F149" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -6545,8 +8356,20 @@
       <c r="F150" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -6565,8 +8388,20 @@
       <c r="F151" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -6585,8 +8420,20 @@
       <c r="F152" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -6605,8 +8452,20 @@
       <c r="F153" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -6625,8 +8484,20 @@
       <c r="F154" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -6645,8 +8516,20 @@
       <c r="F155" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -6665,8 +8548,20 @@
       <c r="F156" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -6685,8 +8580,20 @@
       <c r="F157" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -6705,8 +8612,20 @@
       <c r="F158" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -6725,8 +8644,20 @@
       <c r="F159" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -6745,8 +8676,20 @@
       <c r="F160" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -6765,8 +8708,20 @@
       <c r="F161" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -6785,8 +8740,20 @@
       <c r="F162" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -6805,8 +8772,20 @@
       <c r="F163" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -6825,8 +8804,20 @@
       <c r="F164" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -6845,8 +8836,20 @@
       <c r="F165" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -6865,8 +8868,20 @@
       <c r="F166" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -6885,8 +8900,20 @@
       <c r="F167" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -6905,8 +8932,20 @@
       <c r="F168" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -6925,8 +8964,20 @@
       <c r="F169" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -6945,8 +8996,20 @@
       <c r="F170" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -6965,8 +9028,20 @@
       <c r="F171" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -6985,8 +9060,20 @@
       <c r="F172" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -7005,8 +9092,20 @@
       <c r="F173" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -7025,8 +9124,20 @@
       <c r="F174" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -7045,8 +9156,20 @@
       <c r="F175" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -7065,8 +9188,20 @@
       <c r="F176" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -7085,8 +9220,20 @@
       <c r="F177" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -7105,8 +9252,20 @@
       <c r="F178" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -7125,8 +9284,20 @@
       <c r="F179" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -7145,8 +9316,20 @@
       <c r="F180" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -7165,8 +9348,20 @@
       <c r="F181" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J181" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -7185,8 +9380,20 @@
       <c r="F182" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J182" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -7205,8 +9412,20 @@
       <c r="F183" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -7225,8 +9444,20 @@
       <c r="F184" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -7245,8 +9476,20 @@
       <c r="F185" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J185" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -7265,8 +9508,20 @@
       <c r="F186" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -7285,8 +9540,20 @@
       <c r="F187" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G187" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J187" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -7305,8 +9572,20 @@
       <c r="F188" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J188" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -7325,8 +9604,20 @@
       <c r="F189" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J189" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -7345,8 +9636,20 @@
       <c r="F190" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J190" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -7365,8 +9668,20 @@
       <c r="F191" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J191" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -7385,8 +9700,20 @@
       <c r="F192" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J192" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -7405,8 +9732,20 @@
       <c r="F193" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J193" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -7425,8 +9764,20 @@
       <c r="F194" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J194" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -7445,8 +9796,20 @@
       <c r="F195" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J195" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -7465,8 +9828,20 @@
       <c r="F196" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J196" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -7485,8 +9860,20 @@
       <c r="F197" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J197" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -7505,8 +9892,20 @@
       <c r="F198" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J198" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -7525,8 +9924,20 @@
       <c r="F199" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -7545,8 +9956,20 @@
       <c r="F200" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G200" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J200" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -7565,8 +9988,20 @@
       <c r="F201" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J201" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>203</v>
       </c>
@@ -7585,8 +10020,20 @@
       <c r="F202" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J202" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>204</v>
       </c>
@@ -7605,8 +10052,20 @@
       <c r="F203" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J203" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>205</v>
       </c>
@@ -7625,8 +10084,20 @@
       <c r="F204" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J204" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>206</v>
       </c>
@@ -7645,8 +10116,20 @@
       <c r="F205" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J205" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>207</v>
       </c>
@@ -7665,8 +10148,20 @@
       <c r="F206" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G206" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J206" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>208</v>
       </c>
@@ -7685,8 +10180,20 @@
       <c r="F207" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J207" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>209</v>
       </c>
@@ -7705,8 +10212,20 @@
       <c r="F208" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>210</v>
       </c>
@@ -7725,8 +10244,20 @@
       <c r="F209" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G209" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>211</v>
       </c>
@@ -7745,8 +10276,20 @@
       <c r="F210" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>212</v>
       </c>
@@ -7765,8 +10308,20 @@
       <c r="F211" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G211" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>213</v>
       </c>
@@ -7785,8 +10340,20 @@
       <c r="F212" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>214</v>
       </c>
@@ -7805,8 +10372,20 @@
       <c r="F213" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>215</v>
       </c>
@@ -7825,8 +10404,20 @@
       <c r="F214" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>216</v>
       </c>
@@ -7845,8 +10436,20 @@
       <c r="F215" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>217</v>
       </c>
@@ -7865,8 +10468,20 @@
       <c r="F216" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>218</v>
       </c>
@@ -7885,8 +10500,20 @@
       <c r="F217" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>219</v>
       </c>
@@ -7905,8 +10532,20 @@
       <c r="F218" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>220</v>
       </c>
@@ -7925,8 +10564,20 @@
       <c r="F219" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>221</v>
       </c>
@@ -7945,8 +10596,20 @@
       <c r="F220" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>222</v>
       </c>
@@ -7965,8 +10628,20 @@
       <c r="F221" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>223</v>
       </c>
@@ -7985,8 +10660,20 @@
       <c r="F222" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>224</v>
       </c>
@@ -8005,8 +10692,20 @@
       <c r="F223" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>225</v>
       </c>
@@ -8025,8 +10724,20 @@
       <c r="F224" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>226</v>
       </c>
@@ -8045,8 +10756,20 @@
       <c r="F225" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>227</v>
       </c>
@@ -8065,8 +10788,20 @@
       <c r="F226" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>228</v>
       </c>
@@ -8085,8 +10820,20 @@
       <c r="F227" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>229</v>
       </c>
@@ -8105,8 +10852,20 @@
       <c r="F228" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>230</v>
       </c>
@@ -8125,8 +10884,20 @@
       <c r="F229" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>231</v>
       </c>
@@ -8145,8 +10916,20 @@
       <c r="F230" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>232</v>
       </c>
@@ -8165,8 +10948,20 @@
       <c r="F231" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>233</v>
       </c>
@@ -8185,8 +10980,20 @@
       <c r="F232" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>234</v>
       </c>
@@ -8205,8 +11012,20 @@
       <c r="F233" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>235</v>
       </c>
@@ -8225,8 +11044,20 @@
       <c r="F234" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>236</v>
       </c>
@@ -8245,8 +11076,20 @@
       <c r="F235" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>237</v>
       </c>
@@ -8265,8 +11108,20 @@
       <c r="F236" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>238</v>
       </c>
@@ -8285,8 +11140,20 @@
       <c r="F237" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>239</v>
       </c>
@@ -8305,8 +11172,20 @@
       <c r="F238" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>240</v>
       </c>
@@ -8325,8 +11204,20 @@
       <c r="F239" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>241</v>
       </c>
@@ -8345,8 +11236,20 @@
       <c r="F240" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>242</v>
       </c>
@@ -8365,8 +11268,20 @@
       <c r="F241" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>243</v>
       </c>
@@ -8385,8 +11300,20 @@
       <c r="F242" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>244</v>
       </c>
@@ -8405,8 +11332,20 @@
       <c r="F243" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>245</v>
       </c>
@@ -8425,8 +11364,20 @@
       <c r="F244" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>246</v>
       </c>
@@ -8445,8 +11396,20 @@
       <c r="F245" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>247</v>
       </c>
@@ -8465,8 +11428,20 @@
       <c r="F246" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>248</v>
       </c>
@@ -8485,8 +11460,20 @@
       <c r="F247" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>249</v>
       </c>
@@ -8505,8 +11492,20 @@
       <c r="F248" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G248" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>250</v>
       </c>
@@ -8525,8 +11524,20 @@
       <c r="F249" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>251</v>
       </c>
@@ -8545,8 +11556,20 @@
       <c r="F250" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>252</v>
       </c>
@@ -8565,8 +11588,20 @@
       <c r="F251" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>253</v>
       </c>
@@ -8585,8 +11620,20 @@
       <c r="F252" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>254</v>
       </c>
@@ -8605,8 +11652,20 @@
       <c r="F253" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>255</v>
       </c>
@@ -8625,8 +11684,20 @@
       <c r="F254" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>256</v>
       </c>
@@ -8645,8 +11716,20 @@
       <c r="F255" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>257</v>
       </c>
@@ -8665,8 +11748,20 @@
       <c r="F256" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>258</v>
       </c>
@@ -8685,8 +11780,20 @@
       <c r="F257" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G257" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>259</v>
       </c>
@@ -8705,8 +11812,20 @@
       <c r="F258" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G258" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>260</v>
       </c>
@@ -8725,8 +11844,20 @@
       <c r="F259" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G259" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>261</v>
       </c>
@@ -8745,8 +11876,20 @@
       <c r="F260" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G260" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>262</v>
       </c>
@@ -8765,8 +11908,20 @@
       <c r="F261" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G261" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>263</v>
       </c>
@@ -8785,8 +11940,20 @@
       <c r="F262" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>264</v>
       </c>
@@ -8799,8 +11966,20 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>265</v>
       </c>
@@ -8813,8 +11992,20 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>266</v>
       </c>
@@ -8827,8 +12018,20 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>267</v>
       </c>
@@ -8841,8 +12044,20 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>268</v>
       </c>
@@ -8855,8 +12070,20 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>269</v>
       </c>
@@ -8869,8 +12096,20 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>270</v>
       </c>
@@ -8883,8 +12122,20 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>271</v>
       </c>
@@ -8897,8 +12148,20 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G270" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>272</v>
       </c>
@@ -8911,8 +12174,20 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G271" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>273</v>
       </c>
@@ -8925,8 +12200,20 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>274</v>
       </c>
@@ -8939,8 +12226,20 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>275</v>
       </c>
@@ -8953,8 +12252,20 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>276</v>
       </c>
@@ -8967,8 +12278,20 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G275" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>277</v>
       </c>
@@ -8981,8 +12304,20 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>278</v>
       </c>
@@ -8995,8 +12330,20 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>279</v>
       </c>
@@ -9009,8 +12356,20 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>280</v>
       </c>
@@ -9023,8 +12382,20 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>281</v>
       </c>
@@ -9037,8 +12408,20 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>282</v>
       </c>
@@ -9051,8 +12434,20 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G281" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>283</v>
       </c>
@@ -9065,8 +12460,20 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G282" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>284</v>
       </c>
@@ -9079,8 +12486,20 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>285</v>
       </c>
@@ -9093,8 +12512,20 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>286</v>
       </c>
@@ -9107,8 +12538,20 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>287</v>
       </c>
@@ -9121,8 +12564,20 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>288</v>
       </c>
@@ -9135,8 +12590,20 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>289</v>
       </c>
@@ -9149,8 +12616,20 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G288" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>290</v>
       </c>
@@ -9163,8 +12642,20 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>291</v>
       </c>
@@ -9177,8 +12668,20 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>292</v>
       </c>
@@ -9191,8 +12694,20 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>293</v>
       </c>
@@ -9205,8 +12720,20 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>294</v>
       </c>
@@ -9219,8 +12746,20 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>295</v>
       </c>
@@ -9233,8 +12772,20 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>296</v>
       </c>
@@ -9247,8 +12798,20 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G295" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>297</v>
       </c>
@@ -9261,8 +12824,20 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J296" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>298</v>
       </c>
@@ -9275,8 +12850,20 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J297" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>299</v>
       </c>
@@ -9289,8 +12876,20 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>300</v>
       </c>
@@ -9303,8 +12902,20 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J299" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>301</v>
       </c>
@@ -9317,8 +12928,20 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-    </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J300" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>302</v>
       </c>
@@ -9331,8 +12954,20 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J301" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>303</v>
       </c>
@@ -9345,8 +12980,20 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J302" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>304</v>
       </c>
@@ -9359,8 +13006,20 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J303" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>305</v>
       </c>
@@ -9373,8 +13032,20 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J304" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>306</v>
       </c>
@@ -9387,8 +13058,20 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J305" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>307</v>
       </c>
@@ -9401,8 +13084,20 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J306" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>308</v>
       </c>
@@ -9415,8 +13110,20 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J307" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>309</v>
       </c>
@@ -9429,8 +13136,20 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J308" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>310</v>
       </c>
@@ -9443,8 +13162,20 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>311</v>
       </c>
@@ -9457,8 +13188,20 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J310" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>312</v>
       </c>
@@ -9471,8 +13214,20 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J311" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>313</v>
       </c>
@@ -9485,8 +13240,20 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J312" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>314</v>
       </c>
@@ -9499,8 +13266,20 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>315</v>
       </c>
@@ -9513,8 +13292,20 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J314" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>316</v>
       </c>
@@ -9527,8 +13318,20 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J315" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>317</v>
       </c>
@@ -9541,8 +13344,20 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G316" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J316" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>318</v>
       </c>
@@ -9555,8 +13370,20 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J317" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>319</v>
       </c>
@@ -9569,8 +13396,20 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J318" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>320</v>
       </c>
@@ -9583,8 +13422,20 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J319" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>321</v>
       </c>
@@ -9597,8 +13448,20 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J320" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>322</v>
       </c>
@@ -9611,8 +13474,20 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J321" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>323</v>
       </c>
@@ -9625,8 +13500,20 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J322" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>324</v>
       </c>
@@ -9639,8 +13526,20 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J323" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>325</v>
       </c>
@@ -9653,8 +13552,20 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G324" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J324" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>326</v>
       </c>
@@ -9667,8 +13578,20 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G325" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J325" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>327</v>
       </c>
@@ -9681,8 +13604,20 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J326" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>328</v>
       </c>
@@ -9695,8 +13630,20 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-    </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J327" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>329</v>
       </c>
@@ -9709,8 +13656,20 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J328" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>330</v>
       </c>
@@ -9723,8 +13682,20 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G329" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J329" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>331</v>
       </c>
@@ -9737,8 +13708,20 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G330" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J330" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>332</v>
       </c>
@@ -9751,8 +13734,20 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G331" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J331" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>333</v>
       </c>
@@ -9765,8 +13760,20 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G332" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J332" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>334</v>
       </c>
@@ -9779,8 +13786,20 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G333" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J333" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>335</v>
       </c>
@@ -9793,8 +13812,20 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J334" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>336</v>
       </c>
@@ -9807,8 +13838,20 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G335" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J335" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>337</v>
       </c>
@@ -9821,8 +13864,20 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J336" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>338</v>
       </c>
@@ -9835,8 +13890,20 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J337" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>339</v>
       </c>
@@ -9849,8 +13916,20 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J338" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>340</v>
       </c>
@@ -9863,8 +13942,20 @@
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J339" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>341</v>
       </c>
@@ -9877,8 +13968,20 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G340" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J340" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>342</v>
       </c>
@@ -9891,8 +13994,20 @@
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G341" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J341" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>343</v>
       </c>
@@ -9905,8 +14020,20 @@
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G342" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J342" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>344</v>
       </c>
@@ -9919,8 +14046,20 @@
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J343" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>345</v>
       </c>
@@ -9933,8 +14072,20 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J344" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>346</v>
       </c>
@@ -9947,8 +14098,20 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J345" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>347</v>
       </c>
@@ -9961,8 +14124,20 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J346" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>348</v>
       </c>
@@ -9975,8 +14150,20 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G347" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J347" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>349</v>
       </c>
@@ -9989,8 +14176,20 @@
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J348" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>350</v>
       </c>
@@ -10003,8 +14202,20 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G349" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J349" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>351</v>
       </c>
@@ -10017,8 +14228,20 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J350" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>352</v>
       </c>
@@ -10031,8 +14254,20 @@
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G351" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J351" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>353</v>
       </c>
@@ -10045,8 +14280,20 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J352" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>354</v>
       </c>
@@ -10059,8 +14306,20 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G353" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J353" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>355</v>
       </c>
@@ -10073,8 +14332,20 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G354" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J354" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>356</v>
       </c>
@@ -10087,8 +14358,20 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G355" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J355" s="3" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>357</v>
       </c>
@@ -10101,8 +14384,20 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G356" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J356" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>358</v>
       </c>
@@ -10115,6 +14410,18 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
+      <c r="G357" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J357" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11002,7 +15309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CC73D-A37A-495D-BF29-E5314676600B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$357</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,18 +25,18 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{01BD6D64-1507-4373-83BC-D3F8EC13B0DE}" keepAlive="1" name="Query - birds" description="Connection to the 'birds' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Query - birds" description="Connection to the 'birds' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=birds;Extended Properties=&quot;&quot;" command="SELECT * FROM [birds]"/>
   </connection>
-  <connection id="2" xr16:uid="{68BAEA8D-A401-46FF-BFE9-FB487ABEC6DB}" keepAlive="1" name="Query - bonuses" description="Connection to the 'bonuses' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" keepAlive="1" name="Query - bonuses" description="Connection to the 'bonuses' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=bonuses;Extended Properties=&quot;&quot;" command="SELECT * FROM [bonuses]"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3152" uniqueCount="1031">
   <si>
     <t>id</t>
   </si>
@@ -3102,12 +3096,45 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Lasówka szkarłatna</t>
+  </si>
+  <si>
+    <t>Koliberek czarnobrody</t>
+  </si>
+  <si>
+    <t>Bernikla Obrożna</t>
+  </si>
+  <si>
+    <t>Myszołów Szerokoskrzydły</t>
+  </si>
+  <si>
+    <t>Głowienka Długodzioba</t>
+  </si>
+  <si>
+    <t>Pleszówka Białoskrzydła</t>
+  </si>
+  <si>
+    <t>Raz pomiędzy turami</t>
+  </si>
+  <si>
+    <t>Na koniec rundy</t>
+  </si>
+  <si>
+    <t>Na koniec gry</t>
+  </si>
+  <si>
+    <t>Kiedy aktywujesz</t>
+  </si>
+  <si>
+    <t>Kiedy zagrywasz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3148,7 +3175,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -3210,7 +3237,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{342334EA-CD0C-475A-9424-8830DAA235E3}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11" unboundColumnsRight="4">
     <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -3229,7 +3256,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{81FE7702-02C9-4C0B-BF8A-3042F3A2C4E0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="8">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -3245,46 +3272,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{24256CD6-671B-49BB-A76A-BCA812A8DD0C}" name="birds" displayName="birds" ref="A1:J357" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J357" xr:uid="{A51C43BE-DDEC-40D6-92FD-3C4BA38F764F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:J357" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:J357"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{25ED0C0D-B939-406D-8B67-A9F9A8641DEE}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{72C3DFD8-3F0B-483B-8A68-A0BCCABA3E13}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{F31DEB5D-C6B9-4F1B-820C-4F95CE57D16A}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A5506B6F-49BA-42EE-A718-CC5148A660D3}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{09B53191-4035-465E-9330-BD4E97D6D12B}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{3E46B35F-181F-4677-927E-F31B43E5FCB4}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{00F6B350-611E-413C-ACEF-9BE3EEBC5A14}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{4BF88D6D-660D-4F99-9A08-77FA3AE137B2}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{6648C19F-84C3-4B75-A5AD-8E4F4CA8A1EC}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{C4A8FE27-67CB-4AC8-ABCF-38C2E0FB069F}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="14"/>
+    <tableColumn id="3" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="13"/>
+    <tableColumn id="4" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="12"/>
+    <tableColumn id="5" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="11"/>
+    <tableColumn id="6" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="10"/>
+    <tableColumn id="7" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="9"/>
+    <tableColumn id="8" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="8"/>
+    <tableColumn id="9" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="7"/>
+    <tableColumn id="10" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6299CC7B-9130-4C9A-A587-FBEBFEEB5D0F}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G39" xr:uid="{35D50B44-8490-4501-A753-CAF3081EA540}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G39"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{339841CB-3C69-4C68-9375-1B8F78B4B947}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7CD88691-F9EE-4A08-8F51-475C5497AC67}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6E49BD89-CAF6-41F4-96CF-6DF3FD6EEA37}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{B65DE2EA-D492-4089-8B68-9542CC81F833}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{02D544BE-21DA-4CF7-BD1B-D83445917C90}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{F2682937-4B01-4B76-AF27-0D1B8942118C}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{5D15D6CB-F420-4619-9C0C-DF47D651A99D}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1"/>
+    <tableColumn id="2" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5AA05F43-7971-4EB4-8E5C-9E7EFB591048}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{A5CFAA4D-6579-4D29-89EB-6C57AE6E1FEB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EA688C91-7F6D-4D7A-9D79-A30EB35759F6}" name="English name"/>
-    <tableColumn id="2" xr3:uid="{3A0CACDB-DCE4-4775-8258-271B6485FC6A}" name="Translated"/>
+    <tableColumn id="1" name="English name"/>
+    <tableColumn id="2" name="Translated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3333,7 +3360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3368,7 +3395,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3545,31 +3572,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J357"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="B262" sqref="B262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3601,7 +3628,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -3633,7 +3660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3665,7 +3692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -3697,7 +3724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3729,7 +3756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3761,7 +3788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3793,7 +3820,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3825,7 +3852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3857,7 +3884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -3868,7 +3895,7 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>1020</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -3889,7 +3916,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3921,7 +3948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3953,7 +3980,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3985,7 +4012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -4017,7 +4044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -4049,7 +4076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -4081,7 +4108,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -4113,7 +4140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -4145,7 +4172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -4177,7 +4204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -4209,7 +4236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -4241,7 +4268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -4273,7 +4300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -4305,7 +4332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -4337,7 +4364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -4369,7 +4396,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -4401,7 +4428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -4433,7 +4460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -4465,7 +4492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -4497,7 +4524,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -4529,7 +4556,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -4561,7 +4588,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -4593,7 +4620,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -4625,7 +4652,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -4657,7 +4684,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -4689,7 +4716,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -4700,7 +4727,7 @@
         <v>76</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>1021</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>8</v>
@@ -4721,7 +4748,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -4753,7 +4780,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -4785,7 +4812,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -4817,7 +4844,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -4849,7 +4876,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -4881,7 +4908,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -4913,7 +4940,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -4945,7 +4972,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -4977,7 +5004,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -5009,7 +5036,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -5041,7 +5068,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -5073,7 +5100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -5105,7 +5132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -5116,7 +5143,7 @@
         <v>102</v>
       </c>
       <c r="D49" t="s">
-        <v>8</v>
+        <v>1022</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>8</v>
@@ -5137,7 +5164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -5169,7 +5196,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -5180,7 +5207,7 @@
         <v>106</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>1023</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>8</v>
@@ -5201,7 +5228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -5233,7 +5260,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -5265,7 +5292,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -5297,7 +5324,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -5329,7 +5356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -5361,7 +5388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -5393,7 +5420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -5425,7 +5452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -5457,7 +5484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -5489,7 +5516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -5500,7 +5527,7 @@
         <v>126</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>1024</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>8</v>
@@ -5521,7 +5548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -5553,7 +5580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -5585,7 +5612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -5617,7 +5644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -5649,7 +5676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -5681,7 +5708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -5713,7 +5740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -5745,7 +5772,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -5777,7 +5804,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -5809,7 +5836,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -5841,7 +5868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -5873,7 +5900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -5905,7 +5932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -5937,7 +5964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -5969,7 +5996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -6001,7 +6028,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -6033,7 +6060,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -6065,7 +6092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -6097,7 +6124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -6129,7 +6156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -6161,7 +6188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
@@ -6193,7 +6220,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -6225,7 +6252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -6257,7 +6284,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -6289,7 +6316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -6321,7 +6348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -6353,7 +6380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -6385,7 +6412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -6417,7 +6444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -6449,7 +6476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -6481,7 +6508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -6513,7 +6540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -6545,7 +6572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -6577,7 +6604,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -6609,7 +6636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -6641,7 +6668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -6673,7 +6700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -6705,7 +6732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -6737,7 +6764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -6769,7 +6796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -6801,7 +6828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
@@ -6833,7 +6860,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
@@ -6865,7 +6892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
@@ -6897,7 +6924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
@@ -6929,7 +6956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
@@ -6961,7 +6988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
@@ -6993,7 +7020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
@@ -7025,7 +7052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -7057,7 +7084,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>110</v>
       </c>
@@ -7089,7 +7116,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
@@ -7121,7 +7148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
@@ -7153,7 +7180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>113</v>
       </c>
@@ -7185,7 +7212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>114</v>
       </c>
@@ -7217,7 +7244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>115</v>
       </c>
@@ -7249,7 +7276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>116</v>
       </c>
@@ -7281,7 +7308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>117</v>
       </c>
@@ -7313,7 +7340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -7345,7 +7372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119</v>
       </c>
@@ -7377,7 +7404,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>120</v>
       </c>
@@ -7409,7 +7436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
@@ -7441,7 +7468,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
@@ -7473,7 +7500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>123</v>
       </c>
@@ -7505,7 +7532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
@@ -7537,7 +7564,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
@@ -7569,7 +7596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>126</v>
       </c>
@@ -7601,7 +7628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>127</v>
       </c>
@@ -7633,7 +7660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>128</v>
       </c>
@@ -7665,7 +7692,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>129</v>
       </c>
@@ -7697,7 +7724,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>130</v>
       </c>
@@ -7729,7 +7756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>131</v>
       </c>
@@ -7761,7 +7788,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>132</v>
       </c>
@@ -7793,7 +7820,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>133</v>
       </c>
@@ -7825,7 +7852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>134</v>
       </c>
@@ -7857,7 +7884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>135</v>
       </c>
@@ -7889,7 +7916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>136</v>
       </c>
@@ -7921,7 +7948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
@@ -7953,7 +7980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
@@ -7985,7 +8012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
@@ -8017,7 +8044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
@@ -8049,7 +8076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>141</v>
       </c>
@@ -8081,7 +8108,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>142</v>
       </c>
@@ -8113,7 +8140,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>143</v>
       </c>
@@ -8145,7 +8172,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>144</v>
       </c>
@@ -8177,7 +8204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>145</v>
       </c>
@@ -8209,7 +8236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>146</v>
       </c>
@@ -8241,7 +8268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>147</v>
       </c>
@@ -8273,7 +8300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>148</v>
       </c>
@@ -8305,7 +8332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>149</v>
       </c>
@@ -8337,7 +8364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>150</v>
       </c>
@@ -8369,7 +8396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>151</v>
       </c>
@@ -8401,7 +8428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>152</v>
       </c>
@@ -8433,7 +8460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>153</v>
       </c>
@@ -8465,7 +8492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>154</v>
       </c>
@@ -8497,7 +8524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>155</v>
       </c>
@@ -8529,7 +8556,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>156</v>
       </c>
@@ -8561,7 +8588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>157</v>
       </c>
@@ -8593,7 +8620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>158</v>
       </c>
@@ -8625,7 +8652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>159</v>
       </c>
@@ -8657,7 +8684,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>160</v>
       </c>
@@ -8689,7 +8716,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>161</v>
       </c>
@@ -8721,7 +8748,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>162</v>
       </c>
@@ -8753,7 +8780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>163</v>
       </c>
@@ -8785,7 +8812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>164</v>
       </c>
@@ -8817,7 +8844,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>165</v>
       </c>
@@ -8849,7 +8876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>166</v>
       </c>
@@ -8881,7 +8908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>167</v>
       </c>
@@ -8913,7 +8940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>168</v>
       </c>
@@ -8945,7 +8972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>169</v>
       </c>
@@ -8977,7 +9004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>170</v>
       </c>
@@ -9009,7 +9036,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>171</v>
       </c>
@@ -9041,7 +9068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>172</v>
       </c>
@@ -9073,7 +9100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>173</v>
       </c>
@@ -9105,7 +9132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>174</v>
       </c>
@@ -9137,7 +9164,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>175</v>
       </c>
@@ -9169,7 +9196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>176</v>
       </c>
@@ -9201,7 +9228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>177</v>
       </c>
@@ -9233,7 +9260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>178</v>
       </c>
@@ -9265,7 +9292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>179</v>
       </c>
@@ -9297,7 +9324,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>180</v>
       </c>
@@ -9329,7 +9356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>181</v>
       </c>
@@ -9361,7 +9388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>182</v>
       </c>
@@ -9393,7 +9420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>183</v>
       </c>
@@ -9425,7 +9452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>184</v>
       </c>
@@ -9436,7 +9463,7 @@
         <v>372</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>1025</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>8</v>
@@ -9457,7 +9484,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>185</v>
       </c>
@@ -9489,7 +9516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>186</v>
       </c>
@@ -9521,7 +9548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>187</v>
       </c>
@@ -9553,7 +9580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>188</v>
       </c>
@@ -9585,7 +9612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>189</v>
       </c>
@@ -9617,7 +9644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>190</v>
       </c>
@@ -9649,7 +9676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>191</v>
       </c>
@@ -9681,7 +9708,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>192</v>
       </c>
@@ -9713,7 +9740,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>193</v>
       </c>
@@ -9745,7 +9772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>194</v>
       </c>
@@ -9777,7 +9804,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>195</v>
       </c>
@@ -9809,7 +9836,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>196</v>
       </c>
@@ -9841,7 +9868,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>197</v>
       </c>
@@ -9873,7 +9900,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>198</v>
       </c>
@@ -9905,7 +9932,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>199</v>
       </c>
@@ -9937,7 +9964,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>200</v>
       </c>
@@ -9969,7 +9996,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>201</v>
       </c>
@@ -10001,7 +10028,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>203</v>
       </c>
@@ -10033,7 +10060,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>204</v>
       </c>
@@ -10065,7 +10092,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>205</v>
       </c>
@@ -10097,7 +10124,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>206</v>
       </c>
@@ -10129,7 +10156,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>207</v>
       </c>
@@ -10161,7 +10188,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>208</v>
       </c>
@@ -10193,7 +10220,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>209</v>
       </c>
@@ -10225,7 +10252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>210</v>
       </c>
@@ -10257,7 +10284,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>211</v>
       </c>
@@ -10289,7 +10316,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>212</v>
       </c>
@@ -10321,7 +10348,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>213</v>
       </c>
@@ -10353,7 +10380,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>214</v>
       </c>
@@ -10385,7 +10412,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>215</v>
       </c>
@@ -10417,7 +10444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>216</v>
       </c>
@@ -10449,7 +10476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>217</v>
       </c>
@@ -10481,7 +10508,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>218</v>
       </c>
@@ -10513,7 +10540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>219</v>
       </c>
@@ -10545,7 +10572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>220</v>
       </c>
@@ -10577,7 +10604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>221</v>
       </c>
@@ -10609,7 +10636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>222</v>
       </c>
@@ -10641,7 +10668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>223</v>
       </c>
@@ -10673,7 +10700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>224</v>
       </c>
@@ -10705,7 +10732,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>225</v>
       </c>
@@ -10737,7 +10764,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>226</v>
       </c>
@@ -10769,7 +10796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>227</v>
       </c>
@@ -10801,7 +10828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>228</v>
       </c>
@@ -10833,7 +10860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>229</v>
       </c>
@@ -10865,7 +10892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>230</v>
       </c>
@@ -10897,7 +10924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>231</v>
       </c>
@@ -10929,7 +10956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>232</v>
       </c>
@@ -10961,7 +10988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>233</v>
       </c>
@@ -10993,7 +11020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>234</v>
       </c>
@@ -11025,7 +11052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>235</v>
       </c>
@@ -11057,7 +11084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>236</v>
       </c>
@@ -11089,7 +11116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>237</v>
       </c>
@@ -11121,7 +11148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>238</v>
       </c>
@@ -11153,7 +11180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>239</v>
       </c>
@@ -11185,7 +11212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>240</v>
       </c>
@@ -11217,7 +11244,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>241</v>
       </c>
@@ -11249,7 +11276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>242</v>
       </c>
@@ -11281,7 +11308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>243</v>
       </c>
@@ -11313,7 +11340,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>244</v>
       </c>
@@ -11345,7 +11372,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>245</v>
       </c>
@@ -11377,7 +11404,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>246</v>
       </c>
@@ -11409,7 +11436,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>247</v>
       </c>
@@ -11441,7 +11468,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>248</v>
       </c>
@@ -11473,7 +11500,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>249</v>
       </c>
@@ -11505,7 +11532,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>250</v>
       </c>
@@ -11537,7 +11564,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>251</v>
       </c>
@@ -11569,7 +11596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>252</v>
       </c>
@@ -11601,7 +11628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>253</v>
       </c>
@@ -11633,7 +11660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>254</v>
       </c>
@@ -11665,7 +11692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>255</v>
       </c>
@@ -11697,7 +11724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>256</v>
       </c>
@@ -11729,7 +11756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>257</v>
       </c>
@@ -11761,7 +11788,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>258</v>
       </c>
@@ -11793,7 +11820,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>259</v>
       </c>
@@ -11825,7 +11852,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>260</v>
       </c>
@@ -11857,7 +11884,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>261</v>
       </c>
@@ -11889,7 +11916,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>262</v>
       </c>
@@ -11921,7 +11948,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>263</v>
       </c>
@@ -11953,7 +11980,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>264</v>
       </c>
@@ -11979,7 +12006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>265</v>
       </c>
@@ -12005,7 +12032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>266</v>
       </c>
@@ -12031,7 +12058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>267</v>
       </c>
@@ -12057,7 +12084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>268</v>
       </c>
@@ -12083,7 +12110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>269</v>
       </c>
@@ -12109,7 +12136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>270</v>
       </c>
@@ -12135,7 +12162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>271</v>
       </c>
@@ -12161,7 +12188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>272</v>
       </c>
@@ -12187,7 +12214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>273</v>
       </c>
@@ -12213,7 +12240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>274</v>
       </c>
@@ -12239,7 +12266,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>275</v>
       </c>
@@ -12265,7 +12292,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>276</v>
       </c>
@@ -12291,7 +12318,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>277</v>
       </c>
@@ -12317,7 +12344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>278</v>
       </c>
@@ -12343,7 +12370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>279</v>
       </c>
@@ -12369,7 +12396,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>280</v>
       </c>
@@ -12395,7 +12422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>281</v>
       </c>
@@ -12421,7 +12448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>282</v>
       </c>
@@ -12447,7 +12474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>283</v>
       </c>
@@ -12473,7 +12500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>284</v>
       </c>
@@ -12499,7 +12526,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>285</v>
       </c>
@@ -12525,7 +12552,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>286</v>
       </c>
@@ -12551,7 +12578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>287</v>
       </c>
@@ -12577,7 +12604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>288</v>
       </c>
@@ -12603,7 +12630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>289</v>
       </c>
@@ -12629,7 +12656,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>290</v>
       </c>
@@ -12655,7 +12682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>291</v>
       </c>
@@ -12681,7 +12708,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>292</v>
       </c>
@@ -12707,7 +12734,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>293</v>
       </c>
@@ -12733,7 +12760,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>294</v>
       </c>
@@ -12759,7 +12786,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>295</v>
       </c>
@@ -12785,7 +12812,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>296</v>
       </c>
@@ -12811,7 +12838,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>297</v>
       </c>
@@ -12837,7 +12864,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>298</v>
       </c>
@@ -12863,7 +12890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>299</v>
       </c>
@@ -12889,7 +12916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>300</v>
       </c>
@@ -12915,7 +12942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>301</v>
       </c>
@@ -12941,7 +12968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>302</v>
       </c>
@@ -12967,7 +12994,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>303</v>
       </c>
@@ -12993,7 +13020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>304</v>
       </c>
@@ -13019,7 +13046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>305</v>
       </c>
@@ -13045,7 +13072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>306</v>
       </c>
@@ -13071,7 +13098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>307</v>
       </c>
@@ -13097,7 +13124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>308</v>
       </c>
@@ -13123,7 +13150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>309</v>
       </c>
@@ -13149,7 +13176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>310</v>
       </c>
@@ -13175,7 +13202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>311</v>
       </c>
@@ -13201,7 +13228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>312</v>
       </c>
@@ -13227,7 +13254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>313</v>
       </c>
@@ -13253,7 +13280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>314</v>
       </c>
@@ -13279,7 +13306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>315</v>
       </c>
@@ -13305,7 +13332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>316</v>
       </c>
@@ -13331,7 +13358,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>317</v>
       </c>
@@ -13357,7 +13384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>318</v>
       </c>
@@ -13383,7 +13410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>319</v>
       </c>
@@ -13409,7 +13436,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>320</v>
       </c>
@@ -13435,7 +13462,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>321</v>
       </c>
@@ -13461,7 +13488,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>322</v>
       </c>
@@ -13487,7 +13514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>323</v>
       </c>
@@ -13513,7 +13540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>324</v>
       </c>
@@ -13539,7 +13566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>325</v>
       </c>
@@ -13565,7 +13592,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>326</v>
       </c>
@@ -13591,7 +13618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>327</v>
       </c>
@@ -13617,7 +13644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>328</v>
       </c>
@@ -13643,7 +13670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>329</v>
       </c>
@@ -13669,7 +13696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>330</v>
       </c>
@@ -13695,7 +13722,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>331</v>
       </c>
@@ -13721,7 +13748,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>332</v>
       </c>
@@ -13747,7 +13774,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>333</v>
       </c>
@@ -13773,7 +13800,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>334</v>
       </c>
@@ -13799,7 +13826,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>335</v>
       </c>
@@ -13825,7 +13852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>336</v>
       </c>
@@ -13851,7 +13878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>337</v>
       </c>
@@ -13877,7 +13904,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>338</v>
       </c>
@@ -13903,7 +13930,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>339</v>
       </c>
@@ -13929,7 +13956,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>340</v>
       </c>
@@ -13955,7 +13982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>341</v>
       </c>
@@ -13981,7 +14008,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>342</v>
       </c>
@@ -14007,7 +14034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>343</v>
       </c>
@@ -14033,7 +14060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>344</v>
       </c>
@@ -14059,7 +14086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>345</v>
       </c>
@@ -14085,7 +14112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>346</v>
       </c>
@@ -14111,7 +14138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>347</v>
       </c>
@@ -14137,7 +14164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>348</v>
       </c>
@@ -14163,7 +14190,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>349</v>
       </c>
@@ -14189,7 +14216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>350</v>
       </c>
@@ -14215,7 +14242,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>351</v>
       </c>
@@ -14241,7 +14268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>352</v>
       </c>
@@ -14267,7 +14294,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>353</v>
       </c>
@@ -14293,7 +14320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>354</v>
       </c>
@@ -14319,7 +14346,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>355</v>
       </c>
@@ -14345,7 +14372,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>356</v>
       </c>
@@ -14371,7 +14398,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>357</v>
       </c>
@@ -14397,7 +14424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>358</v>
       </c>
@@ -14432,25 +14459,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E29F73C7-BAF7-4DDB-A3F3-74A889132A9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14473,7 +14500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -14496,7 +14523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -14519,7 +14546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -14542,7 +14569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -14565,7 +14592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -14588,7 +14615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -14611,7 +14638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -14634,7 +14661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -14657,7 +14684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -14680,7 +14707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -14703,7 +14730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1010</v>
       </c>
@@ -14726,7 +14753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1011</v>
       </c>
@@ -14749,7 +14776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1012</v>
       </c>
@@ -14772,7 +14799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1013</v>
       </c>
@@ -14795,7 +14822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1014</v>
       </c>
@@ -14818,7 +14845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1015</v>
       </c>
@@ -14841,7 +14868,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1016</v>
       </c>
@@ -14864,7 +14891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1017</v>
       </c>
@@ -14887,7 +14914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1018</v>
       </c>
@@ -14910,7 +14937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1019</v>
       </c>
@@ -14933,7 +14960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1020</v>
       </c>
@@ -14956,7 +14983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1021</v>
       </c>
@@ -14979,7 +15006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1022</v>
       </c>
@@ -15002,7 +15029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1023</v>
       </c>
@@ -15025,7 +15052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1024</v>
       </c>
@@ -15048,7 +15075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1025</v>
       </c>
@@ -15071,7 +15098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1026</v>
       </c>
@@ -15094,7 +15121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1027</v>
       </c>
@@ -15117,7 +15144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1028</v>
       </c>
@@ -15140,7 +15167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1029</v>
       </c>
@@ -15163,7 +15190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1030</v>
       </c>
@@ -15186,7 +15213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1031</v>
       </c>
@@ -15209,7 +15236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1032</v>
       </c>
@@ -15232,7 +15259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1033</v>
       </c>
@@ -15245,7 +15272,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1034</v>
       </c>
@@ -15258,7 +15285,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1035</v>
       </c>
@@ -15271,7 +15298,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1036</v>
       </c>
@@ -15284,7 +15311,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1037</v>
       </c>
@@ -15306,20 +15333,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D758ED0-344A-47B5-8000-C5BBB7F38038}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -15327,32 +15354,47 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>571</v>
       </c>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_D9404C7C22E45A0CD69CD2A88C8BA362DB77D7F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CD6B73-F3FF-4DC3-80A3-51DEE86EF53E}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_D9404C7C22E45A0CD69CD2A88C8BA362DB77D7F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C33BC4D2-0448-4406-8910-155D4416F7A4}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="1468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="1471">
   <si>
     <t>id</t>
   </si>
@@ -3077,7 +3077,7 @@
     <t>Epthianura tricolor</t>
   </si>
   <si>
-    <t>Podksałka Amarantowa</t>
+    <t>Podkasałka Amarantowa</t>
   </si>
   <si>
     <t>Odrzuć 1 [wild] ze swoich zasobów, aby wsunąć 1 wybraną [card] z tacki pod tę kartę.</t>
@@ -4178,6 +4178,18 @@
     <t>3–4 ptaki: 4[point]; 5+ ptaków: 8[point]</t>
   </si>
   <si>
+    <t>Globtrotter</t>
+  </si>
+  <si>
+    <t>Ptaki występujące poza Ameryką Północną i Środkową.</t>
+  </si>
+  <si>
+    <t>Mapka w lewym dolnym rogu karty pokazuje obszar występowania danego gatunku.</t>
+  </si>
+  <si>
+    <t>4–5 ptaków: 3[point]; 6+ ptaków: 6[point]</t>
+  </si>
+  <si>
     <t>Large Bird Specialist</t>
   </si>
   <si>
@@ -4185,9 +4197,6 @@
   </si>
   <si>
     <t>Ptaki o rozpiętości skrzydeł &gt;65 cm.</t>
-  </si>
-  <si>
-    <t>4–5 ptaków: 3[point]; 6+ ptaków: 6[point]</t>
   </si>
   <si>
     <t>Nest Box Builder</t>
@@ -4458,7 +4467,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4490,6 +4499,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4511,7 +4526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4520,23 +4535,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -4602,15 +4606,15 @@
   <autoFilter ref="A1:J357" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Common name" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Power text" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Anatomist" queryTableFieldId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Cartographer" queryTableFieldId="8"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Historian" queryTableFieldId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Photographer" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4973,18 +4977,10 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -5005,18 +5001,14 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -5037,18 +5029,12 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -5069,18 +5055,14 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -5101,18 +5083,12 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -5133,16 +5109,10 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5165,18 +5135,14 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -5197,17 +5163,13 @@
       <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5229,16 +5191,12 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5261,18 +5219,10 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -5293,18 +5243,12 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -5323,18 +5267,12 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -5355,18 +5293,14 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
@@ -5387,18 +5321,12 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -5419,18 +5347,10 @@
       <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
@@ -5451,18 +5371,12 @@
       <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -5483,18 +5397,14 @@
       <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
@@ -5515,18 +5425,10 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -5547,18 +5449,12 @@
       <c r="F20" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
@@ -5579,18 +5475,14 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
@@ -5611,18 +5503,12 @@
       <c r="F22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
@@ -5643,18 +5529,12 @@
       <c r="F23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -5675,18 +5555,10 @@
       <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
@@ -5707,18 +5579,12 @@
       <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
@@ -5739,18 +5605,10 @@
       <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -5771,17 +5629,11 @@
       <c r="F27" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>14</v>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5803,18 +5655,10 @@
       <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
@@ -5835,18 +5679,12 @@
       <c r="F29" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
@@ -5867,18 +5705,16 @@
       <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
@@ -5899,16 +5735,12 @@
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5931,16 +5763,12 @@
       <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" s="1" t="s">
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5963,16 +5791,12 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="1" t="s">
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5995,16 +5819,14 @@
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="G34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6027,16 +5849,12 @@
       <c r="F35" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="G35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6059,16 +5877,12 @@
       <c r="F36" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="1" t="s">
+      <c r="G36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6091,18 +5905,12 @@
       <c r="F37" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
@@ -6123,18 +5931,12 @@
       <c r="F38" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
@@ -6155,16 +5957,14 @@
       <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="G39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="3"/>
+      <c r="I39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6187,18 +5987,12 @@
       <c r="F40" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
@@ -6219,16 +6013,14 @@
       <c r="F41" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="3"/>
+      <c r="I41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6251,16 +6043,10 @@
       <c r="F42" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="1" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6283,16 +6069,10 @@
       <c r="F43" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6315,18 +6095,12 @@
       <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
@@ -6345,16 +6119,12 @@
       <c r="F45" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="G45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6377,18 +6147,12 @@
       <c r="F46" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="3"/>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
@@ -6409,18 +6173,12 @@
       <c r="F47" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="3"/>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
@@ -6441,18 +6199,14 @@
       <c r="F48" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="3"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
@@ -6473,18 +6227,12 @@
       <c r="F49" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="3"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
@@ -6505,16 +6253,10 @@
       <c r="F50" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="1" t="s">
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6537,18 +6279,14 @@
       <c r="F51" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
@@ -6569,16 +6307,10 @@
       <c r="F52" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="1" t="s">
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6601,16 +6333,12 @@
       <c r="F53" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" s="1" t="s">
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6633,16 +6361,12 @@
       <c r="F54" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="1" t="s">
+      <c r="G54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6665,18 +6389,12 @@
       <c r="F55" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
@@ -6697,18 +6415,12 @@
       <c r="F56" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
@@ -6729,18 +6441,12 @@
       <c r="F57" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
@@ -6761,18 +6467,12 @@
       <c r="F58" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G58" s="3"/>
+      <c r="H58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
@@ -6793,18 +6493,12 @@
       <c r="F59" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
@@ -6825,18 +6519,12 @@
       <c r="F60" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
@@ -6857,18 +6545,12 @@
       <c r="F61" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
@@ -6889,18 +6571,12 @@
       <c r="F62" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G62" s="3"/>
+      <c r="H62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
@@ -6921,18 +6597,12 @@
       <c r="F63" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G63" s="3"/>
+      <c r="H63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
@@ -6953,17 +6623,13 @@
       <c r="F64" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>14</v>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -6985,17 +6651,13 @@
       <c r="F65" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>14</v>
+      <c r="G65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -7017,17 +6679,11 @@
       <c r="F66" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>14</v>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -7049,18 +6705,10 @@
       <c r="F67" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
@@ -7081,16 +6729,12 @@
       <c r="F68" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="1" t="s">
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7113,18 +6757,12 @@
       <c r="F69" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
@@ -7145,16 +6783,12 @@
       <c r="F70" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J70" s="1" t="s">
+      <c r="G70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7177,18 +6811,12 @@
       <c r="F71" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
@@ -7209,18 +6837,14 @@
       <c r="F72" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
@@ -7241,17 +6865,13 @@
       <c r="F73" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J73" s="1" t="s">
-        <v>14</v>
+      <c r="G73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -7273,17 +6893,13 @@
       <c r="F74" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>14</v>
+      <c r="G74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -7305,17 +6921,11 @@
       <c r="F75" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>14</v>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -7337,18 +6947,12 @@
       <c r="F76" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
@@ -7369,18 +6973,12 @@
       <c r="F77" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
@@ -7401,18 +6999,12 @@
       <c r="F78" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
@@ -7433,18 +7025,12 @@
       <c r="F79" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="3"/>
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
@@ -7465,18 +7051,12 @@
       <c r="F80" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
@@ -7497,18 +7077,12 @@
       <c r="F81" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
@@ -7529,18 +7103,12 @@
       <c r="F82" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
@@ -7561,18 +7129,10 @@
       <c r="F83" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
@@ -7593,18 +7153,12 @@
       <c r="F84" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
@@ -7625,18 +7179,12 @@
       <c r="F85" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
@@ -7657,18 +7205,12 @@
       <c r="F86" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
@@ -7689,18 +7231,12 @@
       <c r="F87" t="s">
         <v>14</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
@@ -7721,18 +7257,12 @@
       <c r="F88" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
@@ -7753,18 +7283,12 @@
       <c r="F89" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
@@ -7785,17 +7309,13 @@
       <c r="F90" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>14</v>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -7817,18 +7337,12 @@
       <c r="F91" t="s">
         <v>14</v>
       </c>
-      <c r="G91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
@@ -7849,18 +7363,12 @@
       <c r="F92" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J92" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
@@ -7881,18 +7389,12 @@
       <c r="F93" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J93" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
@@ -7913,16 +7415,12 @@
       <c r="F94" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J94" s="1" t="s">
+      <c r="G94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7945,17 +7443,13 @@
       <c r="F95" t="s">
         <v>14</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>14</v>
+      <c r="G95" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -7977,18 +7471,14 @@
       <c r="F96" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
@@ -8009,18 +7499,10 @@
       <c r="F97" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
@@ -8041,17 +7523,15 @@
       <c r="F98" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>14</v>
+      <c r="G98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -8073,18 +7553,10 @@
       <c r="F99" t="s">
         <v>14</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
@@ -8105,18 +7577,10 @@
       <c r="F100" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
@@ -8137,18 +7601,12 @@
       <c r="F101" t="s">
         <v>14</v>
       </c>
-      <c r="G101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
@@ -8169,16 +7627,12 @@
       <c r="F102" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J102" s="1" t="s">
+      <c r="G102" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8201,18 +7655,12 @@
       <c r="F103" t="s">
         <v>14</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
@@ -8233,18 +7681,14 @@
       <c r="F104" t="s">
         <v>14</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G104" s="3"/>
+      <c r="H104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
@@ -8265,17 +7709,11 @@
       <c r="F105" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>14</v>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -8297,18 +7735,10 @@
       <c r="F106" t="s">
         <v>14</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
@@ -8329,18 +7759,12 @@
       <c r="F107" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
@@ -8361,18 +7785,12 @@
       <c r="F108" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
@@ -8393,18 +7811,12 @@
       <c r="F109" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
@@ -8425,16 +7837,12 @@
       <c r="F110" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J110" s="1" t="s">
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8457,18 +7865,12 @@
       <c r="F111" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
@@ -8489,18 +7891,12 @@
       <c r="F112" t="s">
         <v>14</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I112" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
@@ -8521,18 +7917,12 @@
       <c r="F113" t="s">
         <v>14</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
@@ -8553,18 +7943,12 @@
       <c r="F114" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
@@ -8585,18 +7969,12 @@
       <c r="F115" t="s">
         <v>14</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I115" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J115" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
@@ -8617,18 +7995,12 @@
       <c r="F116" t="s">
         <v>14</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
@@ -8649,18 +8021,12 @@
       <c r="F117" t="s">
         <v>14</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" s="3"/>
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
@@ -8681,18 +8047,12 @@
       <c r="F118" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118" s="3"/>
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
@@ -8713,18 +8073,12 @@
       <c r="F119" t="s">
         <v>14</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119" s="3"/>
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
@@ -8745,18 +8099,12 @@
       <c r="F120" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J120" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="3"/>
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
@@ -8777,18 +8125,12 @@
       <c r="F121" t="s">
         <v>14</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J121" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="3"/>
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
@@ -8809,18 +8151,12 @@
       <c r="F122" t="s">
         <v>14</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I122" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+      <c r="I122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J122" s="3"/>
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
@@ -8841,18 +8177,12 @@
       <c r="F123" t="s">
         <v>14</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I123" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123" s="3"/>
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
@@ -8873,18 +8203,10 @@
       <c r="F124" t="s">
         <v>14</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
@@ -8905,18 +8227,10 @@
       <c r="F125" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I125" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J125" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3"/>
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
@@ -8937,17 +8251,13 @@
       <c r="F126" t="s">
         <v>14</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I126" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>14</v>
+      <c r="G126" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -8969,18 +8279,12 @@
       <c r="F127" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I127" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127" s="3"/>
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
@@ -9001,18 +8305,12 @@
       <c r="F128" t="s">
         <v>14</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J128" s="3"/>
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
@@ -9033,18 +8331,12 @@
       <c r="F129" t="s">
         <v>14</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J129" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
+      <c r="I129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" s="3"/>
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
@@ -9065,18 +8357,10 @@
       <c r="F130" t="s">
         <v>14</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="3"/>
+      <c r="I130" s="3"/>
+      <c r="J130" s="3"/>
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
@@ -9097,18 +8381,10 @@
       <c r="F131" t="s">
         <v>14</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
@@ -9129,18 +8405,12 @@
       <c r="F132" t="s">
         <v>14</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J132" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G132" s="3"/>
+      <c r="H132" s="3"/>
+      <c r="I132" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" s="3"/>
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
@@ -9161,18 +8431,14 @@
       <c r="F133" t="s">
         <v>14</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="3"/>
+      <c r="I133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" s="3"/>
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
@@ -9193,18 +8459,14 @@
       <c r="F134" t="s">
         <v>14</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" s="3"/>
+      <c r="I134" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134" s="3"/>
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
@@ -9225,17 +8487,13 @@
       <c r="F135" t="s">
         <v>14</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>14</v>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -9257,18 +8515,14 @@
       <c r="F136" t="s">
         <v>14</v>
       </c>
-      <c r="G136" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G136" s="3"/>
+      <c r="H136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="3"/>
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
@@ -9289,18 +8543,12 @@
       <c r="F137" t="s">
         <v>14</v>
       </c>
-      <c r="G137" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137" s="3"/>
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
@@ -9321,17 +8569,13 @@
       <c r="F138" t="s">
         <v>14</v>
       </c>
-      <c r="G138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>14</v>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -9353,18 +8597,12 @@
       <c r="F139" t="s">
         <v>14</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J139" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G139" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
@@ -9385,18 +8623,12 @@
       <c r="F140" t="s">
         <v>14</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J140" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G140" s="3"/>
+      <c r="H140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I140" s="3"/>
+      <c r="J140" s="3"/>
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
@@ -9417,16 +8649,10 @@
       <c r="F141" t="s">
         <v>14</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J141" s="1" t="s">
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+      <c r="I141" s="3"/>
+      <c r="J141" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9449,16 +8675,12 @@
       <c r="F142" t="s">
         <v>14</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I142" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J142" s="1" t="s">
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9481,18 +8703,12 @@
       <c r="F143" t="s">
         <v>14</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" s="3"/>
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
@@ -9513,17 +8729,13 @@
       <c r="F144" t="s">
         <v>14</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I144" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>14</v>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+      <c r="I144" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -9545,18 +8757,14 @@
       <c r="F145" t="s">
         <v>14</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I145" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J145" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145" s="3"/>
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
@@ -9577,18 +8785,10 @@
       <c r="F146" t="s">
         <v>14</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
@@ -9609,17 +8809,13 @@
       <c r="F147" t="s">
         <v>14</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I147" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>14</v>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -9641,18 +8837,10 @@
       <c r="F148" t="s">
         <v>14</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J148" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
@@ -9671,17 +8859,13 @@
       <c r="F149" t="s">
         <v>14</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I149" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J149" s="1" t="s">
-        <v>14</v>
+      <c r="G149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -9703,18 +8887,12 @@
       <c r="F150" t="s">
         <v>14</v>
       </c>
-      <c r="G150" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+      <c r="I150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150" s="3"/>
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
@@ -9735,18 +8913,10 @@
       <c r="F151" t="s">
         <v>14</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+      <c r="I151" s="3"/>
+      <c r="J151" s="3"/>
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
@@ -9767,18 +8937,12 @@
       <c r="F152" t="s">
         <v>14</v>
       </c>
-      <c r="G152" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I152" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+      <c r="I152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J152" s="3"/>
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
@@ -9799,18 +8963,12 @@
       <c r="F153" t="s">
         <v>14</v>
       </c>
-      <c r="G153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
+      <c r="I153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" s="3"/>
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
@@ -9831,18 +8989,12 @@
       <c r="F154" t="s">
         <v>14</v>
       </c>
-      <c r="G154" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G154" s="3"/>
+      <c r="H154" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3"/>
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
@@ -9863,16 +9015,10 @@
       <c r="F155" t="s">
         <v>14</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J155" s="1" t="s">
+      <c r="G155" s="3"/>
+      <c r="H155" s="3"/>
+      <c r="I155" s="3"/>
+      <c r="J155" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9895,17 +9041,11 @@
       <c r="F156" t="s">
         <v>14</v>
       </c>
-      <c r="G156" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I156" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J156" s="1" t="s">
-        <v>14</v>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="J156" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -9927,18 +9067,12 @@
       <c r="F157" t="s">
         <v>14</v>
       </c>
-      <c r="G157" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J157" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G157" s="3"/>
+      <c r="H157" s="3"/>
+      <c r="I157" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J157" s="3"/>
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
@@ -9959,18 +9093,10 @@
       <c r="F158" t="s">
         <v>14</v>
       </c>
-      <c r="G158" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H158" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I158" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J158" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G158" s="3"/>
+      <c r="H158" s="3"/>
+      <c r="I158" s="3"/>
+      <c r="J158" s="3"/>
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
@@ -9991,16 +9117,10 @@
       <c r="F159" t="s">
         <v>14</v>
       </c>
-      <c r="G159" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I159" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J159" s="1" t="s">
+      <c r="G159" s="3"/>
+      <c r="H159" s="3"/>
+      <c r="I159" s="3"/>
+      <c r="J159" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10023,18 +9143,12 @@
       <c r="F160" t="s">
         <v>14</v>
       </c>
-      <c r="G160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J160" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
+      <c r="I160" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" s="3"/>
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
@@ -10055,17 +9169,11 @@
       <c r="F161" t="s">
         <v>14</v>
       </c>
-      <c r="G161" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>14</v>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
+      <c r="I161" s="3"/>
+      <c r="J161" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -10087,18 +9195,12 @@
       <c r="F162" t="s">
         <v>14</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
+      <c r="I162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162" s="3"/>
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
@@ -10119,18 +9221,12 @@
       <c r="F163" t="s">
         <v>14</v>
       </c>
-      <c r="G163" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
+      <c r="I163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J163" s="3"/>
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
@@ -10151,17 +9247,11 @@
       <c r="F164" t="s">
         <v>14</v>
       </c>
-      <c r="G164" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>14</v>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+      <c r="I164" s="3"/>
+      <c r="J164" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -10183,18 +9273,12 @@
       <c r="F165" t="s">
         <v>14</v>
       </c>
-      <c r="G165" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J165" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+      <c r="I165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J165" s="3"/>
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
@@ -10215,18 +9299,12 @@
       <c r="F166" t="s">
         <v>14</v>
       </c>
-      <c r="G166" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G166" s="3"/>
+      <c r="H166" s="3"/>
+      <c r="I166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166" s="3"/>
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
@@ -10247,18 +9325,14 @@
       <c r="F167" t="s">
         <v>14</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J167" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H167" s="3"/>
+      <c r="I167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J167" s="3"/>
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
@@ -10279,18 +9353,12 @@
       <c r="F168" t="s">
         <v>14</v>
       </c>
-      <c r="G168" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
+      <c r="I168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" s="3"/>
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
@@ -10311,18 +9379,12 @@
       <c r="F169" t="s">
         <v>14</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169" s="3"/>
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
@@ -10343,16 +9405,10 @@
       <c r="F170" t="s">
         <v>14</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J170" s="1" t="s">
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+      <c r="I170" s="3"/>
+      <c r="J170" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10375,18 +9431,10 @@
       <c r="F171" t="s">
         <v>14</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J171" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+      <c r="I171" s="3"/>
+      <c r="J171" s="3"/>
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
@@ -10407,18 +9455,12 @@
       <c r="F172" t="s">
         <v>14</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G172" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="J172" s="3"/>
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
@@ -10439,18 +9481,12 @@
       <c r="F173" t="s">
         <v>14</v>
       </c>
-      <c r="G173" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+      <c r="I173" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J173" s="3"/>
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
@@ -10471,18 +9507,12 @@
       <c r="F174" t="s">
         <v>14</v>
       </c>
-      <c r="G174" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J174" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G174" s="3"/>
+      <c r="H174" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
@@ -10503,17 +9533,11 @@
       <c r="F175" t="s">
         <v>14</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J175" s="1" t="s">
-        <v>14</v>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+      <c r="I175" s="3"/>
+      <c r="J175" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -10535,17 +9559,13 @@
       <c r="F176" t="s">
         <v>14</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>14</v>
+      <c r="G176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H176" s="3"/>
+      <c r="I176" s="3"/>
+      <c r="J176" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -10567,18 +9587,12 @@
       <c r="F177" t="s">
         <v>14</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J177" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" s="3"/>
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
@@ -10599,18 +9613,12 @@
       <c r="F178" t="s">
         <v>14</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J178" s="3"/>
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
@@ -10631,18 +9639,12 @@
       <c r="F179" t="s">
         <v>14</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J179" s="3"/>
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
@@ -10663,18 +9665,12 @@
       <c r="F180" t="s">
         <v>14</v>
       </c>
-      <c r="G180" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J180" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G180" s="3"/>
+      <c r="H180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
@@ -10695,18 +9691,14 @@
       <c r="F181" t="s">
         <v>14</v>
       </c>
-      <c r="G181" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H181" s="3"/>
+      <c r="I181" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J181" s="3"/>
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
@@ -10727,18 +9719,12 @@
       <c r="F182" t="s">
         <v>14</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J182" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
+      <c r="I182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" s="3"/>
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
@@ -10759,18 +9745,10 @@
       <c r="F183" t="s">
         <v>14</v>
       </c>
-      <c r="G183" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J183" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183" s="3"/>
+      <c r="J183" s="3"/>
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
@@ -10791,16 +9769,12 @@
       <c r="F184" t="s">
         <v>14</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J184" s="1" t="s">
+      <c r="G184" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H184" s="3"/>
+      <c r="I184" s="3"/>
+      <c r="J184" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10823,18 +9797,14 @@
       <c r="F185" t="s">
         <v>14</v>
       </c>
-      <c r="G185" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" s="3"/>
+      <c r="I185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J185" s="3"/>
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
@@ -10855,18 +9825,12 @@
       <c r="F186" t="s">
         <v>14</v>
       </c>
-      <c r="G186" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J186" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="3"/>
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
@@ -10887,18 +9851,14 @@
       <c r="F187" t="s">
         <v>14</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J187" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="3"/>
+      <c r="I187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J187" s="3"/>
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
@@ -10919,18 +9879,12 @@
       <c r="F188" t="s">
         <v>14</v>
       </c>
-      <c r="G188" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J188" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
@@ -10951,18 +9905,10 @@
       <c r="F189" t="s">
         <v>14</v>
       </c>
-      <c r="G189" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J189" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
@@ -10981,18 +9927,10 @@
       <c r="F190" t="s">
         <v>14</v>
       </c>
-      <c r="G190" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J190" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
@@ -11013,18 +9951,14 @@
       <c r="F191" t="s">
         <v>14</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J191" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G191" s="3"/>
+      <c r="H191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191" s="3"/>
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
@@ -11045,16 +9979,12 @@
       <c r="F192" t="s">
         <v>14</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J192" s="1" t="s">
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J192" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11077,18 +10007,10 @@
       <c r="F193" t="s">
         <v>14</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J193" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
@@ -11109,18 +10031,14 @@
       <c r="F194" t="s">
         <v>14</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J194" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H194" s="3"/>
+      <c r="I194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J194" s="3"/>
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
@@ -11141,16 +10059,12 @@
       <c r="F195" t="s">
         <v>14</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J195" s="1" t="s">
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+      <c r="I195" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11173,16 +10087,12 @@
       <c r="F196" t="s">
         <v>14</v>
       </c>
-      <c r="G196" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J196" s="1" t="s">
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+      <c r="I196" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11205,18 +10115,12 @@
       <c r="F197" t="s">
         <v>14</v>
       </c>
-      <c r="G197" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J197" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
+      <c r="I197" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J197" s="3"/>
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
@@ -11237,16 +10141,12 @@
       <c r="F198" t="s">
         <v>14</v>
       </c>
-      <c r="G198" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J198" s="1" t="s">
+      <c r="G198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" s="3"/>
+      <c r="I198" s="3"/>
+      <c r="J198" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11269,18 +10169,12 @@
       <c r="F199" t="s">
         <v>14</v>
       </c>
-      <c r="G199" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+      <c r="I199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J199" s="3"/>
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
@@ -11301,16 +10195,12 @@
       <c r="F200" t="s">
         <v>14</v>
       </c>
-      <c r="G200" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J200" s="1" t="s">
+      <c r="G200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H200" s="3"/>
+      <c r="I200" s="3"/>
+      <c r="J200" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11333,18 +10223,10 @@
       <c r="F201" t="s">
         <v>14</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J201" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
+      <c r="I201" s="3"/>
+      <c r="J201" s="3"/>
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
@@ -11365,16 +10247,14 @@
       <c r="F202" t="s">
         <v>14</v>
       </c>
-      <c r="G202" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J202" s="1" t="s">
+      <c r="G202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H202" s="3"/>
+      <c r="I202" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11397,16 +10277,12 @@
       <c r="F203" t="s">
         <v>14</v>
       </c>
-      <c r="G203" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J203" s="1" t="s">
+      <c r="G203" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H203" s="3"/>
+      <c r="I203" s="3"/>
+      <c r="J203" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11429,16 +10305,12 @@
       <c r="F204" t="s">
         <v>14</v>
       </c>
-      <c r="G204" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J204" s="1" t="s">
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
+      <c r="I204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J204" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11461,16 +10333,12 @@
       <c r="F205" t="s">
         <v>14</v>
       </c>
-      <c r="G205" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J205" s="1" t="s">
+      <c r="G205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" s="3"/>
+      <c r="I205" s="3"/>
+      <c r="J205" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11493,16 +10361,12 @@
       <c r="F206" t="s">
         <v>14</v>
       </c>
-      <c r="G206" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J206" s="1" t="s">
+      <c r="G206" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" s="3"/>
+      <c r="I206" s="3"/>
+      <c r="J206" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11525,16 +10389,12 @@
       <c r="F207" t="s">
         <v>14</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J207" s="1" t="s">
+      <c r="G207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" s="3"/>
+      <c r="I207" s="3"/>
+      <c r="J207" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11557,18 +10417,12 @@
       <c r="F208" t="s">
         <v>14</v>
       </c>
-      <c r="G208" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J208" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G208" s="3"/>
+      <c r="H208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I208" s="3"/>
+      <c r="J208" s="3"/>
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
@@ -11589,18 +10443,10 @@
       <c r="F209" t="s">
         <v>14</v>
       </c>
-      <c r="G209" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J209" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+      <c r="I209" s="3"/>
+      <c r="J209" s="3"/>
     </row>
     <row r="210" spans="1:10">
       <c r="A210">
@@ -11621,16 +10467,12 @@
       <c r="F210" t="s">
         <v>14</v>
       </c>
-      <c r="G210" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J210" s="1" t="s">
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+      <c r="I210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J210" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11653,18 +10495,10 @@
       <c r="F211" t="s">
         <v>14</v>
       </c>
-      <c r="G211" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J211" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+      <c r="I211" s="3"/>
+      <c r="J211" s="3"/>
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
@@ -11685,16 +10519,12 @@
       <c r="F212" t="s">
         <v>14</v>
       </c>
-      <c r="G212" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J212" s="1" t="s">
+      <c r="G212" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H212" s="3"/>
+      <c r="I212" s="3"/>
+      <c r="J212" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11717,18 +10547,14 @@
       <c r="F213" t="s">
         <v>14</v>
       </c>
-      <c r="G213" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J213" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G213" s="3"/>
+      <c r="H213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213" s="3"/>
     </row>
     <row r="214" spans="1:10">
       <c r="A214">
@@ -11749,18 +10575,12 @@
       <c r="F214" t="s">
         <v>14</v>
       </c>
-      <c r="G214" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J214" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
+      <c r="I214" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J214" s="3"/>
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
@@ -11781,18 +10601,12 @@
       <c r="F215" t="s">
         <v>14</v>
       </c>
-      <c r="G215" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J215" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G215" s="3"/>
+      <c r="H215" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3"/>
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
@@ -11813,17 +10627,13 @@
       <c r="F216" t="s">
         <v>14</v>
       </c>
-      <c r="G216" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J216" s="1" t="s">
-        <v>14</v>
+      <c r="G216" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -11845,18 +10655,12 @@
       <c r="F217" t="s">
         <v>14</v>
       </c>
-      <c r="G217" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I217" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J217" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+      <c r="I217" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" s="3"/>
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
@@ -11877,18 +10681,10 @@
       <c r="F218" t="s">
         <v>14</v>
       </c>
-      <c r="G218" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J218" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
+      <c r="I218" s="3"/>
+      <c r="J218" s="3"/>
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
@@ -11909,18 +10705,10 @@
       <c r="F219" t="s">
         <v>14</v>
       </c>
-      <c r="G219" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+      <c r="I219" s="3"/>
+      <c r="J219" s="3"/>
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
@@ -11941,17 +10729,11 @@
       <c r="F220" t="s">
         <v>14</v>
       </c>
-      <c r="G220" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I220" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>14</v>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+      <c r="I220" s="3"/>
+      <c r="J220" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -11973,18 +10755,12 @@
       <c r="F221" t="s">
         <v>14</v>
       </c>
-      <c r="G221" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I221" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J221" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+      <c r="I221" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J221" s="3"/>
     </row>
     <row r="222" spans="1:10">
       <c r="A222">
@@ -12005,18 +10781,12 @@
       <c r="F222" t="s">
         <v>14</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J222" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+      <c r="I222" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J222" s="3"/>
     </row>
     <row r="223" spans="1:10">
       <c r="A223">
@@ -12037,18 +10807,12 @@
       <c r="F223" t="s">
         <v>14</v>
       </c>
-      <c r="G223" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I223" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J223" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+      <c r="I223" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J223" s="3"/>
     </row>
     <row r="224" spans="1:10">
       <c r="A224">
@@ -12069,18 +10833,12 @@
       <c r="F224" t="s">
         <v>14</v>
       </c>
-      <c r="G224" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I224" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J224" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+      <c r="I224" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J224" s="3"/>
     </row>
     <row r="225" spans="1:10">
       <c r="A225">
@@ -12101,17 +10859,13 @@
       <c r="F225" t="s">
         <v>14</v>
       </c>
-      <c r="G225" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J225" s="1" t="s">
-        <v>14</v>
+      <c r="G225" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" s="3"/>
+      <c r="I225" s="3"/>
+      <c r="J225" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -12133,18 +10887,10 @@
       <c r="F226" t="s">
         <v>14</v>
       </c>
-      <c r="G226" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J226" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+      <c r="I226" s="3"/>
+      <c r="J226" s="3"/>
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
@@ -12165,18 +10911,12 @@
       <c r="F227" t="s">
         <v>14</v>
       </c>
-      <c r="G227" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J227" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+      <c r="I227" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J227" s="3"/>
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
@@ -12197,17 +10937,15 @@
       <c r="F228" t="s">
         <v>14</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J228" s="1" t="s">
-        <v>14</v>
+      <c r="G228" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H228" s="3"/>
+      <c r="I228" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -12229,18 +10967,10 @@
       <c r="F229" t="s">
         <v>14</v>
       </c>
-      <c r="G229" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I229" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J229" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
@@ -12261,17 +10991,15 @@
       <c r="F230" t="s">
         <v>14</v>
       </c>
-      <c r="G230" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J230" s="1" t="s">
-        <v>14</v>
+      <c r="G230" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H230" s="3"/>
+      <c r="I230" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -12293,17 +11021,13 @@
       <c r="F231" t="s">
         <v>14</v>
       </c>
-      <c r="G231" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J231" s="1" t="s">
-        <v>14</v>
+      <c r="G231" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -12325,18 +11049,12 @@
       <c r="F232" t="s">
         <v>14</v>
       </c>
-      <c r="G232" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J232" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" s="3"/>
     </row>
     <row r="233" spans="1:10">
       <c r="A233">
@@ -12357,18 +11075,14 @@
       <c r="F233" t="s">
         <v>14</v>
       </c>
-      <c r="G233" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J233" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G233" s="3"/>
+      <c r="H233" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" s="3"/>
     </row>
     <row r="234" spans="1:10">
       <c r="A234">
@@ -12389,18 +11103,10 @@
       <c r="F234" t="s">
         <v>14</v>
       </c>
-      <c r="G234" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I234" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J234" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
     </row>
     <row r="235" spans="1:10">
       <c r="A235">
@@ -12419,18 +11125,10 @@
       <c r="F235" t="s">
         <v>14</v>
       </c>
-      <c r="G235" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I235" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J235" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
     </row>
     <row r="236" spans="1:10">
       <c r="A236">
@@ -12451,18 +11149,10 @@
       <c r="F236" t="s">
         <v>14</v>
       </c>
-      <c r="G236" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J236" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
     </row>
     <row r="237" spans="1:10">
       <c r="A237">
@@ -12483,17 +11173,15 @@
       <c r="F237" t="s">
         <v>14</v>
       </c>
-      <c r="G237" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J237" s="1" t="s">
-        <v>14</v>
+      <c r="G237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H237" s="3"/>
+      <c r="I237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J237" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -12515,17 +11203,13 @@
       <c r="F238" t="s">
         <v>14</v>
       </c>
-      <c r="G238" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J238" s="1" t="s">
-        <v>14</v>
+      <c r="G238" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -12547,16 +11231,12 @@
       <c r="F239" t="s">
         <v>14</v>
       </c>
-      <c r="G239" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J239" s="1" t="s">
+      <c r="G239" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12579,17 +11259,13 @@
       <c r="F240" t="s">
         <v>14</v>
       </c>
-      <c r="G240" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H240" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I240" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J240" s="1" t="s">
-        <v>14</v>
+      <c r="G240" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -12611,17 +11287,13 @@
       <c r="F241" t="s">
         <v>14</v>
       </c>
-      <c r="G241" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H241" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I241" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J241" s="1" t="s">
-        <v>14</v>
+      <c r="G241" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -12643,16 +11315,12 @@
       <c r="F242" t="s">
         <v>14</v>
       </c>
-      <c r="G242" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H242" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J242" s="1" t="s">
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J242" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12675,16 +11343,12 @@
       <c r="F243" t="s">
         <v>14</v>
       </c>
-      <c r="G243" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J243" s="1" t="s">
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J243" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12707,16 +11371,14 @@
       <c r="F244" t="s">
         <v>14</v>
       </c>
-      <c r="G244" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H244" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I244" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J244" s="1" t="s">
+      <c r="G244" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H244" s="3"/>
+      <c r="I244" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J244" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12739,18 +11401,12 @@
       <c r="F245" t="s">
         <v>14</v>
       </c>
-      <c r="G245" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I245" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J245" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G245" s="3"/>
+      <c r="H245" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
@@ -12771,16 +11427,12 @@
       <c r="F246" t="s">
         <v>14</v>
       </c>
-      <c r="G246" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J246" s="1" t="s">
+      <c r="G246" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12803,18 +11455,14 @@
       <c r="F247" t="s">
         <v>14</v>
       </c>
-      <c r="G247" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H247" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I247" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J247" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G247" s="3"/>
+      <c r="H247" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J247" s="3"/>
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
@@ -12835,18 +11483,12 @@
       <c r="F248" t="s">
         <v>14</v>
       </c>
-      <c r="G248" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I248" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J248" s="3"/>
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
@@ -12867,16 +11509,12 @@
       <c r="F249" t="s">
         <v>14</v>
       </c>
-      <c r="G249" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H249" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J249" s="1" t="s">
+      <c r="G249" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12899,18 +11537,10 @@
       <c r="F250" t="s">
         <v>14</v>
       </c>
-      <c r="G250" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H250" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I250" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J250" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
     </row>
     <row r="251" spans="1:10">
       <c r="A251">
@@ -12929,18 +11559,10 @@
       <c r="F251" t="s">
         <v>14</v>
       </c>
-      <c r="G251" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H251" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I251" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J251" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
     </row>
     <row r="252" spans="1:10">
       <c r="A252">
@@ -12961,18 +11583,12 @@
       <c r="F252" t="s">
         <v>14</v>
       </c>
-      <c r="G252" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I252" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J252" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J252" s="3"/>
     </row>
     <row r="253" spans="1:10">
       <c r="A253">
@@ -12993,18 +11609,14 @@
       <c r="F253" t="s">
         <v>14</v>
       </c>
-      <c r="G253" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H253" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I253" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J253" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G253" s="3"/>
+      <c r="H253" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253" s="3"/>
     </row>
     <row r="254" spans="1:10">
       <c r="A254">
@@ -13025,17 +11637,15 @@
       <c r="F254" t="s">
         <v>14</v>
       </c>
-      <c r="G254" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>14</v>
+      <c r="G254" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H254" s="3"/>
+      <c r="I254" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J254" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -13057,18 +11667,12 @@
       <c r="F255" t="s">
         <v>14</v>
       </c>
-      <c r="G255" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H255" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I255" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J255" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G255" s="3"/>
+      <c r="H255" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3"/>
     </row>
     <row r="256" spans="1:10">
       <c r="A256">
@@ -13089,18 +11693,14 @@
       <c r="F256" t="s">
         <v>14</v>
       </c>
-      <c r="G256" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H256" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I256" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J256" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G256" s="3"/>
+      <c r="H256" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J256" s="3"/>
     </row>
     <row r="257" spans="1:10">
       <c r="A257">
@@ -13121,16 +11721,12 @@
       <c r="F257" t="s">
         <v>14</v>
       </c>
-      <c r="G257" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H257" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I257" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J257" s="1" t="s">
+      <c r="G257" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13153,16 +11749,14 @@
       <c r="F258" t="s">
         <v>14</v>
       </c>
-      <c r="G258" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H258" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I258" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J258" s="1" t="s">
+      <c r="G258" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H258" s="3"/>
+      <c r="I258" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13185,18 +11779,10 @@
       <c r="F259" t="s">
         <v>14</v>
       </c>
-      <c r="G259" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H259" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I259" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J259" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
     </row>
     <row r="260" spans="1:10">
       <c r="A260">
@@ -13217,18 +11803,12 @@
       <c r="F260" t="s">
         <v>14</v>
       </c>
-      <c r="G260" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H260" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I260" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J260" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G260" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
     </row>
     <row r="261" spans="1:10">
       <c r="A261">
@@ -13249,18 +11829,10 @@
       <c r="F261" t="s">
         <v>14</v>
       </c>
-      <c r="G261" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H261" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I261" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J261" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
     </row>
     <row r="262" spans="1:10">
       <c r="A262">
@@ -13281,18 +11853,12 @@
       <c r="F262" t="s">
         <v>14</v>
       </c>
-      <c r="G262" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H262" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I262" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J262" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J262" s="3"/>
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="1">
@@ -13310,17 +11876,15 @@
       <c r="E263" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="G263" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I263" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J263" s="1" t="s">
-        <v>14</v>
+      <c r="G263" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H263" s="3"/>
+      <c r="I263" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -13339,18 +11903,14 @@
       <c r="E264" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="G264" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H264" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I264" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J264" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G264" s="3"/>
+      <c r="H264" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J264" s="3"/>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" s="1">
@@ -13368,17 +11928,15 @@
       <c r="E265" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="G265" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H265" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I265" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J265" s="1" t="s">
-        <v>14</v>
+      <c r="G265" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H265" s="3"/>
+      <c r="I265" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -13397,17 +11955,15 @@
       <c r="E266" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="G266" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H266" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I266" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J266" s="1" t="s">
-        <v>14</v>
+      <c r="G266" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H266" s="3"/>
+      <c r="I266" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -13426,18 +11982,12 @@
       <c r="E267" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="G267" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H267" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I267" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J267" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G267" s="3"/>
+      <c r="H267" s="3"/>
+      <c r="I267" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" s="3"/>
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="1">
@@ -13455,18 +12005,14 @@
       <c r="E268" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="G268" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H268" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I268" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J268" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G268" s="3"/>
+      <c r="H268" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J268" s="3"/>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="1">
@@ -13484,18 +12030,14 @@
       <c r="E269" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="G269" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H269" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I269" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J269" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G269" s="3"/>
+      <c r="H269" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J269" s="3"/>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="1">
@@ -13513,18 +12055,14 @@
       <c r="E270" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="G270" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H270" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I270" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J270" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G270" s="3"/>
+      <c r="H270" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J270" s="3"/>
     </row>
     <row r="271" spans="1:10">
       <c r="A271" s="1">
@@ -13542,18 +12080,12 @@
       <c r="E271" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="G271" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H271" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I271" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J271" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G271" s="3"/>
+      <c r="H271" s="3"/>
+      <c r="I271" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J271" s="3"/>
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="1">
@@ -13571,18 +12103,14 @@
       <c r="E272" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="G272" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H272" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I272" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J272" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G272" s="3"/>
+      <c r="H272" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J272" s="3"/>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="1">
@@ -13600,18 +12128,12 @@
       <c r="E273" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="G273" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H273" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I273" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J273" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G273" s="3"/>
+      <c r="H273" s="3"/>
+      <c r="I273" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J273" s="3"/>
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="1">
@@ -13629,16 +12151,12 @@
       <c r="E274" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="G274" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H274" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I274" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J274" s="1" t="s">
+      <c r="G274" s="3"/>
+      <c r="H274" s="3"/>
+      <c r="I274" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J274" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13658,18 +12176,14 @@
       <c r="E275" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="G275" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H275" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I275" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J275" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G275" s="3"/>
+      <c r="H275" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J275" s="3"/>
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="1">
@@ -13687,17 +12201,15 @@
       <c r="E276" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="G276" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H276" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I276" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J276" s="1" t="s">
-        <v>14</v>
+      <c r="G276" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H276" s="3"/>
+      <c r="I276" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -13716,18 +12228,14 @@
       <c r="E277" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G277" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H277" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I277" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J277" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G277" s="3"/>
+      <c r="H277" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J277" s="3"/>
     </row>
     <row r="278" spans="1:10">
       <c r="A278" s="1">
@@ -13745,16 +12253,12 @@
       <c r="E278" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="G278" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I278" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J278" s="1" t="s">
+      <c r="G278" s="3"/>
+      <c r="H278" s="3"/>
+      <c r="I278" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J278" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13774,18 +12278,12 @@
       <c r="E279" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="G279" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H279" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I279" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J279" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G279" s="3"/>
+      <c r="H279" s="3"/>
+      <c r="I279" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J279" s="3"/>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="1">
@@ -13803,18 +12301,12 @@
       <c r="E280" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="G280" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H280" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I280" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J280" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G280" s="3"/>
+      <c r="H280" s="3"/>
+      <c r="I280" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J280" s="3"/>
     </row>
     <row r="281" spans="1:10">
       <c r="A281" s="1">
@@ -13832,17 +12324,15 @@
       <c r="E281" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="G281" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I281" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J281" s="1" t="s">
-        <v>14</v>
+      <c r="G281" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H281" s="3"/>
+      <c r="I281" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -13861,18 +12351,14 @@
       <c r="E282" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="G282" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H282" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I282" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J282" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G282" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H282" s="3"/>
+      <c r="I282" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J282" s="3"/>
     </row>
     <row r="283" spans="1:10">
       <c r="A283" s="1">
@@ -13890,18 +12376,12 @@
       <c r="E283" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="G283" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I283" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J283" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+      <c r="I283" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J283" s="3"/>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="1">
@@ -13919,16 +12399,14 @@
       <c r="E284" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="G284" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H284" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I284" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J284" s="1" t="s">
+      <c r="G284" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H284" s="3"/>
+      <c r="I284" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J284" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13948,17 +12426,15 @@
       <c r="E285" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G285" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H285" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I285" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J285" s="1" t="s">
-        <v>14</v>
+      <c r="G285" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H285" s="3"/>
+      <c r="I285" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -13977,18 +12453,12 @@
       <c r="E286" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="G286" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H286" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I286" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J286" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G286" s="3"/>
+      <c r="H286" s="3"/>
+      <c r="I286" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J286" s="3"/>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="1">
@@ -14006,17 +12476,13 @@
       <c r="E287" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="G287" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H287" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I287" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J287" s="1" t="s">
-        <v>14</v>
+      <c r="G287" s="3"/>
+      <c r="H287" s="3"/>
+      <c r="I287" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J287" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -14035,16 +12501,14 @@
       <c r="E288" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="G288" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H288" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I288" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J288" s="1" t="s">
+      <c r="G288" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H288" s="3"/>
+      <c r="I288" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J288" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14064,18 +12528,12 @@
       <c r="E289" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="G289" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H289" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I289" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J289" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G289" s="3"/>
+      <c r="H289" s="3"/>
+      <c r="I289" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J289" s="3"/>
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="1">
@@ -14093,18 +12551,14 @@
       <c r="E290" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="G290" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H290" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I290" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J290" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G290" s="3"/>
+      <c r="H290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J290" s="3"/>
     </row>
     <row r="291" spans="1:10">
       <c r="A291" s="1">
@@ -14122,16 +12576,12 @@
       <c r="E291" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="G291" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H291" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I291" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J291" s="1" t="s">
+      <c r="G291" s="3"/>
+      <c r="H291" s="3"/>
+      <c r="I291" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J291" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14151,16 +12601,12 @@
       <c r="E292" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="G292" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H292" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I292" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J292" s="1" t="s">
+      <c r="G292" s="3"/>
+      <c r="H292" s="3"/>
+      <c r="I292" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J292" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14180,18 +12626,14 @@
       <c r="E293" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="G293" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H293" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I293" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J293" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G293" s="3"/>
+      <c r="H293" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I293" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J293" s="3"/>
     </row>
     <row r="294" spans="1:10">
       <c r="A294" s="1">
@@ -14209,16 +12651,12 @@
       <c r="E294" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="G294" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H294" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I294" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J294" s="1" t="s">
+      <c r="G294" s="3"/>
+      <c r="H294" s="3"/>
+      <c r="I294" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J294" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14238,16 +12676,14 @@
       <c r="E295" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="G295" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H295" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I295" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J295" s="1" t="s">
+      <c r="G295" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H295" s="3"/>
+      <c r="I295" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J295" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14267,16 +12703,12 @@
       <c r="E296" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="G296" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H296" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I296" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J296" s="1" t="s">
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J296" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14296,18 +12728,12 @@
       <c r="E297" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="G297" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H297" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I297" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J297" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J297" s="3"/>
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="1">
@@ -14325,18 +12751,12 @@
       <c r="E298" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="G298" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H298" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I298" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J298" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
+      <c r="I298" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J298" s="3"/>
     </row>
     <row r="299" spans="1:10">
       <c r="A299" s="1">
@@ -14354,18 +12774,12 @@
       <c r="E299" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="G299" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H299" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I299" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J299" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J299" s="3"/>
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="1">
@@ -14383,18 +12797,12 @@
       <c r="E300" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="G300" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H300" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I300" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J300" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G300" s="3"/>
+      <c r="H300" s="3"/>
+      <c r="I300" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J300" s="3"/>
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="1">
@@ -14412,18 +12820,14 @@
       <c r="E301" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="G301" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H301" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I301" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J301" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G301" s="3"/>
+      <c r="H301" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J301" s="3"/>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="1">
@@ -14441,18 +12845,12 @@
       <c r="E302" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="G302" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H302" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I302" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J302" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G302" s="3"/>
+      <c r="H302" s="3"/>
+      <c r="I302" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J302" s="3"/>
     </row>
     <row r="303" spans="1:10">
       <c r="A303" s="1">
@@ -14470,18 +12868,12 @@
       <c r="E303" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="G303" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H303" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I303" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J303" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G303" s="3"/>
+      <c r="H303" s="3"/>
+      <c r="I303" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J303" s="3"/>
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="1">
@@ -14499,18 +12891,12 @@
       <c r="E304" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="G304" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H304" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I304" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J304" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G304" s="3"/>
+      <c r="H304" s="3"/>
+      <c r="I304" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J304" s="3"/>
     </row>
     <row r="305" spans="1:10">
       <c r="A305" s="1">
@@ -14528,18 +12914,12 @@
       <c r="E305" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="G305" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H305" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I305" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J305" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G305" s="3"/>
+      <c r="H305" s="3"/>
+      <c r="I305" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J305" s="3"/>
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="1">
@@ -14557,18 +12937,12 @@
       <c r="E306" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="G306" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H306" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I306" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J306" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G306" s="3"/>
+      <c r="H306" s="3"/>
+      <c r="I306" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J306" s="3"/>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="1">
@@ -14586,17 +12960,15 @@
       <c r="E307" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="G307" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H307" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I307" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J307" s="1" t="s">
-        <v>14</v>
+      <c r="G307" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H307" s="3"/>
+      <c r="I307" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -14615,18 +12987,12 @@
       <c r="E308" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="G308" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H308" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I308" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J308" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G308" s="3"/>
+      <c r="H308" s="3"/>
+      <c r="I308" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J308" s="3"/>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="1">
@@ -14644,18 +13010,14 @@
       <c r="E309" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="G309" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H309" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I309" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J309" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G309" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H309" s="3"/>
+      <c r="I309" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J309" s="3"/>
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="1">
@@ -14673,18 +13035,12 @@
       <c r="E310" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="G310" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I310" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J310" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G310" s="3"/>
+      <c r="H310" s="3"/>
+      <c r="I310" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J310" s="3"/>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="1">
@@ -14702,18 +13058,12 @@
       <c r="E311" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="G311" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H311" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I311" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J311" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G311" s="3"/>
+      <c r="H311" s="3"/>
+      <c r="I311" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J311" s="3"/>
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="1">
@@ -14731,18 +13081,12 @@
       <c r="E312" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="G312" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H312" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I312" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J312" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G312" s="3"/>
+      <c r="H312" s="3"/>
+      <c r="I312" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J312" s="3"/>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="1">
@@ -14760,18 +13104,14 @@
       <c r="E313" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="G313" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H313" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I313" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J313" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G313" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H313" s="3"/>
+      <c r="I313" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J313" s="3"/>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="1">
@@ -14789,17 +13129,13 @@
       <c r="E314" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="G314" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H314" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I314" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J314" s="1" t="s">
-        <v>14</v>
+      <c r="G314" s="3"/>
+      <c r="H314" s="3"/>
+      <c r="I314" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -14818,18 +13154,12 @@
       <c r="E315" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="G315" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H315" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I315" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J315" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G315" s="3"/>
+      <c r="H315" s="3"/>
+      <c r="I315" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J315" s="3"/>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="1">
@@ -14847,17 +13177,15 @@
       <c r="E316" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="G316" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H316" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I316" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J316" s="1" t="s">
-        <v>14</v>
+      <c r="G316" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H316" s="3"/>
+      <c r="I316" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J316" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -14876,18 +13204,12 @@
       <c r="E317" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="G317" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H317" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I317" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J317" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G317" s="3"/>
+      <c r="H317" s="3"/>
+      <c r="I317" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J317" s="3"/>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="1">
@@ -14905,18 +13227,14 @@
       <c r="E318" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="G318" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H318" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I318" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J318" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G318" s="3"/>
+      <c r="H318" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I318" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J318" s="3"/>
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="1">
@@ -14934,18 +13252,12 @@
       <c r="E319" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="G319" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H319" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I319" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J319" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G319" s="3"/>
+      <c r="H319" s="3"/>
+      <c r="I319" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J319" s="3"/>
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="1">
@@ -14963,18 +13275,14 @@
       <c r="E320" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="G320" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H320" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I320" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J320" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G320" s="3"/>
+      <c r="H320" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I320" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J320" s="3"/>
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="1">
@@ -14992,18 +13300,12 @@
       <c r="E321" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="G321" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H321" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I321" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J321" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G321" s="3"/>
+      <c r="H321" s="3"/>
+      <c r="I321" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J321" s="3"/>
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="1">
@@ -15021,18 +13323,12 @@
       <c r="E322" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="G322" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H322" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I322" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J322" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G322" s="3"/>
+      <c r="H322" s="3"/>
+      <c r="I322" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J322" s="3"/>
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="1">
@@ -15050,18 +13346,12 @@
       <c r="E323" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="G323" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H323" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I323" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J323" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G323" s="3"/>
+      <c r="H323" s="3"/>
+      <c r="I323" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J323" s="3"/>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="1">
@@ -15079,18 +13369,14 @@
       <c r="E324" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="G324" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H324" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I324" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J324" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G324" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H324" s="3"/>
+      <c r="I324" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J324" s="3"/>
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="1">
@@ -15108,18 +13394,12 @@
       <c r="E325" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="G325" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H325" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I325" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J325" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G325" s="3"/>
+      <c r="H325" s="3"/>
+      <c r="I325" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J325" s="3"/>
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="1">
@@ -15137,18 +13417,12 @@
       <c r="E326" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="G326" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H326" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I326" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J326" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G326" s="3"/>
+      <c r="H326" s="3"/>
+      <c r="I326" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J326" s="3"/>
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="1">
@@ -15166,18 +13440,12 @@
       <c r="E327" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="G327" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H327" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I327" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J327" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G327" s="3"/>
+      <c r="H327" s="3"/>
+      <c r="I327" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J327" s="3"/>
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="1">
@@ -15195,17 +13463,15 @@
       <c r="E328" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="G328" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H328" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I328" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J328" s="1" t="s">
-        <v>14</v>
+      <c r="G328" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H328" s="3"/>
+      <c r="I328" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -15224,16 +13490,12 @@
       <c r="E329" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="G329" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H329" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I329" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J329" s="1" t="s">
+      <c r="G329" s="3"/>
+      <c r="H329" s="3"/>
+      <c r="I329" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J329" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15253,16 +13515,14 @@
       <c r="E330" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="G330" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H330" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I330" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J330" s="1" t="s">
+      <c r="G330" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H330" s="3"/>
+      <c r="I330" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J330" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15282,16 +13542,14 @@
       <c r="E331" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="G331" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H331" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I331" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J331" s="1" t="s">
+      <c r="G331" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H331" s="3"/>
+      <c r="I331" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J331" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15311,18 +13569,14 @@
       <c r="E332" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="G332" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H332" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I332" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J332" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G332" s="3"/>
+      <c r="H332" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I332" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J332" s="3"/>
     </row>
     <row r="333" spans="1:10">
       <c r="A333" s="1">
@@ -15340,16 +13594,14 @@
       <c r="E333" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G333" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I333" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J333" s="1" t="s">
+      <c r="G333" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H333" s="3"/>
+      <c r="I333" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J333" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15369,18 +13621,12 @@
       <c r="E334" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="G334" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I334" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J334" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G334" s="3"/>
+      <c r="H334" s="3"/>
+      <c r="I334" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J334" s="3"/>
     </row>
     <row r="335" spans="1:10">
       <c r="A335" s="1">
@@ -15398,18 +13644,12 @@
       <c r="E335" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="G335" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H335" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I335" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J335" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G335" s="3"/>
+      <c r="H335" s="3"/>
+      <c r="I335" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J335" s="3"/>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="1">
@@ -15427,16 +13667,12 @@
       <c r="E336" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="G336" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I336" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J336" s="1" t="s">
+      <c r="G336" s="3"/>
+      <c r="H336" s="3"/>
+      <c r="I336" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J336" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15456,18 +13692,12 @@
       <c r="E337" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="G337" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H337" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I337" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J337" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G337" s="3"/>
+      <c r="H337" s="3"/>
+      <c r="I337" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J337" s="3"/>
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="1">
@@ -15485,16 +13715,12 @@
       <c r="E338" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="G338" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H338" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I338" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J338" s="1" t="s">
+      <c r="G338" s="3"/>
+      <c r="H338" s="3"/>
+      <c r="I338" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J338" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15514,18 +13740,12 @@
       <c r="E339" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="G339" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I339" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J339" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G339" s="3"/>
+      <c r="H339" s="3"/>
+      <c r="I339" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J339" s="3"/>
     </row>
     <row r="340" spans="1:10">
       <c r="A340" s="1">
@@ -15543,16 +13763,14 @@
       <c r="E340" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="G340" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I340" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J340" s="1" t="s">
+      <c r="G340" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H340" s="3"/>
+      <c r="I340" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J340" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15572,18 +13790,12 @@
       <c r="E341" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="G341" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I341" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J341" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G341" s="3"/>
+      <c r="H341" s="3"/>
+      <c r="I341" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J341" s="3"/>
     </row>
     <row r="342" spans="1:10">
       <c r="A342" s="1">
@@ -15601,18 +13813,12 @@
       <c r="E342" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="G342" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I342" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J342" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G342" s="3"/>
+      <c r="H342" s="3"/>
+      <c r="I342" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J342" s="3"/>
     </row>
     <row r="343" spans="1:10">
       <c r="A343" s="1">
@@ -15630,18 +13836,12 @@
       <c r="E343" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="G343" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H343" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I343" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J343" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G343" s="3"/>
+      <c r="H343" s="3"/>
+      <c r="I343" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J343" s="3"/>
     </row>
     <row r="344" spans="1:10">
       <c r="A344" s="1">
@@ -15659,18 +13859,12 @@
       <c r="E344" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="G344" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H344" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I344" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J344" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G344" s="3"/>
+      <c r="H344" s="3"/>
+      <c r="I344" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J344" s="3"/>
     </row>
     <row r="345" spans="1:10">
       <c r="A345" s="1">
@@ -15688,18 +13882,12 @@
       <c r="E345" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="G345" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H345" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I345" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J345" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G345" s="3"/>
+      <c r="H345" s="3"/>
+      <c r="I345" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J345" s="3"/>
     </row>
     <row r="346" spans="1:10">
       <c r="A346" s="1">
@@ -15717,17 +13905,15 @@
       <c r="E346" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="G346" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I346" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J346" s="1" t="s">
-        <v>14</v>
+      <c r="G346" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H346" s="3"/>
+      <c r="I346" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J346" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -15746,16 +13932,14 @@
       <c r="E347" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="G347" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H347" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I347" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J347" s="1" t="s">
+      <c r="G347" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H347" s="3"/>
+      <c r="I347" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J347" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15775,18 +13959,12 @@
       <c r="E348" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="G348" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H348" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I348" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J348" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G348" s="3"/>
+      <c r="H348" s="3"/>
+      <c r="I348" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J348" s="3"/>
     </row>
     <row r="349" spans="1:10">
       <c r="A349" s="1">
@@ -15804,18 +13982,16 @@
       <c r="E349" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="G349" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H349" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I349" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J349" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G349" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J349" s="3"/>
     </row>
     <row r="350" spans="1:10">
       <c r="A350" s="1">
@@ -15833,18 +14009,12 @@
       <c r="E350" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="G350" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H350" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I350" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J350" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G350" s="3"/>
+      <c r="H350" s="3"/>
+      <c r="I350" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J350" s="3"/>
     </row>
     <row r="351" spans="1:10">
       <c r="A351" s="1">
@@ -15862,18 +14032,14 @@
       <c r="E351" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="G351" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H351" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I351" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J351" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G351" s="3"/>
+      <c r="H351" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I351" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J351" s="3"/>
     </row>
     <row r="352" spans="1:10">
       <c r="A352" s="1">
@@ -15891,18 +14057,14 @@
       <c r="E352" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="G352" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H352" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I352" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J352" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G352" s="3"/>
+      <c r="H352" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J352" s="3"/>
     </row>
     <row r="353" spans="1:10">
       <c r="A353" s="1">
@@ -15920,16 +14082,14 @@
       <c r="E353" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="G353" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I353" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J353" s="1" t="s">
+      <c r="G353" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H353" s="3"/>
+      <c r="I353" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J353" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -15949,18 +14109,12 @@
       <c r="E354" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="G354" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H354" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I354" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J354" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="G354" s="3"/>
+      <c r="H354" s="3"/>
+      <c r="I354" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J354" s="3"/>
     </row>
     <row r="355" spans="1:10">
       <c r="A355" s="1">
@@ -15978,16 +14132,14 @@
       <c r="E355" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="G355" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I355" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J355" s="1" t="s">
+      <c r="G355" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H355" s="3"/>
+      <c r="I355" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J355" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -16007,18 +14159,12 @@
       <c r="E356" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="G356" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I356" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J356" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G356" s="3"/>
+      <c r="H356" s="3"/>
+      <c r="I356" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J356" s="3"/>
     </row>
     <row r="357" spans="1:10">
       <c r="A357" s="1">
@@ -16036,18 +14182,14 @@
       <c r="E357" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="G357" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H357" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I357" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J357" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G357" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H357" s="3"/>
+      <c r="I357" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J357" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16448,31 +14590,41 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="15.75">
       <c r="A19">
         <v>1017</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="C19" s="6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>1309</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15.75">
       <c r="A20">
         <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>1376</v>
+        <v>1380</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1378</v>
+        <v>1382</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="5" t="s">
@@ -16485,16 +14637,16 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>1356</v>
@@ -16506,16 +14658,16 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>1327</v>
@@ -16527,17 +14679,17 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="5" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -16546,13 +14698,13 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="5" t="s">
@@ -16568,13 +14720,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>1313</v>
@@ -16588,16 +14740,16 @@
         <v>1024</v>
       </c>
       <c r="B26" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>1356</v>
@@ -16609,13 +14761,13 @@
         <v>1025</v>
       </c>
       <c r="B27" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="5" t="s">
@@ -16628,16 +14780,16 @@
         <v>1026</v>
       </c>
       <c r="B28" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>1327</v>
@@ -16649,17 +14801,17 @@
         <v>1027</v>
       </c>
       <c r="B29" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="5" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -16668,19 +14820,19 @@
         <v>1028</v>
       </c>
       <c r="B30" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -16689,17 +14841,17 @@
         <v>1029</v>
       </c>
       <c r="B31" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="5" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -16708,16 +14860,16 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>1356</v>
@@ -16729,19 +14881,19 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -16750,17 +14902,17 @@
         <v>1032</v>
       </c>
       <c r="B34" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -16769,17 +14921,17 @@
         <v>1033</v>
       </c>
       <c r="B35" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="5" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -16788,17 +14940,17 @@
         <v>1034</v>
       </c>
       <c r="B36" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="5" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -16807,19 +14959,19 @@
         <v>1035</v>
       </c>
       <c r="B37" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -16828,19 +14980,19 @@
         <v>1036</v>
       </c>
       <c r="B38" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="G38" s="3"/>
     </row>
@@ -16849,17 +15001,17 @@
         <v>1037</v>
       </c>
       <c r="B39" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="5" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -16890,55 +15042,55 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25825"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_D9404C7C22E45A0CD69CD2A88C8BA362DB77D7F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C33BC4D2-0448-4406-8910-155D4416F7A4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_D9404C7C22E45A0CD69CD2A88C8BA362DB77D7F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67CD6B73-F3FF-4DC3-80A3-51DEE86EF53E}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2381" uniqueCount="1471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="1468">
   <si>
     <t>id</t>
   </si>
@@ -3077,7 +3077,7 @@
     <t>Epthianura tricolor</t>
   </si>
   <si>
-    <t>Podkasałka Amarantowa</t>
+    <t>Podksałka Amarantowa</t>
   </si>
   <si>
     <t>Odrzuć 1 [wild] ze swoich zasobów, aby wsunąć 1 wybraną [card] z tacki pod tę kartę.</t>
@@ -4178,25 +4178,16 @@
     <t>3–4 ptaki: 4[point]; 5+ ptaków: 8[point]</t>
   </si>
   <si>
-    <t>Globtrotter</t>
-  </si>
-  <si>
-    <t>Ptaki występujące poza Ameryką Północną i Środkową.</t>
-  </si>
-  <si>
-    <t>Mapka w lewym dolnym rogu karty pokazuje obszar występowania danego gatunku.</t>
+    <t>Large Bird Specialist</t>
+  </si>
+  <si>
+    <t>Specjalista od wielkich ptaków</t>
+  </si>
+  <si>
+    <t>Ptaki o rozpiętości skrzydeł &gt;65 cm.</t>
   </si>
   <si>
     <t>4–5 ptaków: 3[point]; 6+ ptaków: 6[point]</t>
-  </si>
-  <si>
-    <t>Large Bird Specialist</t>
-  </si>
-  <si>
-    <t>Specjalista od wielkich ptaków</t>
-  </si>
-  <si>
-    <t>Ptaki o rozpiętości skrzydeł &gt;65 cm.</t>
   </si>
   <si>
     <t>Nest Box Builder</t>
@@ -4467,7 +4458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4499,12 +4490,6 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4526,7 +4511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4535,12 +4520,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -4606,15 +4602,15 @@
   <autoFilter ref="A1:J357" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Common name" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Power text" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Anatomist" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Cartographer" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Historian" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Photographer" queryTableFieldId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4977,10 +4973,18 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -5001,14 +5005,18 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -5029,12 +5037,18 @@
       <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -5055,14 +5069,18 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3"/>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -5083,12 +5101,18 @@
       <c r="F6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -5109,10 +5133,16 @@
       <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5135,14 +5165,18 @@
       <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="3"/>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -5163,13 +5197,17 @@
       <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>19</v>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5191,12 +5229,16 @@
       <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5219,10 +5261,18 @@
       <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -5243,12 +5293,18 @@
       <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -5267,12 +5323,18 @@
       <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -5293,14 +5355,18 @@
       <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" s="3"/>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
@@ -5321,12 +5387,18 @@
       <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -5347,10 +5419,18 @@
       <c r="F16" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="G16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
@@ -5371,12 +5451,18 @@
       <c r="F17" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="3"/>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
@@ -5397,14 +5483,18 @@
       <c r="F18" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="3"/>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
@@ -5425,10 +5515,18 @@
       <c r="F19" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
@@ -5449,12 +5547,18 @@
       <c r="F20" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
@@ -5475,14 +5579,18 @@
       <c r="F21" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="3"/>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
@@ -5503,12 +5611,18 @@
       <c r="F22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J22" s="3"/>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
@@ -5529,12 +5643,18 @@
       <c r="F23" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3"/>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
@@ -5555,10 +5675,18 @@
       <c r="F24" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
@@ -5579,12 +5707,18 @@
       <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="3"/>
+      <c r="G25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
@@ -5605,10 +5739,18 @@
       <c r="F26" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
@@ -5629,11 +5771,17 @@
       <c r="F27" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2" t="s">
-        <v>19</v>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5655,10 +5803,18 @@
       <c r="F28" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
@@ -5679,12 +5835,18 @@
       <c r="F29" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="3"/>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
@@ -5705,16 +5867,18 @@
       <c r="F30" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="3"/>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
@@ -5735,12 +5899,16 @@
       <c r="F31" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="2" t="s">
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5763,12 +5931,16 @@
       <c r="F32" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="2" t="s">
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J32" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5791,12 +5963,16 @@
       <c r="F33" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="2" t="s">
+      <c r="G33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5819,14 +5995,16 @@
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="2" t="s">
+      <c r="G34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5849,12 +6027,16 @@
       <c r="F35" t="s">
         <v>14</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="2" t="s">
+      <c r="G35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5877,12 +6059,16 @@
       <c r="F36" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="2" t="s">
+      <c r="G36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5905,12 +6091,18 @@
       <c r="F37" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="3"/>
+      <c r="G37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
@@ -5931,12 +6123,18 @@
       <c r="F38" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="3"/>
+      <c r="G38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
@@ -5957,14 +6155,16 @@
       <c r="F39" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="2" t="s">
+      <c r="G39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5987,12 +6187,18 @@
       <c r="F40" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J40" s="3"/>
+      <c r="G40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
@@ -6013,14 +6219,16 @@
       <c r="F41" t="s">
         <v>14</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J41" s="2" t="s">
+      <c r="G41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6043,10 +6251,16 @@
       <c r="F42" t="s">
         <v>14</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="2" t="s">
+      <c r="G42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6069,10 +6283,16 @@
       <c r="F43" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="2" t="s">
+      <c r="G43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6095,12 +6315,18 @@
       <c r="F44" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="G44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
@@ -6119,12 +6345,16 @@
       <c r="F45" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="2" t="s">
+      <c r="G45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6147,12 +6377,18 @@
       <c r="F46" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J46" s="3"/>
+      <c r="G46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
@@ -6173,12 +6409,18 @@
       <c r="F47" t="s">
         <v>14</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J47" s="3"/>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
@@ -6199,14 +6441,18 @@
       <c r="F48" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J48" s="3"/>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
@@ -6227,12 +6473,18 @@
       <c r="F49" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J49" s="3"/>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
@@ -6253,10 +6505,16 @@
       <c r="F50" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="2" t="s">
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6279,14 +6537,18 @@
       <c r="F51" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="3"/>
+      <c r="G51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
@@ -6307,10 +6569,16 @@
       <c r="F52" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="2" t="s">
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6333,12 +6601,16 @@
       <c r="F53" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="2" t="s">
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J53" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6361,12 +6633,16 @@
       <c r="F54" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="2" t="s">
+      <c r="G54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6389,12 +6665,18 @@
       <c r="F55" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="3"/>
+      <c r="G55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
@@ -6415,12 +6697,18 @@
       <c r="F56" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56" s="3"/>
+      <c r="G56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
@@ -6441,12 +6729,18 @@
       <c r="F57" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
@@ -6467,12 +6761,18 @@
       <c r="F58" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+      <c r="G58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
@@ -6493,12 +6793,18 @@
       <c r="F59" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
+      <c r="G59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
@@ -6519,12 +6825,18 @@
       <c r="F60" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
@@ -6545,12 +6857,18 @@
       <c r="F61" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+      <c r="G61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
@@ -6571,12 +6889,18 @@
       <c r="F62" t="s">
         <v>14</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
@@ -6597,12 +6921,18 @@
       <c r="F63" t="s">
         <v>14</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
@@ -6623,13 +6953,17 @@
       <c r="F64" t="s">
         <v>14</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>19</v>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -6651,13 +6985,17 @@
       <c r="F65" t="s">
         <v>14</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="2" t="s">
-        <v>19</v>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -6679,11 +7017,17 @@
       <c r="F66" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="2" t="s">
-        <v>19</v>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -6705,10 +7049,18 @@
       <c r="F67" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
+      <c r="G67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
@@ -6729,12 +7081,16 @@
       <c r="F68" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J68" s="2" t="s">
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6757,12 +7113,18 @@
       <c r="F69" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J69" s="3"/>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
@@ -6783,12 +7145,16 @@
       <c r="F70" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="2" t="s">
+      <c r="G70" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6811,12 +7177,18 @@
       <c r="F71" t="s">
         <v>14</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
@@ -6837,14 +7209,18 @@
       <c r="F72" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J72" s="3"/>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
@@ -6865,13 +7241,17 @@
       <c r="F73" t="s">
         <v>14</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="2" t="s">
-        <v>19</v>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -6893,13 +7273,17 @@
       <c r="F74" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="2" t="s">
-        <v>19</v>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -6921,11 +7305,17 @@
       <c r="F75" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="2" t="s">
-        <v>19</v>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -6947,12 +7337,18 @@
       <c r="F76" t="s">
         <v>14</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J76" s="3"/>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
@@ -6973,12 +7369,18 @@
       <c r="F77" t="s">
         <v>14</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J77" s="3"/>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
@@ -6999,12 +7401,18 @@
       <c r="F78" t="s">
         <v>14</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J78" s="3"/>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
@@ -7025,12 +7433,18 @@
       <c r="F79" t="s">
         <v>14</v>
       </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J79" s="3"/>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
@@ -7051,12 +7465,18 @@
       <c r="F80" t="s">
         <v>14</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J80" s="3"/>
+      <c r="G80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
@@ -7077,12 +7497,18 @@
       <c r="F81" t="s">
         <v>14</v>
       </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J81" s="3"/>
+      <c r="G81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
@@ -7103,12 +7529,18 @@
       <c r="F82" t="s">
         <v>14</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J82" s="3"/>
+      <c r="G82" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
@@ -7129,10 +7561,18 @@
       <c r="F83" t="s">
         <v>14</v>
       </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
+      <c r="G83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
@@ -7153,12 +7593,18 @@
       <c r="F84" t="s">
         <v>14</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J84" s="3"/>
+      <c r="G84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
@@ -7179,12 +7625,18 @@
       <c r="F85" t="s">
         <v>14</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J85" s="3"/>
+      <c r="G85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
@@ -7205,12 +7657,18 @@
       <c r="F86" t="s">
         <v>14</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J86" s="3"/>
+      <c r="G86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
@@ -7231,12 +7689,18 @@
       <c r="F87" t="s">
         <v>14</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J87" s="3"/>
+      <c r="G87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
@@ -7257,12 +7721,18 @@
       <c r="F88" t="s">
         <v>14</v>
       </c>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J88" s="3"/>
+      <c r="G88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
@@ -7283,12 +7753,18 @@
       <c r="F89" t="s">
         <v>14</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J89" s="3"/>
+      <c r="G89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
@@ -7309,13 +7785,17 @@
       <c r="F90" t="s">
         <v>14</v>
       </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>19</v>
+      <c r="G90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -7337,12 +7817,18 @@
       <c r="F91" t="s">
         <v>14</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J91" s="3"/>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
@@ -7363,12 +7849,18 @@
       <c r="F92" t="s">
         <v>14</v>
       </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J92" s="3"/>
+      <c r="G92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
@@ -7389,12 +7881,18 @@
       <c r="F93" t="s">
         <v>14</v>
       </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J93" s="3"/>
+      <c r="G93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
@@ -7415,12 +7913,16 @@
       <c r="F94" t="s">
         <v>14</v>
       </c>
-      <c r="G94" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="2" t="s">
+      <c r="G94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7443,13 +7945,17 @@
       <c r="F95" t="s">
         <v>14</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="2" t="s">
-        <v>19</v>
+      <c r="G95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -7471,14 +7977,18 @@
       <c r="F96" t="s">
         <v>14</v>
       </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J96" s="3"/>
+      <c r="G96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
@@ -7499,10 +8009,18 @@
       <c r="F97" t="s">
         <v>14</v>
       </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
+      <c r="G97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
@@ -7523,15 +8041,17 @@
       <c r="F98" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>19</v>
+      <c r="G98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -7553,10 +8073,18 @@
       <c r="F99" t="s">
         <v>14</v>
       </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+      <c r="G99" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
@@ -7577,10 +8105,18 @@
       <c r="F100" t="s">
         <v>14</v>
       </c>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
+      <c r="G100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
@@ -7601,12 +8137,18 @@
       <c r="F101" t="s">
         <v>14</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J101" s="3"/>
+      <c r="G101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
@@ -7627,12 +8169,16 @@
       <c r="F102" t="s">
         <v>14</v>
       </c>
-      <c r="G102" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
-      <c r="J102" s="2" t="s">
+      <c r="G102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7655,12 +8201,18 @@
       <c r="F103" t="s">
         <v>14</v>
       </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J103" s="3"/>
+      <c r="G103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
@@ -7681,14 +8233,18 @@
       <c r="F104" t="s">
         <v>14</v>
       </c>
-      <c r="G104" s="3"/>
-      <c r="H104" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I104" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J104" s="3"/>
+      <c r="G104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
@@ -7709,11 +8265,17 @@
       <c r="F105" t="s">
         <v>14</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="3"/>
-      <c r="J105" s="2" t="s">
-        <v>19</v>
+      <c r="G105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -7735,10 +8297,18 @@
       <c r="F106" t="s">
         <v>14</v>
       </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="G106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
@@ -7759,12 +8329,18 @@
       <c r="F107" t="s">
         <v>14</v>
       </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J107" s="3"/>
+      <c r="G107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
@@ -7785,12 +8361,18 @@
       <c r="F108" t="s">
         <v>14</v>
       </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J108" s="3"/>
+      <c r="G108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
@@ -7811,12 +8393,18 @@
       <c r="F109" t="s">
         <v>14</v>
       </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J109" s="3"/>
+      <c r="G109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
@@ -7837,12 +8425,16 @@
       <c r="F110" t="s">
         <v>14</v>
       </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J110" s="2" t="s">
+      <c r="G110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7865,12 +8457,18 @@
       <c r="F111" t="s">
         <v>14</v>
       </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J111" s="3"/>
+      <c r="G111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
@@ -7891,12 +8489,18 @@
       <c r="F112" t="s">
         <v>14</v>
       </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J112" s="3"/>
+      <c r="G112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
@@ -7917,12 +8521,18 @@
       <c r="F113" t="s">
         <v>14</v>
       </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J113" s="3"/>
+      <c r="G113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
@@ -7943,12 +8553,18 @@
       <c r="F114" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J114" s="3"/>
+      <c r="G114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
@@ -7969,12 +8585,18 @@
       <c r="F115" t="s">
         <v>14</v>
       </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J115" s="3"/>
+      <c r="G115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
@@ -7995,12 +8617,18 @@
       <c r="F116" t="s">
         <v>14</v>
       </c>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J116" s="3"/>
+      <c r="G116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
@@ -8021,12 +8649,18 @@
       <c r="F117" t="s">
         <v>14</v>
       </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J117" s="3"/>
+      <c r="G117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
@@ -8047,12 +8681,18 @@
       <c r="F118" t="s">
         <v>14</v>
       </c>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J118" s="3"/>
+      <c r="G118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
@@ -8073,12 +8713,18 @@
       <c r="F119" t="s">
         <v>14</v>
       </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J119" s="3"/>
+      <c r="G119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
@@ -8099,12 +8745,18 @@
       <c r="F120" t="s">
         <v>14</v>
       </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J120" s="3"/>
+      <c r="G120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
@@ -8125,12 +8777,18 @@
       <c r="F121" t="s">
         <v>14</v>
       </c>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J121" s="3"/>
+      <c r="G121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
@@ -8151,12 +8809,18 @@
       <c r="F122" t="s">
         <v>14</v>
       </c>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J122" s="3"/>
+      <c r="G122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
@@ -8177,12 +8841,18 @@
       <c r="F123" t="s">
         <v>14</v>
       </c>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J123" s="3"/>
+      <c r="G123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
@@ -8203,10 +8873,18 @@
       <c r="F124" t="s">
         <v>14</v>
       </c>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="3"/>
-      <c r="J124" s="3"/>
+      <c r="G124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
@@ -8227,10 +8905,18 @@
       <c r="F125" t="s">
         <v>14</v>
       </c>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3"/>
-      <c r="J125" s="3"/>
+      <c r="G125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
@@ -8251,13 +8937,17 @@
       <c r="F126" t="s">
         <v>14</v>
       </c>
-      <c r="G126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H126" s="3"/>
-      <c r="I126" s="3"/>
-      <c r="J126" s="2" t="s">
-        <v>19</v>
+      <c r="G126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -8279,12 +8969,18 @@
       <c r="F127" t="s">
         <v>14</v>
       </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J127" s="3"/>
+      <c r="G127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
@@ -8305,12 +9001,18 @@
       <c r="F128" t="s">
         <v>14</v>
       </c>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J128" s="3"/>
+      <c r="G128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
@@ -8331,12 +9033,18 @@
       <c r="F129" t="s">
         <v>14</v>
       </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J129" s="3"/>
+      <c r="G129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
@@ -8357,10 +9065,18 @@
       <c r="F130" t="s">
         <v>14</v>
       </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="J130" s="3"/>
+      <c r="G130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
@@ -8381,10 +9097,18 @@
       <c r="F131" t="s">
         <v>14</v>
       </c>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="3"/>
-      <c r="J131" s="3"/>
+      <c r="G131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
@@ -8405,12 +9129,18 @@
       <c r="F132" t="s">
         <v>14</v>
       </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J132" s="3"/>
+      <c r="G132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
@@ -8431,14 +9161,18 @@
       <c r="F133" t="s">
         <v>14</v>
       </c>
-      <c r="G133" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133" s="3"/>
-      <c r="I133" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J133" s="3"/>
+      <c r="G133" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
@@ -8459,14 +9193,18 @@
       <c r="F134" t="s">
         <v>14</v>
       </c>
-      <c r="G134" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H134" s="3"/>
-      <c r="I134" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J134" s="3"/>
+      <c r="G134" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
@@ -8487,13 +9225,17 @@
       <c r="F135" t="s">
         <v>14</v>
       </c>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J135" s="2" t="s">
-        <v>19</v>
+      <c r="G135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -8515,14 +9257,18 @@
       <c r="F136" t="s">
         <v>14</v>
       </c>
-      <c r="G136" s="3"/>
-      <c r="H136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J136" s="3"/>
+      <c r="G136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
@@ -8543,12 +9289,18 @@
       <c r="F137" t="s">
         <v>14</v>
       </c>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-      <c r="I137" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J137" s="3"/>
+      <c r="G137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
@@ -8569,13 +9321,17 @@
       <c r="F138" t="s">
         <v>14</v>
       </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J138" s="2" t="s">
-        <v>19</v>
+      <c r="G138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -8597,12 +9353,18 @@
       <c r="F139" t="s">
         <v>14</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3"/>
-      <c r="J139" s="3"/>
+      <c r="G139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
@@ -8623,12 +9385,18 @@
       <c r="F140" t="s">
         <v>14</v>
       </c>
-      <c r="G140" s="3"/>
-      <c r="H140" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I140" s="3"/>
-      <c r="J140" s="3"/>
+      <c r="G140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
@@ -8649,10 +9417,16 @@
       <c r="F141" t="s">
         <v>14</v>
       </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3"/>
-      <c r="I141" s="3"/>
-      <c r="J141" s="2" t="s">
+      <c r="G141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8675,12 +9449,16 @@
       <c r="F142" t="s">
         <v>14</v>
       </c>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J142" s="2" t="s">
+      <c r="G142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8703,12 +9481,18 @@
       <c r="F143" t="s">
         <v>14</v>
       </c>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-      <c r="I143" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J143" s="3"/>
+      <c r="G143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
@@ -8729,13 +9513,17 @@
       <c r="F144" t="s">
         <v>14</v>
       </c>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J144" s="2" t="s">
-        <v>19</v>
+      <c r="G144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -8757,14 +9545,18 @@
       <c r="F145" t="s">
         <v>14</v>
       </c>
-      <c r="G145" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H145" s="3"/>
-      <c r="I145" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J145" s="3"/>
+      <c r="G145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
@@ -8785,10 +9577,18 @@
       <c r="F146" t="s">
         <v>14</v>
       </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
+      <c r="G146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
@@ -8809,13 +9609,17 @@
       <c r="F147" t="s">
         <v>14</v>
       </c>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
-      <c r="I147" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>19</v>
+      <c r="G147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -8837,10 +9641,18 @@
       <c r="F148" t="s">
         <v>14</v>
       </c>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
+      <c r="G148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
@@ -8859,13 +9671,17 @@
       <c r="F149" t="s">
         <v>14</v>
       </c>
-      <c r="G149" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H149" s="3"/>
-      <c r="I149" s="3"/>
-      <c r="J149" s="2" t="s">
-        <v>19</v>
+      <c r="G149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -8887,12 +9703,18 @@
       <c r="F150" t="s">
         <v>14</v>
       </c>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-      <c r="I150" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J150" s="3"/>
+      <c r="G150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
@@ -8913,10 +9735,18 @@
       <c r="F151" t="s">
         <v>14</v>
       </c>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-      <c r="I151" s="3"/>
-      <c r="J151" s="3"/>
+      <c r="G151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
@@ -8937,12 +9767,18 @@
       <c r="F152" t="s">
         <v>14</v>
       </c>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-      <c r="I152" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J152" s="3"/>
+      <c r="G152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
@@ -8963,12 +9799,18 @@
       <c r="F153" t="s">
         <v>14</v>
       </c>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-      <c r="I153" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J153" s="3"/>
+      <c r="G153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
@@ -8989,12 +9831,18 @@
       <c r="F154" t="s">
         <v>14</v>
       </c>
-      <c r="G154" s="3"/>
-      <c r="H154" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I154" s="3"/>
-      <c r="J154" s="3"/>
+      <c r="G154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
@@ -9015,10 +9863,16 @@
       <c r="F155" t="s">
         <v>14</v>
       </c>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-      <c r="I155" s="3"/>
-      <c r="J155" s="2" t="s">
+      <c r="G155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9041,11 +9895,17 @@
       <c r="F156" t="s">
         <v>14</v>
       </c>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-      <c r="I156" s="3"/>
-      <c r="J156" s="2" t="s">
-        <v>19</v>
+      <c r="G156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -9067,12 +9927,18 @@
       <c r="F157" t="s">
         <v>14</v>
       </c>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-      <c r="I157" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J157" s="3"/>
+      <c r="G157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
@@ -9093,10 +9959,18 @@
       <c r="F158" t="s">
         <v>14</v>
       </c>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-      <c r="I158" s="3"/>
-      <c r="J158" s="3"/>
+      <c r="G158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
@@ -9117,10 +9991,16 @@
       <c r="F159" t="s">
         <v>14</v>
       </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="J159" s="2" t="s">
+      <c r="G159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J159" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9143,12 +10023,18 @@
       <c r="F160" t="s">
         <v>14</v>
       </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J160" s="3"/>
+      <c r="G160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
@@ -9169,11 +10055,17 @@
       <c r="F161" t="s">
         <v>14</v>
       </c>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-      <c r="J161" s="2" t="s">
-        <v>19</v>
+      <c r="G161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -9195,12 +10087,18 @@
       <c r="F162" t="s">
         <v>14</v>
       </c>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J162" s="3"/>
+      <c r="G162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
@@ -9221,12 +10119,18 @@
       <c r="F163" t="s">
         <v>14</v>
       </c>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J163" s="3"/>
+      <c r="G163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
@@ -9247,11 +10151,17 @@
       <c r="F164" t="s">
         <v>14</v>
       </c>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-      <c r="J164" s="2" t="s">
-        <v>19</v>
+      <c r="G164" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -9273,12 +10183,18 @@
       <c r="F165" t="s">
         <v>14</v>
       </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J165" s="3"/>
+      <c r="G165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
@@ -9299,12 +10215,18 @@
       <c r="F166" t="s">
         <v>14</v>
       </c>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J166" s="3"/>
+      <c r="G166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
@@ -9325,14 +10247,18 @@
       <c r="F167" t="s">
         <v>14</v>
       </c>
-      <c r="G167" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H167" s="3"/>
-      <c r="I167" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J167" s="3"/>
+      <c r="G167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
@@ -9353,12 +10279,18 @@
       <c r="F168" t="s">
         <v>14</v>
       </c>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J168" s="3"/>
+      <c r="G168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
@@ -9379,12 +10311,18 @@
       <c r="F169" t="s">
         <v>14</v>
       </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J169" s="3"/>
+      <c r="G169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
@@ -9405,10 +10343,16 @@
       <c r="F170" t="s">
         <v>14</v>
       </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-      <c r="J170" s="2" t="s">
+      <c r="G170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9431,10 +10375,18 @@
       <c r="F171" t="s">
         <v>14</v>
       </c>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-      <c r="J171" s="3"/>
+      <c r="G171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
@@ -9455,12 +10407,18 @@
       <c r="F172" t="s">
         <v>14</v>
       </c>
-      <c r="G172" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-      <c r="J172" s="3"/>
+      <c r="G172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
@@ -9481,12 +10439,18 @@
       <c r="F173" t="s">
         <v>14</v>
       </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J173" s="3"/>
+      <c r="G173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
@@ -9507,12 +10471,18 @@
       <c r="F174" t="s">
         <v>14</v>
       </c>
-      <c r="G174" s="3"/>
-      <c r="H174" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I174" s="3"/>
-      <c r="J174" s="3"/>
+      <c r="G174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
@@ -9533,11 +10503,17 @@
       <c r="F175" t="s">
         <v>14</v>
       </c>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-      <c r="J175" s="2" t="s">
-        <v>19</v>
+      <c r="G175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -9559,13 +10535,17 @@
       <c r="F176" t="s">
         <v>14</v>
       </c>
-      <c r="G176" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-      <c r="J176" s="2" t="s">
-        <v>19</v>
+      <c r="G176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -9587,12 +10567,18 @@
       <c r="F177" t="s">
         <v>14</v>
       </c>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J177" s="3"/>
+      <c r="G177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
@@ -9613,12 +10599,18 @@
       <c r="F178" t="s">
         <v>14</v>
       </c>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J178" s="3"/>
+      <c r="G178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
@@ -9639,12 +10631,18 @@
       <c r="F179" t="s">
         <v>14</v>
       </c>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J179" s="3"/>
+      <c r="G179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
@@ -9665,12 +10663,18 @@
       <c r="F180" t="s">
         <v>14</v>
       </c>
-      <c r="G180" s="3"/>
-      <c r="H180" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
+      <c r="G180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
@@ -9691,14 +10695,18 @@
       <c r="F181" t="s">
         <v>14</v>
       </c>
-      <c r="G181" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H181" s="3"/>
-      <c r="I181" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J181" s="3"/>
+      <c r="G181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
@@ -9719,12 +10727,18 @@
       <c r="F182" t="s">
         <v>14</v>
       </c>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J182" s="3"/>
+      <c r="G182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
@@ -9745,10 +10759,18 @@
       <c r="F183" t="s">
         <v>14</v>
       </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-      <c r="J183" s="3"/>
+      <c r="G183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
@@ -9769,12 +10791,16 @@
       <c r="F184" t="s">
         <v>14</v>
       </c>
-      <c r="G184" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-      <c r="J184" s="2" t="s">
+      <c r="G184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J184" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -9797,14 +10823,18 @@
       <c r="F185" t="s">
         <v>14</v>
       </c>
-      <c r="G185" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H185" s="3"/>
-      <c r="I185" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J185" s="3"/>
+      <c r="G185" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
@@ -9825,12 +10855,18 @@
       <c r="F186" t="s">
         <v>14</v>
       </c>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J186" s="3"/>
+      <c r="G186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
@@ -9851,14 +10887,18 @@
       <c r="F187" t="s">
         <v>14</v>
       </c>
-      <c r="G187" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H187" s="3"/>
-      <c r="I187" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J187" s="3"/>
+      <c r="G187" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
@@ -9879,12 +10919,18 @@
       <c r="F188" t="s">
         <v>14</v>
       </c>
-      <c r="G188" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
+      <c r="G188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
@@ -9905,10 +10951,18 @@
       <c r="F189" t="s">
         <v>14</v>
       </c>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
+      <c r="G189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
@@ -9927,10 +10981,18 @@
       <c r="F190" t="s">
         <v>14</v>
       </c>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
+      <c r="G190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
@@ -9951,14 +11013,18 @@
       <c r="F191" t="s">
         <v>14</v>
       </c>
-      <c r="G191" s="3"/>
-      <c r="H191" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I191" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J191" s="3"/>
+      <c r="G191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
@@ -9979,12 +11045,16 @@
       <c r="F192" t="s">
         <v>14</v>
       </c>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J192" s="2" t="s">
+      <c r="G192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J192" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10007,10 +11077,18 @@
       <c r="F193" t="s">
         <v>14</v>
       </c>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
+      <c r="G193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
@@ -10031,14 +11109,18 @@
       <c r="F194" t="s">
         <v>14</v>
       </c>
-      <c r="G194" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H194" s="3"/>
-      <c r="I194" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J194" s="3"/>
+      <c r="G194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
@@ -10059,12 +11141,16 @@
       <c r="F195" t="s">
         <v>14</v>
       </c>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J195" s="2" t="s">
+      <c r="G195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J195" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10087,12 +11173,16 @@
       <c r="F196" t="s">
         <v>14</v>
       </c>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J196" s="2" t="s">
+      <c r="G196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J196" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10115,12 +11205,18 @@
       <c r="F197" t="s">
         <v>14</v>
       </c>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J197" s="3"/>
+      <c r="G197" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
@@ -10141,12 +11237,16 @@
       <c r="F198" t="s">
         <v>14</v>
       </c>
-      <c r="G198" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-      <c r="J198" s="2" t="s">
+      <c r="G198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J198" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10169,12 +11269,18 @@
       <c r="F199" t="s">
         <v>14</v>
       </c>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J199" s="3"/>
+      <c r="G199" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
@@ -10195,12 +11301,16 @@
       <c r="F200" t="s">
         <v>14</v>
       </c>
-      <c r="G200" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-      <c r="J200" s="2" t="s">
+      <c r="G200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J200" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10223,10 +11333,18 @@
       <c r="F201" t="s">
         <v>14</v>
       </c>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-      <c r="J201" s="3"/>
+      <c r="G201" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
@@ -10247,14 +11365,16 @@
       <c r="F202" t="s">
         <v>14</v>
       </c>
-      <c r="G202" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H202" s="3"/>
-      <c r="I202" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J202" s="2" t="s">
+      <c r="G202" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J202" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10277,12 +11397,16 @@
       <c r="F203" t="s">
         <v>14</v>
       </c>
-      <c r="G203" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-      <c r="J203" s="2" t="s">
+      <c r="G203" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J203" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10305,12 +11429,16 @@
       <c r="F204" t="s">
         <v>14</v>
       </c>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J204" s="2" t="s">
+      <c r="G204" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J204" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10333,12 +11461,16 @@
       <c r="F205" t="s">
         <v>14</v>
       </c>
-      <c r="G205" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-      <c r="J205" s="2" t="s">
+      <c r="G205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J205" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10361,12 +11493,16 @@
       <c r="F206" t="s">
         <v>14</v>
       </c>
-      <c r="G206" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-      <c r="J206" s="2" t="s">
+      <c r="G206" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J206" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10389,12 +11525,16 @@
       <c r="F207" t="s">
         <v>14</v>
       </c>
-      <c r="G207" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-      <c r="J207" s="2" t="s">
+      <c r="G207" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J207" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10417,12 +11557,18 @@
       <c r="F208" t="s">
         <v>14</v>
       </c>
-      <c r="G208" s="3"/>
-      <c r="H208" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I208" s="3"/>
-      <c r="J208" s="3"/>
+      <c r="G208" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
@@ -10443,10 +11589,18 @@
       <c r="F209" t="s">
         <v>14</v>
       </c>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-      <c r="J209" s="3"/>
+      <c r="G209" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="210" spans="1:10">
       <c r="A210">
@@ -10467,12 +11621,16 @@
       <c r="F210" t="s">
         <v>14</v>
       </c>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J210" s="2" t="s">
+      <c r="G210" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J210" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10495,10 +11653,18 @@
       <c r="F211" t="s">
         <v>14</v>
       </c>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-      <c r="J211" s="3"/>
+      <c r="G211" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
@@ -10519,12 +11685,16 @@
       <c r="F212" t="s">
         <v>14</v>
       </c>
-      <c r="G212" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-      <c r="J212" s="2" t="s">
+      <c r="G212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J212" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -10547,14 +11717,18 @@
       <c r="F213" t="s">
         <v>14</v>
       </c>
-      <c r="G213" s="3"/>
-      <c r="H213" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I213" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J213" s="3"/>
+      <c r="G213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="214" spans="1:10">
       <c r="A214">
@@ -10575,12 +11749,18 @@
       <c r="F214" t="s">
         <v>14</v>
       </c>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J214" s="3"/>
+      <c r="G214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
@@ -10601,12 +11781,18 @@
       <c r="F215" t="s">
         <v>14</v>
       </c>
-      <c r="G215" s="3"/>
-      <c r="H215" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I215" s="3"/>
-      <c r="J215" s="3"/>
+      <c r="G215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
@@ -10627,13 +11813,17 @@
       <c r="F216" t="s">
         <v>14</v>
       </c>
-      <c r="G216" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-      <c r="J216" s="2" t="s">
-        <v>19</v>
+      <c r="G216" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -10655,12 +11845,18 @@
       <c r="F217" t="s">
         <v>14</v>
       </c>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J217" s="3"/>
+      <c r="G217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
@@ -10681,10 +11877,18 @@
       <c r="F218" t="s">
         <v>14</v>
       </c>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-      <c r="J218" s="3"/>
+      <c r="G218" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
@@ -10705,10 +11909,18 @@
       <c r="F219" t="s">
         <v>14</v>
       </c>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-      <c r="J219" s="3"/>
+      <c r="G219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
@@ -10729,11 +11941,17 @@
       <c r="F220" t="s">
         <v>14</v>
       </c>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-      <c r="J220" s="2" t="s">
-        <v>19</v>
+      <c r="G220" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -10755,12 +11973,18 @@
       <c r="F221" t="s">
         <v>14</v>
       </c>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J221" s="3"/>
+      <c r="G221" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="222" spans="1:10">
       <c r="A222">
@@ -10781,12 +12005,18 @@
       <c r="F222" t="s">
         <v>14</v>
       </c>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J222" s="3"/>
+      <c r="G222" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="223" spans="1:10">
       <c r="A223">
@@ -10807,12 +12037,18 @@
       <c r="F223" t="s">
         <v>14</v>
       </c>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J223" s="3"/>
+      <c r="G223" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="224" spans="1:10">
       <c r="A224">
@@ -10833,12 +12069,18 @@
       <c r="F224" t="s">
         <v>14</v>
       </c>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J224" s="3"/>
+      <c r="G224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="225" spans="1:10">
       <c r="A225">
@@ -10859,13 +12101,17 @@
       <c r="F225" t="s">
         <v>14</v>
       </c>
-      <c r="G225" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-      <c r="J225" s="2" t="s">
-        <v>19</v>
+      <c r="G225" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -10887,10 +12133,18 @@
       <c r="F226" t="s">
         <v>14</v>
       </c>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-      <c r="J226" s="3"/>
+      <c r="G226" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
@@ -10911,12 +12165,18 @@
       <c r="F227" t="s">
         <v>14</v>
       </c>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J227" s="3"/>
+      <c r="G227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
@@ -10937,15 +12197,17 @@
       <c r="F228" t="s">
         <v>14</v>
       </c>
-      <c r="G228" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H228" s="3"/>
-      <c r="I228" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J228" s="2" t="s">
-        <v>19</v>
+      <c r="G228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -10967,10 +12229,18 @@
       <c r="F229" t="s">
         <v>14</v>
       </c>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-      <c r="J229" s="3"/>
+      <c r="G229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
@@ -10991,15 +12261,17 @@
       <c r="F230" t="s">
         <v>14</v>
       </c>
-      <c r="G230" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H230" s="3"/>
-      <c r="I230" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J230" s="2" t="s">
-        <v>19</v>
+      <c r="G230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -11021,13 +12293,17 @@
       <c r="F231" t="s">
         <v>14</v>
       </c>
-      <c r="G231" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-      <c r="J231" s="2" t="s">
-        <v>19</v>
+      <c r="G231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -11049,12 +12325,18 @@
       <c r="F232" t="s">
         <v>14</v>
       </c>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J232" s="3"/>
+      <c r="G232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="233" spans="1:10">
       <c r="A233">
@@ -11075,14 +12357,18 @@
       <c r="F233" t="s">
         <v>14</v>
       </c>
-      <c r="G233" s="3"/>
-      <c r="H233" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I233" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J233" s="3"/>
+      <c r="G233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="234" spans="1:10">
       <c r="A234">
@@ -11103,10 +12389,18 @@
       <c r="F234" t="s">
         <v>14</v>
       </c>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-      <c r="J234" s="3"/>
+      <c r="G234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="235" spans="1:10">
       <c r="A235">
@@ -11125,10 +12419,18 @@
       <c r="F235" t="s">
         <v>14</v>
       </c>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-      <c r="J235" s="3"/>
+      <c r="G235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="236" spans="1:10">
       <c r="A236">
@@ -11149,10 +12451,18 @@
       <c r="F236" t="s">
         <v>14</v>
       </c>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-      <c r="J236" s="3"/>
+      <c r="G236" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="237" spans="1:10">
       <c r="A237">
@@ -11173,15 +12483,17 @@
       <c r="F237" t="s">
         <v>14</v>
       </c>
-      <c r="G237" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H237" s="3"/>
-      <c r="I237" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J237" s="2" t="s">
-        <v>19</v>
+      <c r="G237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -11203,13 +12515,17 @@
       <c r="F238" t="s">
         <v>14</v>
       </c>
-      <c r="G238" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="2" t="s">
-        <v>19</v>
+      <c r="G238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -11231,12 +12547,16 @@
       <c r="F239" t="s">
         <v>14</v>
       </c>
-      <c r="G239" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-      <c r="J239" s="2" t="s">
+      <c r="G239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J239" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11259,13 +12579,17 @@
       <c r="F240" t="s">
         <v>14</v>
       </c>
-      <c r="G240" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-      <c r="J240" s="2" t="s">
-        <v>19</v>
+      <c r="G240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -11287,13 +12611,17 @@
       <c r="F241" t="s">
         <v>14</v>
       </c>
-      <c r="G241" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-      <c r="J241" s="2" t="s">
-        <v>19</v>
+      <c r="G241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -11315,12 +12643,16 @@
       <c r="F242" t="s">
         <v>14</v>
       </c>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J242" s="2" t="s">
+      <c r="G242" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J242" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11343,12 +12675,16 @@
       <c r="F243" t="s">
         <v>14</v>
       </c>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J243" s="2" t="s">
+      <c r="G243" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J243" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11371,14 +12707,16 @@
       <c r="F244" t="s">
         <v>14</v>
       </c>
-      <c r="G244" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H244" s="3"/>
-      <c r="I244" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J244" s="2" t="s">
+      <c r="G244" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J244" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11401,12 +12739,18 @@
       <c r="F245" t="s">
         <v>14</v>
       </c>
-      <c r="G245" s="3"/>
-      <c r="H245" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I245" s="3"/>
-      <c r="J245" s="3"/>
+      <c r="G245" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
@@ -11427,12 +12771,16 @@
       <c r="F246" t="s">
         <v>14</v>
       </c>
-      <c r="G246" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-      <c r="J246" s="2" t="s">
+      <c r="G246" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J246" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11455,14 +12803,18 @@
       <c r="F247" t="s">
         <v>14</v>
       </c>
-      <c r="G247" s="3"/>
-      <c r="H247" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I247" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J247" s="3"/>
+      <c r="G247" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
@@ -11483,12 +12835,18 @@
       <c r="F248" t="s">
         <v>14</v>
       </c>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J248" s="3"/>
+      <c r="G248" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
@@ -11509,12 +12867,16 @@
       <c r="F249" t="s">
         <v>14</v>
       </c>
-      <c r="G249" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="2" t="s">
+      <c r="G249" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J249" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11537,10 +12899,18 @@
       <c r="F250" t="s">
         <v>14</v>
       </c>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="3"/>
+      <c r="G250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="251" spans="1:10">
       <c r="A251">
@@ -11559,10 +12929,18 @@
       <c r="F251" t="s">
         <v>14</v>
       </c>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="3"/>
+      <c r="G251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="252" spans="1:10">
       <c r="A252">
@@ -11583,12 +12961,18 @@
       <c r="F252" t="s">
         <v>14</v>
       </c>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J252" s="3"/>
+      <c r="G252" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="253" spans="1:10">
       <c r="A253">
@@ -11609,14 +12993,18 @@
       <c r="F253" t="s">
         <v>14</v>
       </c>
-      <c r="G253" s="3"/>
-      <c r="H253" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I253" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J253" s="3"/>
+      <c r="G253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="254" spans="1:10">
       <c r="A254">
@@ -11637,15 +13025,17 @@
       <c r="F254" t="s">
         <v>14</v>
       </c>
-      <c r="G254" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H254" s="3"/>
-      <c r="I254" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J254" s="2" t="s">
-        <v>19</v>
+      <c r="G254" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:10">
@@ -11667,12 +13057,18 @@
       <c r="F255" t="s">
         <v>14</v>
       </c>
-      <c r="G255" s="3"/>
-      <c r="H255" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I255" s="3"/>
-      <c r="J255" s="3"/>
+      <c r="G255" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="256" spans="1:10">
       <c r="A256">
@@ -11693,14 +13089,18 @@
       <c r="F256" t="s">
         <v>14</v>
       </c>
-      <c r="G256" s="3"/>
-      <c r="H256" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I256" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J256" s="3"/>
+      <c r="G256" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="257" spans="1:10">
       <c r="A257">
@@ -11721,12 +13121,16 @@
       <c r="F257" t="s">
         <v>14</v>
       </c>
-      <c r="G257" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="2" t="s">
+      <c r="G257" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J257" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11749,14 +13153,16 @@
       <c r="F258" t="s">
         <v>14</v>
       </c>
-      <c r="G258" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H258" s="3"/>
-      <c r="I258" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J258" s="2" t="s">
+      <c r="G258" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J258" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -11779,10 +13185,18 @@
       <c r="F259" t="s">
         <v>14</v>
       </c>
-      <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
-      <c r="I259" s="3"/>
-      <c r="J259" s="3"/>
+      <c r="G259" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="260" spans="1:10">
       <c r="A260">
@@ -11803,12 +13217,18 @@
       <c r="F260" t="s">
         <v>14</v>
       </c>
-      <c r="G260" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H260" s="3"/>
-      <c r="I260" s="3"/>
-      <c r="J260" s="3"/>
+      <c r="G260" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="261" spans="1:10">
       <c r="A261">
@@ -11829,10 +13249,18 @@
       <c r="F261" t="s">
         <v>14</v>
       </c>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
-      <c r="I261" s="3"/>
-      <c r="J261" s="3"/>
+      <c r="G261" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="262" spans="1:10">
       <c r="A262">
@@ -11853,12 +13281,18 @@
       <c r="F262" t="s">
         <v>14</v>
       </c>
-      <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
-      <c r="I262" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J262" s="3"/>
+      <c r="G262" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="1">
@@ -11876,15 +13310,17 @@
       <c r="E263" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="G263" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H263" s="3"/>
-      <c r="I263" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J263" s="2" t="s">
-        <v>19</v>
+      <c r="G263" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:10">
@@ -11903,14 +13339,18 @@
       <c r="E264" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="G264" s="3"/>
-      <c r="H264" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I264" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J264" s="3"/>
+      <c r="G264" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="265" spans="1:10">
       <c r="A265" s="1">
@@ -11928,15 +13368,17 @@
       <c r="E265" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="G265" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H265" s="3"/>
-      <c r="I265" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J265" s="2" t="s">
-        <v>19</v>
+      <c r="G265" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:10">
@@ -11955,15 +13397,17 @@
       <c r="E266" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="G266" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H266" s="3"/>
-      <c r="I266" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J266" s="2" t="s">
-        <v>19</v>
+      <c r="G266" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:10">
@@ -11982,12 +13426,18 @@
       <c r="E267" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
-      <c r="I267" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J267" s="3"/>
+      <c r="G267" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="1">
@@ -12005,14 +13455,18 @@
       <c r="E268" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="G268" s="3"/>
-      <c r="H268" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I268" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J268" s="3"/>
+      <c r="G268" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="1">
@@ -12030,14 +13484,18 @@
       <c r="E269" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="G269" s="3"/>
-      <c r="H269" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I269" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J269" s="3"/>
+      <c r="G269" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="1">
@@ -12055,14 +13513,18 @@
       <c r="E270" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="G270" s="3"/>
-      <c r="H270" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I270" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J270" s="3"/>
+      <c r="G270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="271" spans="1:10">
       <c r="A271" s="1">
@@ -12080,12 +13542,18 @@
       <c r="E271" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
-      <c r="I271" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J271" s="3"/>
+      <c r="G271" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="1">
@@ -12103,14 +13571,18 @@
       <c r="E272" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="G272" s="3"/>
-      <c r="H272" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I272" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J272" s="3"/>
+      <c r="G272" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="1">
@@ -12128,12 +13600,18 @@
       <c r="E273" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
-      <c r="I273" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J273" s="3"/>
+      <c r="G273" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="1">
@@ -12151,12 +13629,16 @@
       <c r="E274" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="G274" s="3"/>
-      <c r="H274" s="3"/>
-      <c r="I274" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J274" s="2" t="s">
+      <c r="G274" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J274" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12176,14 +13658,18 @@
       <c r="E275" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="G275" s="3"/>
-      <c r="H275" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I275" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J275" s="3"/>
+      <c r="G275" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="1">
@@ -12201,15 +13687,17 @@
       <c r="E276" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="G276" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H276" s="3"/>
-      <c r="I276" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J276" s="2" t="s">
-        <v>19</v>
+      <c r="G276" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:10">
@@ -12228,14 +13716,18 @@
       <c r="E277" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G277" s="3"/>
-      <c r="H277" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I277" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J277" s="3"/>
+      <c r="G277" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="278" spans="1:10">
       <c r="A278" s="1">
@@ -12253,12 +13745,16 @@
       <c r="E278" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
-      <c r="I278" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J278" s="2" t="s">
+      <c r="G278" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J278" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12278,12 +13774,18 @@
       <c r="E279" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
-      <c r="I279" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J279" s="3"/>
+      <c r="G279" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="1">
@@ -12301,12 +13803,18 @@
       <c r="E280" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
-      <c r="I280" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J280" s="3"/>
+      <c r="G280" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="281" spans="1:10">
       <c r="A281" s="1">
@@ -12324,15 +13832,17 @@
       <c r="E281" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="G281" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H281" s="3"/>
-      <c r="I281" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J281" s="2" t="s">
-        <v>19</v>
+      <c r="G281" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="282" spans="1:10">
@@ -12351,14 +13861,18 @@
       <c r="E282" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="G282" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H282" s="3"/>
-      <c r="I282" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J282" s="3"/>
+      <c r="G282" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="283" spans="1:10">
       <c r="A283" s="1">
@@ -12376,12 +13890,18 @@
       <c r="E283" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
-      <c r="I283" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J283" s="3"/>
+      <c r="G283" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="1">
@@ -12399,14 +13919,16 @@
       <c r="E284" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="G284" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H284" s="3"/>
-      <c r="I284" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J284" s="2" t="s">
+      <c r="G284" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J284" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12426,15 +13948,17 @@
       <c r="E285" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="G285" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H285" s="3"/>
-      <c r="I285" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J285" s="2" t="s">
-        <v>19</v>
+      <c r="G285" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:10">
@@ -12453,12 +13977,18 @@
       <c r="E286" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="G286" s="3"/>
-      <c r="H286" s="3"/>
-      <c r="I286" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J286" s="3"/>
+      <c r="G286" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="1">
@@ -12476,13 +14006,17 @@
       <c r="E287" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
-      <c r="I287" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J287" s="2" t="s">
-        <v>19</v>
+      <c r="G287" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:10">
@@ -12501,14 +14035,16 @@
       <c r="E288" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="G288" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H288" s="3"/>
-      <c r="I288" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J288" s="2" t="s">
+      <c r="G288" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J288" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12528,12 +14064,18 @@
       <c r="E289" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
-      <c r="I289" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J289" s="3"/>
+      <c r="G289" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="1">
@@ -12551,14 +14093,18 @@
       <c r="E290" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="G290" s="3"/>
-      <c r="H290" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I290" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J290" s="3"/>
+      <c r="G290" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="291" spans="1:10">
       <c r="A291" s="1">
@@ -12576,12 +14122,16 @@
       <c r="E291" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="G291" s="3"/>
-      <c r="H291" s="3"/>
-      <c r="I291" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J291" s="2" t="s">
+      <c r="G291" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J291" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12601,12 +14151,16 @@
       <c r="E292" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
-      <c r="I292" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J292" s="2" t="s">
+      <c r="G292" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J292" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12626,14 +14180,18 @@
       <c r="E293" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="G293" s="3"/>
-      <c r="H293" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I293" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J293" s="3"/>
+      <c r="G293" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="294" spans="1:10">
       <c r="A294" s="1">
@@ -12651,12 +14209,16 @@
       <c r="E294" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
-      <c r="I294" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J294" s="2" t="s">
+      <c r="G294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J294" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12676,14 +14238,16 @@
       <c r="E295" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="G295" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H295" s="3"/>
-      <c r="I295" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J295" s="2" t="s">
+      <c r="G295" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J295" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12703,12 +14267,16 @@
       <c r="E296" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
-      <c r="I296" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J296" s="2" t="s">
+      <c r="G296" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J296" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -12728,12 +14296,18 @@
       <c r="E297" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
-      <c r="I297" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J297" s="3"/>
+      <c r="G297" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="1">
@@ -12751,12 +14325,18 @@
       <c r="E298" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
-      <c r="I298" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J298" s="3"/>
+      <c r="G298" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="299" spans="1:10">
       <c r="A299" s="1">
@@ -12774,12 +14354,18 @@
       <c r="E299" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
-      <c r="I299" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J299" s="3"/>
+      <c r="G299" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="1">
@@ -12797,12 +14383,18 @@
       <c r="E300" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
-      <c r="I300" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J300" s="3"/>
+      <c r="G300" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="1">
@@ -12820,14 +14412,18 @@
       <c r="E301" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="G301" s="3"/>
-      <c r="H301" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I301" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J301" s="3"/>
+      <c r="G301" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="1">
@@ -12845,12 +14441,18 @@
       <c r="E302" s="2" t="s">
         <v>1083</v>
       </c>
-      <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
-      <c r="I302" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J302" s="3"/>
+      <c r="G302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="303" spans="1:10">
       <c r="A303" s="1">
@@ -12868,12 +14470,18 @@
       <c r="E303" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
-      <c r="I303" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J303" s="3"/>
+      <c r="G303" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="1">
@@ -12891,12 +14499,18 @@
       <c r="E304" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="G304" s="3"/>
-      <c r="H304" s="3"/>
-      <c r="I304" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J304" s="3"/>
+      <c r="G304" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="305" spans="1:10">
       <c r="A305" s="1">
@@ -12914,12 +14528,18 @@
       <c r="E305" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
-      <c r="I305" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J305" s="3"/>
+      <c r="G305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="1">
@@ -12937,12 +14557,18 @@
       <c r="E306" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="G306" s="3"/>
-      <c r="H306" s="3"/>
-      <c r="I306" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J306" s="3"/>
+      <c r="G306" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="1">
@@ -12960,15 +14586,17 @@
       <c r="E307" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="G307" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H307" s="3"/>
-      <c r="I307" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J307" s="2" t="s">
-        <v>19</v>
+      <c r="G307" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:10">
@@ -12987,12 +14615,18 @@
       <c r="E308" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
-      <c r="I308" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J308" s="3"/>
+      <c r="G308" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="1">
@@ -13010,14 +14644,18 @@
       <c r="E309" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="G309" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H309" s="3"/>
-      <c r="I309" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J309" s="3"/>
+      <c r="G309" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="1">
@@ -13035,12 +14673,18 @@
       <c r="E310" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
-      <c r="I310" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J310" s="3"/>
+      <c r="G310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="1">
@@ -13058,12 +14702,18 @@
       <c r="E311" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="G311" s="3"/>
-      <c r="H311" s="3"/>
-      <c r="I311" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J311" s="3"/>
+      <c r="G311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="1">
@@ -13081,12 +14731,18 @@
       <c r="E312" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
-      <c r="I312" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J312" s="3"/>
+      <c r="G312" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="1">
@@ -13104,14 +14760,18 @@
       <c r="E313" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="G313" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H313" s="3"/>
-      <c r="I313" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J313" s="3"/>
+      <c r="G313" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="1">
@@ -13129,13 +14789,17 @@
       <c r="E314" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
-      <c r="I314" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J314" s="2" t="s">
-        <v>19</v>
+      <c r="G314" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="315" spans="1:10">
@@ -13154,12 +14818,18 @@
       <c r="E315" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
-      <c r="I315" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J315" s="3"/>
+      <c r="G315" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="1">
@@ -13177,15 +14847,17 @@
       <c r="E316" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="G316" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H316" s="3"/>
-      <c r="I316" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J316" s="2" t="s">
-        <v>19</v>
+      <c r="G316" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:10">
@@ -13204,12 +14876,18 @@
       <c r="E317" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
-      <c r="I317" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J317" s="3"/>
+      <c r="G317" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="1">
@@ -13227,14 +14905,18 @@
       <c r="E318" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="G318" s="3"/>
-      <c r="H318" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I318" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J318" s="3"/>
+      <c r="G318" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="1">
@@ -13252,12 +14934,18 @@
       <c r="E319" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
-      <c r="I319" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J319" s="3"/>
+      <c r="G319" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="1">
@@ -13275,14 +14963,18 @@
       <c r="E320" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="G320" s="3"/>
-      <c r="H320" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I320" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J320" s="3"/>
+      <c r="G320" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="1">
@@ -13300,12 +14992,18 @@
       <c r="E321" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
-      <c r="I321" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J321" s="3"/>
+      <c r="G321" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="1">
@@ -13323,12 +15021,18 @@
       <c r="E322" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
-      <c r="I322" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J322" s="3"/>
+      <c r="G322" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="1">
@@ -13346,12 +15050,18 @@
       <c r="E323" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
-      <c r="I323" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J323" s="3"/>
+      <c r="G323" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="1">
@@ -13369,14 +15079,18 @@
       <c r="E324" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="G324" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H324" s="3"/>
-      <c r="I324" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J324" s="3"/>
+      <c r="G324" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="1">
@@ -13394,12 +15108,18 @@
       <c r="E325" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
-      <c r="I325" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J325" s="3"/>
+      <c r="G325" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="1">
@@ -13417,12 +15137,18 @@
       <c r="E326" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J326" s="3"/>
+      <c r="G326" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="1">
@@ -13440,12 +15166,18 @@
       <c r="E327" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
-      <c r="I327" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J327" s="3"/>
+      <c r="G327" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="1">
@@ -13463,15 +15195,17 @@
       <c r="E328" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="G328" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H328" s="3"/>
-      <c r="I328" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J328" s="2" t="s">
-        <v>19</v>
+      <c r="G328" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:10">
@@ -13490,12 +15224,16 @@
       <c r="E329" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
-      <c r="I329" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J329" s="2" t="s">
+      <c r="G329" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J329" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13515,14 +15253,16 @@
       <c r="E330" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="G330" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H330" s="3"/>
-      <c r="I330" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J330" s="2" t="s">
+      <c r="G330" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J330" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13542,14 +15282,16 @@
       <c r="E331" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="G331" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H331" s="3"/>
-      <c r="I331" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J331" s="2" t="s">
+      <c r="G331" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J331" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13569,14 +15311,18 @@
       <c r="E332" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="G332" s="3"/>
-      <c r="H332" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I332" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J332" s="3"/>
+      <c r="G332" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="333" spans="1:10">
       <c r="A333" s="1">
@@ -13594,14 +15340,16 @@
       <c r="E333" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="G333" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H333" s="3"/>
-      <c r="I333" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J333" s="2" t="s">
+      <c r="G333" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J333" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13621,12 +15369,18 @@
       <c r="E334" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="G334" s="3"/>
-      <c r="H334" s="3"/>
-      <c r="I334" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J334" s="3"/>
+      <c r="G334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="335" spans="1:10">
       <c r="A335" s="1">
@@ -13644,12 +15398,18 @@
       <c r="E335" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="G335" s="3"/>
-      <c r="H335" s="3"/>
-      <c r="I335" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J335" s="3"/>
+      <c r="G335" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="1">
@@ -13667,12 +15427,16 @@
       <c r="E336" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
-      <c r="I336" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J336" s="2" t="s">
+      <c r="G336" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J336" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13692,12 +15456,18 @@
       <c r="E337" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
-      <c r="I337" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J337" s="3"/>
+      <c r="G337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="1">
@@ -13715,12 +15485,16 @@
       <c r="E338" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="G338" s="3"/>
-      <c r="H338" s="3"/>
-      <c r="I338" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J338" s="2" t="s">
+      <c r="G338" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J338" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13740,12 +15514,18 @@
       <c r="E339" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
-      <c r="I339" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J339" s="3"/>
+      <c r="G339" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I339" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J339" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="340" spans="1:10">
       <c r="A340" s="1">
@@ -13763,14 +15543,16 @@
       <c r="E340" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="G340" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H340" s="3"/>
-      <c r="I340" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J340" s="2" t="s">
+      <c r="G340" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H340" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I340" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J340" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13790,12 +15572,18 @@
       <c r="E341" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
-      <c r="I341" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J341" s="3"/>
+      <c r="G341" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H341" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I341" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J341" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="342" spans="1:10">
       <c r="A342" s="1">
@@ -13813,12 +15601,18 @@
       <c r="E342" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
-      <c r="I342" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J342" s="3"/>
+      <c r="G342" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I342" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J342" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="343" spans="1:10">
       <c r="A343" s="1">
@@ -13836,12 +15630,18 @@
       <c r="E343" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
-      <c r="I343" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J343" s="3"/>
+      <c r="G343" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I343" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J343" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="344" spans="1:10">
       <c r="A344" s="1">
@@ -13859,12 +15659,18 @@
       <c r="E344" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="G344" s="3"/>
-      <c r="H344" s="3"/>
-      <c r="I344" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J344" s="3"/>
+      <c r="G344" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I344" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J344" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="345" spans="1:10">
       <c r="A345" s="1">
@@ -13882,12 +15688,18 @@
       <c r="E345" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="G345" s="3"/>
-      <c r="H345" s="3"/>
-      <c r="I345" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J345" s="3"/>
+      <c r="G345" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I345" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J345" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="346" spans="1:10">
       <c r="A346" s="1">
@@ -13905,15 +15717,17 @@
       <c r="E346" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="G346" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H346" s="3"/>
-      <c r="I346" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J346" s="2" t="s">
-        <v>19</v>
+      <c r="G346" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I346" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J346" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:10">
@@ -13932,14 +15746,16 @@
       <c r="E347" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="G347" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H347" s="3"/>
-      <c r="I347" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J347" s="2" t="s">
+      <c r="G347" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I347" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J347" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -13959,12 +15775,18 @@
       <c r="E348" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
-      <c r="I348" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J348" s="3"/>
+      <c r="G348" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I348" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J348" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="349" spans="1:10">
       <c r="A349" s="1">
@@ -13982,16 +15804,18 @@
       <c r="E349" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="G349" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H349" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I349" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J349" s="3"/>
+      <c r="G349" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I349" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J349" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="350" spans="1:10">
       <c r="A350" s="1">
@@ -14009,12 +15833,18 @@
       <c r="E350" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
-      <c r="I350" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J350" s="3"/>
+      <c r="G350" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I350" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J350" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="351" spans="1:10">
       <c r="A351" s="1">
@@ -14032,14 +15862,18 @@
       <c r="E351" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="G351" s="3"/>
-      <c r="H351" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J351" s="3"/>
+      <c r="G351" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I351" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J351" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="352" spans="1:10">
       <c r="A352" s="1">
@@ -14057,14 +15891,18 @@
       <c r="E352" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="G352" s="3"/>
-      <c r="H352" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I352" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J352" s="3"/>
+      <c r="G352" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I352" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J352" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="353" spans="1:10">
       <c r="A353" s="1">
@@ -14082,14 +15920,16 @@
       <c r="E353" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="G353" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H353" s="3"/>
-      <c r="I353" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J353" s="2" t="s">
+      <c r="G353" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I353" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J353" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14109,12 +15949,18 @@
       <c r="E354" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
-      <c r="I354" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J354" s="3"/>
+      <c r="G354" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I354" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J354" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="355" spans="1:10">
       <c r="A355" s="1">
@@ -14132,14 +15978,16 @@
       <c r="E355" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="G355" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H355" s="3"/>
-      <c r="I355" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J355" s="2" t="s">
+      <c r="G355" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I355" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J355" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -14159,12 +16007,18 @@
       <c r="E356" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
-      <c r="I356" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J356" s="3"/>
+      <c r="G356" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I356" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J356" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="357" spans="1:10">
       <c r="A357" s="1">
@@ -14182,14 +16036,18 @@
       <c r="E357" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="G357" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H357" s="3"/>
-      <c r="I357" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J357" s="3"/>
+      <c r="G357" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J357" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14590,41 +16448,31 @@
       </c>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>1017</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>1376</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>1377</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1379</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>1309</v>
-      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" ht="15.75">
       <c r="A20">
         <v>1018</v>
       </c>
       <c r="B20" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="5" t="s">
@@ -14637,16 +16485,16 @@
         <v>1019</v>
       </c>
       <c r="B21" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>1383</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>1384</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1385</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>1386</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>1356</v>
@@ -14658,16 +16506,16 @@
         <v>1020</v>
       </c>
       <c r="B22" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>1387</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>1388</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1389</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>1390</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>1327</v>
@@ -14679,17 +16527,17 @@
         <v>1021</v>
       </c>
       <c r="B23" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="5" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -14698,13 +16546,13 @@
         <v>1022</v>
       </c>
       <c r="B24" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="5" t="s">
@@ -14720,13 +16568,13 @@
         <v>9</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>1313</v>
@@ -14740,16 +16588,16 @@
         <v>1024</v>
       </c>
       <c r="B26" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>1401</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>1403</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>1404</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>1356</v>
@@ -14761,13 +16609,13 @@
         <v>1025</v>
       </c>
       <c r="B27" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="5" t="s">
@@ -14780,16 +16628,16 @@
         <v>1026</v>
       </c>
       <c r="B28" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>1408</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>1411</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>1327</v>
@@ -14801,17 +16649,17 @@
         <v>1027</v>
       </c>
       <c r="B29" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="5" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="G29" s="3"/>
     </row>
@@ -14820,19 +16668,19 @@
         <v>1028</v>
       </c>
       <c r="B30" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="F30" s="5" t="s">
         <v>1417</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>1420</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -14841,17 +16689,17 @@
         <v>1029</v>
       </c>
       <c r="B31" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="5" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -14860,16 +16708,16 @@
         <v>1030</v>
       </c>
       <c r="B32" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>1425</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>1427</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>1428</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>1356</v>
@@ -14881,19 +16729,19 @@
         <v>1031</v>
       </c>
       <c r="B33" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>1429</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>1430</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>1431</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>1432</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>1433</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -14902,17 +16750,17 @@
         <v>1032</v>
       </c>
       <c r="B34" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="2" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -14921,17 +16769,17 @@
         <v>1033</v>
       </c>
       <c r="B35" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -14940,17 +16788,17 @@
         <v>1034</v>
       </c>
       <c r="B36" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G36" s="3"/>
     </row>
@@ -14959,19 +16807,19 @@
         <v>1035</v>
       </c>
       <c r="B37" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>1445</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="F37" s="5" t="s">
         <v>1446</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>1448</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>1449</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -14980,19 +16828,19 @@
         <v>1036</v>
       </c>
       <c r="B38" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="F38" s="5" t="s">
         <v>1451</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>1452</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>1453</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>1454</v>
       </c>
       <c r="G38" s="3"/>
     </row>
@@ -15001,17 +16849,17 @@
         <v>1037</v>
       </c>
       <c r="B39" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="G39" s="3"/>
     </row>
@@ -15042,55 +16890,55 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="1504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="1503">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1054,9 +1054,6 @@
     <t xml:space="preserve">Nurogęś</t>
   </si>
   <si>
-    <t xml:space="preserve">rzuć wszystkimi kośćmi znajdującymi się poza karmnikiem. Jeśli choć 1 kość wskaże [fish], weź 1 [fish] i przechowaj na tej karcie.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Common Moorhen</t>
   </si>
   <si>
@@ -3064,7 +3061,7 @@
     <t xml:space="preserve">Sokół Brunatny</t>
   </si>
   <si>
-    <t xml:space="preserve">Podejrzyj ze stosu. Jeśli w koszcie tej karty znajduje się [invertebrate] albo [rodent], wsuń ją pod tę kartę. Jeśli nie spełnia warunku, odrzuć.</t>
+    <t xml:space="preserve">Podejrzyj [card] ze stosu. Jeśli w koszcie tej karty znajduje się [invertebrate] albo [rodent], wsuń ją pod tę kartę. Jeśli nie spełnia warunku, odrzuć.</t>
   </si>
   <si>
     <t xml:space="preserve">Budgerigar</t>
@@ -3220,7 +3217,7 @@
     <t xml:space="preserve">Srokacz Szary</t>
   </si>
   <si>
-    <t xml:space="preserve">Podejrzyj [card] ze stosu. Jeśli &lt;40 cm, wsuń ją pod tę kartę, weź 1 [rodent] z zasobów i przechowaj na tej karcie. Jeśli nie spełnia warunku, odrzuć</t>
+    <t xml:space="preserve">Podejrzyj [card] ze stosu. Jeśli &lt;40 cm, wsuń ją pod tę kartę, weź 1 [rodent] z zasobów i przechowaj na tej karcie. Jeśli nie spełnia warunku, odrzuć.</t>
   </si>
   <si>
     <t xml:space="preserve">Grey Shrikethrush</t>
@@ -4883,8 +4880,8 @@
   </sheetPr>
   <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A201" activeCellId="0" sqref="A201:A357"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A258" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E292" activeCellId="0" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7059,7 +7056,7 @@
         <v>341</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>43</v>
@@ -7076,16 +7073,16 @@
         <v>88</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="E88" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -7099,13 +7096,13 @@
         <v>89</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>126</v>
@@ -7125,13 +7122,13 @@
         <v>90</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>196</v>
@@ -7150,13 +7147,13 @@
         <v>91</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>285</v>
@@ -7176,16 +7173,16 @@
         <v>92</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D92" s="4" t="s">
+      <c r="E92" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
@@ -7199,16 +7196,16 @@
         <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D93" s="4" t="s">
+      <c r="E93" s="4" t="s">
         <v>362</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>363</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -7222,16 +7219,16 @@
         <v>94</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>139</v>
@@ -7250,13 +7247,13 @@
         <v>95</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>109</v>
@@ -7278,16 +7275,16 @@
         <v>96</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>373</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>374</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="4" t="s">
@@ -7303,16 +7300,16 @@
         <v>97</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="E97" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>56</v>
@@ -7325,13 +7322,13 @@
         <v>98</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>381</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>212</v>
@@ -7352,13 +7349,13 @@
         <v>99</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>384</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>60</v>
@@ -7374,19 +7371,19 @@
         <v>100</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="F100" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -7396,16 +7393,16 @@
         <v>101</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>393</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
@@ -7419,19 +7416,19 @@
         <v>102</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>397</v>
-      </c>
       <c r="F102" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>20</v>
@@ -7447,13 +7444,13 @@
         <v>103</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>400</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>204</v>
@@ -7470,16 +7467,16 @@
         <v>104</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="E104" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>122</v>
@@ -7498,16 +7495,16 @@
         <v>105</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="E105" s="4" t="s">
         <v>407</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>408</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -7521,13 +7518,13 @@
         <v>106</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>411</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>42</v>
@@ -7543,16 +7540,16 @@
         <v>107</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -7566,16 +7563,16 @@
         <v>108</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>418</v>
-      </c>
       <c r="E108" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -7589,16 +7586,16 @@
         <v>109</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>421</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>422</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -7612,13 +7609,13 @@
         <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="4" t="s">
         <v>424</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>425</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>278</v>
@@ -7637,13 +7634,13 @@
         <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="4" t="s">
         <v>427</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>428</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>309</v>
@@ -7660,16 +7657,16 @@
         <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="E112" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>432</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
@@ -7683,16 +7680,16 @@
         <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>435</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>436</v>
       </c>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -7706,16 +7703,16 @@
         <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="D114" s="4" t="s">
+      <c r="E114" s="4" t="s">
         <v>439</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
@@ -7729,13 +7726,13 @@
         <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>301</v>
@@ -7752,16 +7749,16 @@
         <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
@@ -7775,16 +7772,16 @@
         <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="E117" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>451</v>
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
@@ -7798,16 +7795,16 @@
         <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="E118" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
@@ -7821,16 +7818,16 @@
         <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" s="4" t="s">
         <v>457</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="E119" s="4" t="s">
         <v>458</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
@@ -7844,16 +7841,16 @@
         <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>462</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>463</v>
       </c>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
@@ -7867,16 +7864,16 @@
         <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C121" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="4" t="s">
         <v>465</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>466</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>467</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
@@ -7890,16 +7887,16 @@
         <v>122</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>470</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
@@ -7913,16 +7910,16 @@
         <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>474</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -7936,13 +7933,13 @@
         <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" s="4" t="s">
         <v>477</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>478</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>42</v>
@@ -7958,13 +7955,13 @@
         <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C125" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" s="4" t="s">
         <v>480</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>481</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>33</v>
@@ -7980,13 +7977,13 @@
         <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>138</v>
@@ -8008,19 +8005,19 @@
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C127" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="E127" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="F127" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
@@ -8034,16 +8031,16 @@
         <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>492</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>493</v>
       </c>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
@@ -8057,16 +8054,16 @@
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>496</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>497</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>110</v>
@@ -8083,13 +8080,13 @@
         <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>91</v>
@@ -8102,19 +8099,19 @@
         <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="E131" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="F131" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
@@ -8124,19 +8121,19 @@
         <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="D132" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="E132" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>509</v>
-      </c>
       <c r="F132" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
@@ -8150,16 +8147,16 @@
         <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="D133" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="D133" s="4" t="s">
+      <c r="E133" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>513</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>20</v>
@@ -8175,16 +8172,16 @@
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D134" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="D134" s="4" t="s">
+      <c r="E134" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>20</v>
@@ -8200,19 +8197,19 @@
         <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="D135" s="4" t="s">
-        <v>520</v>
-      </c>
       <c r="E135" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
@@ -8228,16 +8225,16 @@
         <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="D136" s="4" t="s">
-        <v>523</v>
-      </c>
       <c r="E136" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>110</v>
@@ -8256,16 +8253,16 @@
         <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="E137" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
@@ -8279,16 +8276,16 @@
         <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="E138" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
@@ -8304,13 +8301,13 @@
         <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>82</v>
@@ -8330,16 +8327,16 @@
         <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="E140" s="4" t="s">
         <v>537</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>538</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>110</v>
@@ -8356,16 +8353,16 @@
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C141" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="D141" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="E141" s="4" t="s">
         <v>541</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>542</v>
       </c>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
@@ -8379,16 +8376,16 @@
         <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="D142" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="E142" s="4" t="s">
         <v>545</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>546</v>
       </c>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
@@ -8404,13 +8401,13 @@
         <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="D143" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>278</v>
@@ -8427,13 +8424,13 @@
         <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="D144" s="4" t="s">
         <v>551</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>552</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>261</v>
@@ -8452,16 +8449,16 @@
         <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="D145" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="E145" s="4" t="s">
         <v>555</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>20</v>
@@ -8477,19 +8474,19 @@
         <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="D146" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="D146" s="4" t="s">
+      <c r="E146" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="E146" s="4" t="s">
+      <c r="F146" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>561</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
@@ -8499,16 +8496,16 @@
         <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="D147" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="E147" s="4" t="s">
         <v>564</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>565</v>
       </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
@@ -8524,19 +8521,19 @@
         <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="D148" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D148" s="4" t="s">
+      <c r="E148" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>569</v>
-      </c>
       <c r="F148" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
@@ -8546,13 +8543,13 @@
         <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="D149" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>572</v>
       </c>
       <c r="E149" s="5"/>
       <c r="G149" s="4" t="s">
@@ -8569,16 +8566,16 @@
         <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C150" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="D150" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="E150" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>576</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
@@ -8592,13 +8589,13 @@
         <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="D151" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>29</v>
@@ -8614,16 +8611,16 @@
         <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="D152" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="D152" s="4" t="s">
+      <c r="E152" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
@@ -8637,19 +8634,19 @@
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="D153" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D153" s="4" t="s">
+      <c r="E153" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>587</v>
-      </c>
       <c r="F153" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
@@ -8663,16 +8660,16 @@
         <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C154" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="D154" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="D154" s="4" t="s">
+      <c r="E154" s="4" t="s">
         <v>590</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>591</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>78</v>
@@ -8689,16 +8686,16 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="D155" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="D155" s="4" t="s">
+      <c r="E155" s="4" t="s">
         <v>594</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>595</v>
       </c>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
@@ -8712,13 +8709,13 @@
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="D156" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>254</v>
@@ -8738,19 +8735,19 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="D157" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="D157" s="4" t="s">
-        <v>601</v>
-      </c>
       <c r="E157" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
@@ -8764,13 +8761,13 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="D158" s="4" t="s">
         <v>603</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>604</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>82</v>
@@ -8786,19 +8783,19 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="D159" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="E159" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="F159" s="1" t="s">
         <v>608</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>609</v>
       </c>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
@@ -8812,13 +8809,13 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="D160" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>612</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>131</v>
@@ -8835,13 +8832,13 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="4" t="s">
         <v>614</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>615</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>126</v>
@@ -8861,16 +8858,16 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="D162" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="D162" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>618</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>619</v>
       </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
@@ -8884,16 +8881,16 @@
         <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="D163" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="E163" s="4" t="s">
         <v>622</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>623</v>
       </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
@@ -8907,16 +8904,16 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="D164" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="D164" s="4" t="s">
+      <c r="E164" s="4" t="s">
         <v>626</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>627</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>14</v>
@@ -8933,13 +8930,13 @@
         <v>165</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="D165" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>630</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>305</v>
@@ -8956,16 +8953,16 @@
         <v>166</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="D166" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="D166" s="4" t="s">
+      <c r="E166" s="4" t="s">
         <v>633</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>634</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>171</v>
@@ -8982,13 +8979,13 @@
         <v>167</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="D167" s="4" t="s">
         <v>636</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>637</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>42</v>
@@ -9010,16 +9007,16 @@
         <v>168</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="D168" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="D168" s="4" t="s">
+      <c r="E168" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>641</v>
       </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
@@ -9033,13 +9030,13 @@
         <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="D169" s="4" t="s">
         <v>643</v>
-      </c>
-      <c r="D169" s="4" t="s">
-        <v>644</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>309</v>
@@ -9056,19 +9053,19 @@
         <v>170</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="D170" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="D170" s="4" t="s">
-        <v>647</v>
-      </c>
       <c r="E170" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
@@ -9082,13 +9079,13 @@
         <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="D171" s="4" t="s">
         <v>649</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>650</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>254</v>
@@ -9104,13 +9101,13 @@
         <v>172</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="D172" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>243</v>
@@ -9127,16 +9124,16 @@
         <v>173</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="D173" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="D173" s="4" t="s">
+      <c r="E173" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>657</v>
       </c>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
@@ -9150,13 +9147,13 @@
         <v>174</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="D174" s="4" t="s">
         <v>659</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>660</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>243</v>
@@ -9173,16 +9170,16 @@
         <v>175</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="D175" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="D175" s="4" t="s">
+      <c r="E175" s="4" t="s">
         <v>663</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>664</v>
       </c>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
@@ -9196,13 +9193,13 @@
         <v>176</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="D176" s="4" t="s">
         <v>666</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>667</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>148</v>
@@ -9221,16 +9218,16 @@
         <v>177</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="D177" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="D177" s="4" t="s">
+      <c r="E177" s="4" t="s">
         <v>670</v>
-      </c>
-      <c r="E177" s="4" t="s">
-        <v>671</v>
       </c>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
@@ -9244,13 +9241,13 @@
         <v>178</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="D178" s="4" t="s">
         <v>673</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>674</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>204</v>
@@ -9267,13 +9264,13 @@
         <v>179</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="D179" s="4" t="s">
         <v>676</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>677</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>109</v>
@@ -9293,19 +9290,19 @@
         <v>180</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="D180" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="D180" s="4" t="s">
-        <v>680</v>
-      </c>
       <c r="E180" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>505</v>
       </c>
       <c r="G180" s="5"/>
       <c r="H180" s="4" t="s">
@@ -9319,19 +9316,19 @@
         <v>181</v>
       </c>
       <c r="B181" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C181" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="D181" s="4" t="s">
         <v>682</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>683</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>250</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>20</v>
@@ -9347,16 +9344,16 @@
         <v>182</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>685</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="D182" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="D182" s="4" t="s">
+      <c r="E182" s="4" t="s">
         <v>687</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>688</v>
       </c>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
@@ -9370,13 +9367,13 @@
         <v>183</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="D183" s="4" t="s">
         <v>690</v>
-      </c>
-      <c r="D183" s="4" t="s">
-        <v>691</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>82</v>
@@ -9392,13 +9389,13 @@
         <v>184</v>
       </c>
       <c r="B184" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C184" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="D184" s="4" t="s">
         <v>693</v>
-      </c>
-      <c r="D184" s="4" t="s">
-        <v>694</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>189</v>
@@ -9417,16 +9414,16 @@
         <v>185</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>695</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D185" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="D185" s="4" t="s">
+      <c r="E185" s="4" t="s">
         <v>697</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>698</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>20</v>
@@ -9442,16 +9439,16 @@
         <v>186</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="D186" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="D186" s="4" t="s">
-        <v>701</v>
-      </c>
       <c r="E186" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>110</v>
@@ -9468,16 +9465,16 @@
         <v>187</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="D187" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="D187" s="4" t="s">
-        <v>704</v>
-      </c>
       <c r="E187" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>139</v>
@@ -9496,19 +9493,19 @@
         <v>188</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="D188" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="D188" s="4" t="s">
+      <c r="E188" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>708</v>
-      </c>
       <c r="F188" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>20</v>
@@ -9522,16 +9519,16 @@
         <v>189</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="D189" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="D189" s="4" t="s">
-        <v>711</v>
-      </c>
       <c r="E189" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>56</v>
@@ -9544,13 +9541,13 @@
         <v>190</v>
       </c>
       <c r="B190" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D190" s="4" t="s">
         <v>713</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>714</v>
       </c>
       <c r="E190" s="5"/>
       <c r="G190" s="5"/>
@@ -9561,19 +9558,19 @@
         <v>191</v>
       </c>
       <c r="B191" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C191" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="D191" s="4" t="s">
         <v>716</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>717</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>250</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G191" s="5"/>
       <c r="H191" s="4" t="s">
@@ -9589,13 +9586,13 @@
         <v>192</v>
       </c>
       <c r="B192" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C192" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="D192" s="4" t="s">
         <v>719</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>720</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>29</v>
@@ -9617,16 +9614,16 @@
         <v>193</v>
       </c>
       <c r="B193" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C193" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="D193" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D193" s="4" t="s">
+      <c r="E193" s="4" t="s">
         <v>723</v>
-      </c>
-      <c r="E193" s="4" t="s">
-        <v>724</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>56</v>
@@ -9639,16 +9636,16 @@
         <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="D194" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="E194" s="4" t="s">
         <v>727</v>
-      </c>
-      <c r="E194" s="4" t="s">
-        <v>728</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>20</v>
@@ -9664,13 +9661,13 @@
         <v>195</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="D195" s="4" t="s">
         <v>730</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>731</v>
       </c>
       <c r="E195" s="4" t="s">
         <v>309</v>
@@ -9689,13 +9686,13 @@
         <v>196</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="D196" s="4" t="s">
         <v>733</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>734</v>
       </c>
       <c r="E196" s="4" t="s">
         <v>175</v>
@@ -9714,16 +9711,16 @@
         <v>197</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D197" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="D197" s="4" t="s">
+      <c r="E197" s="4" t="s">
         <v>737</v>
-      </c>
-      <c r="E197" s="4" t="s">
-        <v>738</v>
       </c>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
@@ -9737,13 +9734,13 @@
         <v>198</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="D198" s="4" t="s">
         <v>740</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>741</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>13</v>
@@ -9765,16 +9762,16 @@
         <v>199</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="D199" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="D199" s="4" t="s">
-        <v>744</v>
-      </c>
       <c r="E199" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
@@ -9788,13 +9785,13 @@
         <v>200</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="D200" s="4" t="s">
         <v>746</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>747</v>
       </c>
       <c r="E200" s="4" t="s">
         <v>254</v>
@@ -9816,13 +9813,13 @@
         <v>201</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="4" t="s">
         <v>749</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>750</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>82</v>
@@ -9838,19 +9835,19 @@
         <v>202</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="C202" s="1" t="s">
+      <c r="D202" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="D202" s="4" t="s">
-        <v>753</v>
-      </c>
       <c r="E202" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>20</v>
@@ -9868,13 +9865,13 @@
         <v>203</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C203" s="1" t="s">
+      <c r="D203" s="4" t="s">
         <v>755</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>756</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>13</v>
@@ -9896,16 +9893,16 @@
         <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D204" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="D204" s="4" t="s">
+      <c r="E204" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>760</v>
       </c>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
@@ -9921,13 +9918,13 @@
         <v>205</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="C205" s="1" t="s">
+      <c r="D205" s="4" t="s">
         <v>762</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>763</v>
       </c>
       <c r="E205" s="4" t="s">
         <v>109</v>
@@ -9949,13 +9946,13 @@
         <v>206</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D206" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>766</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>109</v>
@@ -9977,13 +9974,13 @@
         <v>207</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="D207" s="4" t="s">
         <v>768</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>769</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>212</v>
@@ -10005,13 +10002,13 @@
         <v>208</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D208" s="4" t="s">
         <v>771</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>772</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>29</v>
@@ -10031,16 +10028,16 @@
         <v>209</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="D209" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="D209" s="4" t="s">
+      <c r="E209" s="4" t="s">
         <v>775</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>776</v>
       </c>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
@@ -10050,13 +10047,13 @@
         <v>210</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="D210" s="4" t="s">
         <v>778</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>779</v>
       </c>
       <c r="E210" s="4" t="s">
         <v>82</v>
@@ -10078,19 +10075,19 @@
         <v>211</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="D211" s="4" t="s">
         <v>781</v>
       </c>
-      <c r="D211" s="4" t="s">
-        <v>782</v>
-      </c>
       <c r="E211" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F211" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
@@ -10100,13 +10097,13 @@
         <v>212</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="D212" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>785</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>72</v>
@@ -10128,16 +10125,16 @@
         <v>213</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="D213" s="4" t="s">
         <v>787</v>
       </c>
-      <c r="D213" s="4" t="s">
-        <v>788</v>
-      </c>
       <c r="E213" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>139</v>
@@ -10156,16 +10153,16 @@
         <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="D214" s="4" t="s">
         <v>790</v>
       </c>
-      <c r="D214" s="4" t="s">
+      <c r="E214" s="4" t="s">
         <v>791</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>792</v>
       </c>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
@@ -10179,13 +10176,13 @@
         <v>215</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="D215" s="4" t="s">
         <v>794</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>795</v>
       </c>
       <c r="E215" s="4" t="s">
         <v>152</v>
@@ -10205,19 +10202,19 @@
         <v>216</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="D216" s="4" t="s">
         <v>797</v>
       </c>
-      <c r="D216" s="4" t="s">
-        <v>798</v>
-      </c>
       <c r="E216" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>20</v>
@@ -10233,16 +10230,16 @@
         <v>217</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="D217" s="4" t="s">
         <v>800</v>
       </c>
-      <c r="D217" s="4" t="s">
+      <c r="E217" s="4" t="s">
         <v>801</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>802</v>
       </c>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
@@ -10256,16 +10253,16 @@
         <v>218</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="D218" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="D218" s="4" t="s">
+      <c r="E218" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>806</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>78</v>
@@ -10278,16 +10275,16 @@
         <v>219</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="D219" s="4" t="s">
         <v>808</v>
       </c>
-      <c r="D219" s="4" t="s">
+      <c r="E219" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>810</v>
       </c>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
@@ -10297,16 +10294,16 @@
         <v>220</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="C220" s="1" t="s">
+      <c r="D220" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="D220" s="4" t="s">
-        <v>813</v>
-      </c>
       <c r="E220" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
@@ -10320,16 +10317,16 @@
         <v>221</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C221" s="1" t="s">
+      <c r="D221" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="D221" s="4" t="s">
+      <c r="E221" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>817</v>
       </c>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
@@ -10343,16 +10340,16 @@
         <v>222</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="4" t="s">
         <v>819</v>
       </c>
-      <c r="D222" s="4" t="s">
+      <c r="E222" s="4" t="s">
         <v>820</v>
-      </c>
-      <c r="E222" s="4" t="s">
-        <v>821</v>
       </c>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
@@ -10366,13 +10363,13 @@
         <v>223</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="D223" s="4" t="s">
         <v>823</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>824</v>
       </c>
       <c r="E223" s="4" t="s">
         <v>68</v>
@@ -10392,16 +10389,16 @@
         <v>224</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="D224" s="4" t="s">
         <v>826</v>
       </c>
-      <c r="D224" s="4" t="s">
-        <v>827</v>
-      </c>
       <c r="E224" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
@@ -10415,13 +10412,13 @@
         <v>225</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="D225" s="4" t="s">
         <v>829</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>830</v>
       </c>
       <c r="E225" s="4" t="s">
         <v>126</v>
@@ -10443,13 +10440,13 @@
         <v>226</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="4" t="s">
         <v>832</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>833</v>
       </c>
       <c r="E226" s="4" t="s">
         <v>82</v>
@@ -10465,19 +10462,19 @@
         <v>227</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="D227" s="4" t="s">
         <v>835</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>836</v>
       </c>
       <c r="E227" s="4" t="s">
         <v>250</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
@@ -10491,16 +10488,16 @@
         <v>228</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="D228" s="4" t="s">
         <v>838</v>
       </c>
-      <c r="D228" s="4" t="s">
+      <c r="E228" s="4" t="s">
         <v>839</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>840</v>
       </c>
       <c r="G228" s="4" t="s">
         <v>20</v>
@@ -10518,13 +10515,13 @@
         <v>229</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="D229" s="4" t="s">
         <v>842</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>843</v>
       </c>
       <c r="E229" s="4" t="s">
         <v>82</v>
@@ -10540,16 +10537,16 @@
         <v>230</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="4" t="s">
         <v>845</v>
       </c>
-      <c r="D230" s="4" t="s">
+      <c r="E230" s="4" t="s">
         <v>846</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>847</v>
       </c>
       <c r="G230" s="4" t="s">
         <v>20</v>
@@ -10567,13 +10564,13 @@
         <v>231</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="C231" s="1" t="s">
+      <c r="D231" s="4" t="s">
         <v>849</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>850</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>13</v>
@@ -10595,13 +10592,13 @@
         <v>232</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C232" s="1" t="s">
+      <c r="D232" s="4" t="s">
         <v>852</v>
-      </c>
-      <c r="D232" s="4" t="s">
-        <v>853</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>109</v>
@@ -10621,16 +10618,16 @@
         <v>233</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="C233" s="1" t="s">
+      <c r="D233" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="D233" s="4" t="s">
+      <c r="E233" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>857</v>
       </c>
       <c r="G233" s="5"/>
       <c r="H233" s="4" t="s">
@@ -10646,13 +10643,13 @@
         <v>234</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="C234" s="1" t="s">
+      <c r="D234" s="4" t="s">
         <v>859</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>860</v>
       </c>
       <c r="E234" s="4" t="s">
         <v>29</v>
@@ -10668,13 +10665,13 @@
         <v>235</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>863</v>
       </c>
       <c r="E235" s="5"/>
       <c r="G235" s="5"/>
@@ -10685,19 +10682,19 @@
         <v>236</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="C236" s="1" t="s">
+      <c r="D236" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="D236" s="4" t="s">
-        <v>866</v>
-      </c>
       <c r="E236" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>389</v>
       </c>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
@@ -10707,13 +10704,13 @@
         <v>237</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="D237" s="4" t="s">
         <v>868</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>869</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>143</v>
@@ -10737,16 +10734,16 @@
         <v>238</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="D238" s="4" t="s">
+      <c r="E238" s="4" t="s">
         <v>872</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>873</v>
       </c>
       <c r="G238" s="4" t="s">
         <v>20</v>
@@ -10762,13 +10759,13 @@
         <v>239</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="C239" s="1" t="s">
+      <c r="D239" s="4" t="s">
         <v>875</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>876</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>29</v>
@@ -10790,19 +10787,19 @@
         <v>240</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="C240" s="1" t="s">
+      <c r="D240" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="D240" s="4" t="s">
+      <c r="E240" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="E240" s="4" t="s">
-        <v>880</v>
-      </c>
       <c r="F240" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G240" s="4" t="s">
         <v>20</v>
@@ -10818,16 +10815,16 @@
         <v>241</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D241" s="4" t="s">
         <v>882</v>
       </c>
-      <c r="D241" s="4" t="s">
-        <v>883</v>
-      </c>
       <c r="E241" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G241" s="4" t="s">
         <v>20</v>
@@ -10843,13 +10840,13 @@
         <v>242</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>886</v>
       </c>
       <c r="E242" s="4" t="s">
         <v>179</v>
@@ -10868,16 +10865,16 @@
         <v>243</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="C243" s="1" t="s">
+      <c r="D243" s="4" t="s">
         <v>888</v>
       </c>
-      <c r="D243" s="4" t="s">
-        <v>889</v>
-      </c>
       <c r="E243" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G243" s="5"/>
       <c r="H243" s="5"/>
@@ -10893,16 +10890,16 @@
         <v>244</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="D244" s="4" t="s">
         <v>891</v>
       </c>
-      <c r="D244" s="4" t="s">
+      <c r="E244" s="4" t="s">
         <v>892</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>893</v>
       </c>
       <c r="G244" s="4" t="s">
         <v>20</v>
@@ -10920,13 +10917,13 @@
         <v>245</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="D245" s="4" t="s">
         <v>895</v>
-      </c>
-      <c r="D245" s="4" t="s">
-        <v>896</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>254</v>
@@ -10946,13 +10943,13 @@
         <v>246</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="D246" s="4" t="s">
         <v>898</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>899</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>126</v>
@@ -10974,13 +10971,13 @@
         <v>247</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="4" t="s">
         <v>901</v>
-      </c>
-      <c r="D247" s="4" t="s">
-        <v>902</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>68</v>
@@ -11002,13 +10999,13 @@
         <v>248</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C248" s="1" t="s">
+      <c r="D248" s="4" t="s">
         <v>904</v>
-      </c>
-      <c r="D248" s="4" t="s">
-        <v>905</v>
       </c>
       <c r="E248" s="4" t="s">
         <v>179</v>
@@ -11025,16 +11022,16 @@
         <v>249</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="D249" s="4" t="s">
+      <c r="E249" s="4" t="s">
         <v>908</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>909</v>
       </c>
       <c r="G249" s="4" t="s">
         <v>20</v>
@@ -11050,13 +11047,13 @@
         <v>250</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="C250" s="1" t="s">
+      <c r="D250" s="4" t="s">
         <v>911</v>
-      </c>
-      <c r="D250" s="4" t="s">
-        <v>912</v>
       </c>
       <c r="E250" s="4" t="s">
         <v>82</v>
@@ -11072,13 +11069,13 @@
         <v>251</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>913</v>
       </c>
-      <c r="C251" s="1" t="s">
+      <c r="D251" s="4" t="s">
         <v>914</v>
-      </c>
-      <c r="D251" s="4" t="s">
-        <v>915</v>
       </c>
       <c r="E251" s="5"/>
       <c r="G251" s="5"/>
@@ -11089,13 +11086,13 @@
         <v>252</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" s="4" t="s">
         <v>917</v>
-      </c>
-      <c r="D252" s="4" t="s">
-        <v>918</v>
       </c>
       <c r="E252" s="4" t="s">
         <v>68</v>
@@ -11115,19 +11112,19 @@
         <v>253</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="4" t="s">
         <v>920</v>
-      </c>
-      <c r="D253" s="4" t="s">
-        <v>921</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>250</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G253" s="5"/>
       <c r="H253" s="4" t="s">
@@ -11143,16 +11140,16 @@
         <v>254</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" s="4" t="s">
         <v>923</v>
       </c>
-      <c r="D254" s="4" t="s">
-        <v>924</v>
-      </c>
       <c r="E254" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G254" s="4" t="s">
         <v>20</v>
@@ -11170,16 +11167,16 @@
         <v>255</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>925</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="D255" s="4" t="s">
         <v>926</v>
       </c>
-      <c r="D255" s="4" t="s">
-        <v>927</v>
-      </c>
       <c r="E255" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>139</v>
@@ -11196,13 +11193,13 @@
         <v>256</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="C256" s="1" t="s">
+      <c r="D256" s="4" t="s">
         <v>929</v>
-      </c>
-      <c r="D256" s="4" t="s">
-        <v>930</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>82</v>
@@ -11224,13 +11221,13 @@
         <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="4" t="s">
         <v>932</v>
-      </c>
-      <c r="D257" s="4" t="s">
-        <v>933</v>
       </c>
       <c r="E257" s="4" t="s">
         <v>189</v>
@@ -11249,13 +11246,13 @@
         <v>258</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="D258" s="4" t="s">
         <v>935</v>
-      </c>
-      <c r="D258" s="4" t="s">
-        <v>936</v>
       </c>
       <c r="E258" s="4" t="s">
         <v>219</v>
@@ -11279,13 +11276,13 @@
         <v>259</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>937</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="D259" s="4" t="s">
         <v>938</v>
-      </c>
-      <c r="D259" s="4" t="s">
-        <v>939</v>
       </c>
       <c r="E259" s="4" t="s">
         <v>126</v>
@@ -11301,13 +11298,13 @@
         <v>260</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="D260" s="4" t="s">
         <v>941</v>
-      </c>
-      <c r="D260" s="4" t="s">
-        <v>942</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>212</v>
@@ -11324,13 +11321,13 @@
         <v>261</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="D261" s="4" t="s">
         <v>944</v>
-      </c>
-      <c r="D261" s="4" t="s">
-        <v>945</v>
       </c>
       <c r="E261" s="4" t="s">
         <v>29</v>
@@ -11346,16 +11343,16 @@
         <v>262</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="D262" s="4" t="s">
-        <v>948</v>
-      </c>
       <c r="E262" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G262" s="5"/>
       <c r="H262" s="5"/>
@@ -11369,16 +11366,16 @@
         <v>263</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="C263" s="3" t="s">
         <v>949</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="D263" s="4" t="s">
         <v>950</v>
       </c>
-      <c r="D263" s="4" t="s">
+      <c r="E263" s="4" t="s">
         <v>951</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>952</v>
       </c>
       <c r="G263" s="4" t="s">
         <v>20</v>
@@ -11396,16 +11393,16 @@
         <v>264</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>953</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="D264" s="4" t="s">
         <v>954</v>
       </c>
-      <c r="D264" s="4" t="s">
+      <c r="E264" s="4" t="s">
         <v>955</v>
-      </c>
-      <c r="E264" s="4" t="s">
-        <v>956</v>
       </c>
       <c r="G264" s="5"/>
       <c r="H264" s="4" t="s">
@@ -11421,16 +11418,16 @@
         <v>265</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="C265" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="D265" s="4" t="s">
         <v>958</v>
       </c>
-      <c r="D265" s="4" t="s">
+      <c r="E265" s="4" t="s">
         <v>959</v>
-      </c>
-      <c r="E265" s="4" t="s">
-        <v>960</v>
       </c>
       <c r="G265" s="4" t="s">
         <v>20</v>
@@ -11448,16 +11445,16 @@
         <v>266</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="C266" s="3" t="s">
         <v>961</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="D266" s="4" t="s">
         <v>962</v>
       </c>
-      <c r="D266" s="4" t="s">
+      <c r="E266" s="4" t="s">
         <v>963</v>
-      </c>
-      <c r="E266" s="4" t="s">
-        <v>964</v>
       </c>
       <c r="G266" s="4" t="s">
         <v>20</v>
@@ -11475,16 +11472,16 @@
         <v>267</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C267" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="D267" s="4" t="s">
         <v>966</v>
       </c>
-      <c r="D267" s="4" t="s">
+      <c r="E267" s="4" t="s">
         <v>967</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>968</v>
       </c>
       <c r="G267" s="5"/>
       <c r="H267" s="5"/>
@@ -11498,16 +11495,16 @@
         <v>268</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>969</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="D268" s="4" t="s">
         <v>970</v>
       </c>
-      <c r="D268" s="4" t="s">
+      <c r="E268" s="4" t="s">
         <v>971</v>
-      </c>
-      <c r="E268" s="4" t="s">
-        <v>972</v>
       </c>
       <c r="G268" s="5"/>
       <c r="H268" s="4" t="s">
@@ -11523,16 +11520,16 @@
         <v>269</v>
       </c>
       <c r="B269" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>973</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="D269" s="4" t="s">
         <v>974</v>
       </c>
-      <c r="D269" s="4" t="s">
+      <c r="E269" s="4" t="s">
         <v>975</v>
-      </c>
-      <c r="E269" s="4" t="s">
-        <v>976</v>
       </c>
       <c r="G269" s="5"/>
       <c r="H269" s="4" t="s">
@@ -11548,16 +11545,16 @@
         <v>270</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>977</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="D270" s="4" t="s">
         <v>978</v>
       </c>
-      <c r="D270" s="4" t="s">
+      <c r="E270" s="4" t="s">
         <v>979</v>
-      </c>
-      <c r="E270" s="4" t="s">
-        <v>980</v>
       </c>
       <c r="G270" s="5"/>
       <c r="H270" s="4" t="s">
@@ -11573,16 +11570,16 @@
         <v>271</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>981</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="D271" s="5" t="s">
         <v>982</v>
       </c>
-      <c r="D271" s="5" t="s">
+      <c r="E271" s="4" t="s">
         <v>983</v>
-      </c>
-      <c r="E271" s="4" t="s">
-        <v>984</v>
       </c>
       <c r="G271" s="5"/>
       <c r="H271" s="5"/>
@@ -11596,16 +11593,16 @@
         <v>272</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="D272" s="4" t="s">
         <v>986</v>
       </c>
-      <c r="D272" s="4" t="s">
+      <c r="E272" s="4" t="s">
         <v>987</v>
-      </c>
-      <c r="E272" s="4" t="s">
-        <v>988</v>
       </c>
       <c r="G272" s="5"/>
       <c r="H272" s="4" t="s">
@@ -11621,16 +11618,16 @@
         <v>273</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>989</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="D273" s="4" t="s">
         <v>990</v>
       </c>
-      <c r="D273" s="4" t="s">
+      <c r="E273" s="4" t="s">
         <v>991</v>
-      </c>
-      <c r="E273" s="4" t="s">
-        <v>992</v>
       </c>
       <c r="G273" s="5"/>
       <c r="H273" s="5"/>
@@ -11644,16 +11641,16 @@
         <v>274</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C274" s="3" t="s">
         <v>993</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="D274" s="4" t="s">
         <v>994</v>
       </c>
-      <c r="D274" s="4" t="s">
+      <c r="E274" s="4" t="s">
         <v>995</v>
-      </c>
-      <c r="E274" s="4" t="s">
-        <v>996</v>
       </c>
       <c r="G274" s="5"/>
       <c r="H274" s="5"/>
@@ -11669,16 +11666,16 @@
         <v>275</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C275" s="3" t="s">
         <v>997</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="D275" s="4" t="s">
         <v>998</v>
       </c>
-      <c r="D275" s="4" t="s">
+      <c r="E275" s="4" t="s">
         <v>999</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>1000</v>
       </c>
       <c r="G275" s="5"/>
       <c r="H275" s="4" t="s">
@@ -11694,16 +11691,16 @@
         <v>276</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C276" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="D276" s="4" t="s">
         <v>1002</v>
       </c>
-      <c r="D276" s="4" t="s">
+      <c r="E276" s="4" t="s">
         <v>1003</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>1004</v>
       </c>
       <c r="G276" s="4" t="s">
         <v>20</v>
@@ -11721,16 +11718,16 @@
         <v>277</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C277" s="3" t="s">
         <v>1005</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="D277" s="4" t="s">
         <v>1006</v>
       </c>
-      <c r="D277" s="4" t="s">
+      <c r="E277" s="4" t="s">
         <v>1007</v>
-      </c>
-      <c r="E277" s="4" t="s">
-        <v>1008</v>
       </c>
       <c r="G277" s="5"/>
       <c r="H277" s="4" t="s">
@@ -11746,16 +11743,16 @@
         <v>278</v>
       </c>
       <c r="B278" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="D278" s="4" t="s">
         <v>1010</v>
       </c>
-      <c r="D278" s="4" t="s">
+      <c r="E278" s="7" t="s">
         <v>1011</v>
-      </c>
-      <c r="E278" s="7" t="s">
-        <v>1012</v>
       </c>
       <c r="G278" s="5"/>
       <c r="H278" s="5"/>
@@ -11771,16 +11768,16 @@
         <v>279</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="D279" s="4" t="s">
         <v>1014</v>
       </c>
-      <c r="D279" s="4" t="s">
+      <c r="E279" s="5" t="s">
         <v>1015</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>1016</v>
       </c>
       <c r="G279" s="5"/>
       <c r="H279" s="5"/>
@@ -11794,16 +11791,16 @@
         <v>280</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C280" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="D280" s="4" t="s">
         <v>1018</v>
       </c>
-      <c r="D280" s="4" t="s">
+      <c r="E280" s="5" t="s">
         <v>1019</v>
-      </c>
-      <c r="E280" s="5" t="s">
-        <v>1020</v>
       </c>
       <c r="G280" s="5"/>
       <c r="H280" s="5"/>
@@ -11817,16 +11814,16 @@
         <v>281</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C281" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="D281" s="4" t="s">
         <v>1022</v>
       </c>
-      <c r="D281" s="4" t="s">
+      <c r="E281" s="4" t="s">
         <v>1023</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>1024</v>
       </c>
       <c r="G281" s="4" t="s">
         <v>20</v>
@@ -11844,16 +11841,16 @@
         <v>282</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="D282" s="4" t="s">
         <v>1026</v>
       </c>
-      <c r="D282" s="4" t="s">
+      <c r="E282" s="4" t="s">
         <v>1027</v>
-      </c>
-      <c r="E282" s="4" t="s">
-        <v>1028</v>
       </c>
       <c r="G282" s="4" t="s">
         <v>20</v>
@@ -11869,16 +11866,16 @@
         <v>283</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="D283" s="4" t="s">
         <v>1030</v>
       </c>
-      <c r="D283" s="4" t="s">
+      <c r="E283" s="4" t="s">
         <v>1031</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>1032</v>
       </c>
       <c r="G283" s="5"/>
       <c r="H283" s="5"/>
@@ -11892,16 +11889,16 @@
         <v>284</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="D284" s="4" t="s">
         <v>1034</v>
       </c>
-      <c r="D284" s="4" t="s">
+      <c r="E284" s="4" t="s">
         <v>1035</v>
-      </c>
-      <c r="E284" s="4" t="s">
-        <v>1036</v>
       </c>
       <c r="G284" s="4" t="s">
         <v>20</v>
@@ -11919,16 +11916,16 @@
         <v>285</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="D285" s="4" t="s">
         <v>1038</v>
       </c>
-      <c r="D285" s="4" t="s">
+      <c r="E285" s="4" t="s">
         <v>1039</v>
-      </c>
-      <c r="E285" s="4" t="s">
-        <v>1040</v>
       </c>
       <c r="G285" s="4" t="s">
         <v>20</v>
@@ -11946,16 +11943,16 @@
         <v>286</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C286" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="D286" s="4" t="s">
         <v>1042</v>
       </c>
-      <c r="D286" s="4" t="s">
+      <c r="E286" s="4" t="s">
         <v>1043</v>
-      </c>
-      <c r="E286" s="4" t="s">
-        <v>1044</v>
       </c>
       <c r="G286" s="5"/>
       <c r="H286" s="5"/>
@@ -11969,16 +11966,16 @@
         <v>287</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C287" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="D287" s="4" t="s">
         <v>1046</v>
       </c>
-      <c r="D287" s="4" t="s">
+      <c r="E287" s="4" t="s">
         <v>1047</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>1048</v>
       </c>
       <c r="G287" s="5"/>
       <c r="H287" s="5"/>
@@ -11994,16 +11991,16 @@
         <v>288</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>1049</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="D288" s="4" t="s">
         <v>1050</v>
       </c>
-      <c r="D288" s="4" t="s">
+      <c r="E288" s="4" t="s">
         <v>1051</v>
-      </c>
-      <c r="E288" s="4" t="s">
-        <v>1052</v>
       </c>
       <c r="G288" s="4" t="s">
         <v>20</v>
@@ -12021,16 +12018,16 @@
         <v>289</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C289" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="D289" s="4" t="s">
         <v>1054</v>
       </c>
-      <c r="D289" s="4" t="s">
+      <c r="E289" s="4" t="s">
         <v>1055</v>
-      </c>
-      <c r="E289" s="4" t="s">
-        <v>1056</v>
       </c>
       <c r="G289" s="5"/>
       <c r="H289" s="5"/>
@@ -12044,16 +12041,16 @@
         <v>290</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="D290" s="4" t="s">
         <v>1058</v>
       </c>
-      <c r="D290" s="4" t="s">
+      <c r="E290" s="4" t="s">
         <v>1059</v>
-      </c>
-      <c r="E290" s="4" t="s">
-        <v>1060</v>
       </c>
       <c r="G290" s="5"/>
       <c r="H290" s="4" t="s">
@@ -12069,16 +12066,16 @@
         <v>291</v>
       </c>
       <c r="B291" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C291" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="D291" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="D291" s="4" t="s">
+      <c r="E291" s="4" t="s">
         <v>1063</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>1064</v>
       </c>
       <c r="G291" s="5"/>
       <c r="H291" s="5"/>
@@ -12094,16 +12091,16 @@
         <v>292</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C292" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="D292" s="4" t="s">
         <v>1066</v>
       </c>
-      <c r="D292" s="4" t="s">
+      <c r="E292" s="4" t="s">
         <v>1067</v>
-      </c>
-      <c r="E292" s="4" t="s">
-        <v>1068</v>
       </c>
       <c r="G292" s="5"/>
       <c r="H292" s="5"/>
@@ -12119,16 +12116,16 @@
         <v>293</v>
       </c>
       <c r="B293" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C293" s="3" t="s">
         <v>1069</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="D293" s="4" t="s">
         <v>1070</v>
       </c>
-      <c r="D293" s="4" t="s">
+      <c r="E293" s="4" t="s">
         <v>1071</v>
-      </c>
-      <c r="E293" s="4" t="s">
-        <v>1072</v>
       </c>
       <c r="G293" s="5"/>
       <c r="H293" s="4" t="s">
@@ -12144,16 +12141,16 @@
         <v>294</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="D294" s="4" t="s">
         <v>1074</v>
       </c>
-      <c r="D294" s="4" t="s">
+      <c r="E294" s="4" t="s">
         <v>1075</v>
-      </c>
-      <c r="E294" s="4" t="s">
-        <v>1076</v>
       </c>
       <c r="G294" s="5"/>
       <c r="H294" s="5"/>
@@ -12169,16 +12166,16 @@
         <v>295</v>
       </c>
       <c r="B295" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C295" s="3" t="s">
         <v>1077</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="D295" s="4" t="s">
         <v>1078</v>
       </c>
-      <c r="D295" s="4" t="s">
-        <v>1079</v>
-      </c>
       <c r="E295" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G295" s="4" t="s">
         <v>20</v>
@@ -12196,16 +12193,16 @@
         <v>296</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C296" s="3" t="s">
         <v>1080</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="D296" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="D296" s="4" t="s">
+      <c r="E296" s="4" t="s">
         <v>1082</v>
-      </c>
-      <c r="E296" s="4" t="s">
-        <v>1083</v>
       </c>
       <c r="G296" s="5"/>
       <c r="H296" s="5"/>
@@ -12221,16 +12218,16 @@
         <v>297</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C297" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="D297" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="D297" s="4" t="s">
-        <v>1086</v>
-      </c>
       <c r="E297" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G297" s="5"/>
       <c r="H297" s="5"/>
@@ -12244,16 +12241,16 @@
         <v>298</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C298" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="D298" s="4" t="s">
         <v>1088</v>
       </c>
-      <c r="D298" s="4" t="s">
+      <c r="E298" s="4" t="s">
         <v>1089</v>
-      </c>
-      <c r="E298" s="4" t="s">
-        <v>1090</v>
       </c>
       <c r="G298" s="5"/>
       <c r="H298" s="5"/>
@@ -12267,16 +12264,16 @@
         <v>299</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C299" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="D299" s="4" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E299" s="4" t="s">
         <v>1092</v>
-      </c>
-      <c r="D299" s="4" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E299" s="4" t="s">
-        <v>1093</v>
       </c>
       <c r="G299" s="5"/>
       <c r="H299" s="5"/>
@@ -12290,16 +12287,16 @@
         <v>300</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C300" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="D300" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="D300" s="4" t="s">
+      <c r="E300" s="4" t="s">
         <v>1096</v>
-      </c>
-      <c r="E300" s="4" t="s">
-        <v>1097</v>
       </c>
       <c r="G300" s="5"/>
       <c r="H300" s="5"/>
@@ -12313,16 +12310,16 @@
         <v>301</v>
       </c>
       <c r="B301" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C301" s="3" t="s">
         <v>1098</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="D301" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="D301" s="4" t="s">
+      <c r="E301" s="4" t="s">
         <v>1100</v>
-      </c>
-      <c r="E301" s="4" t="s">
-        <v>1101</v>
       </c>
       <c r="G301" s="5"/>
       <c r="H301" s="4" t="s">
@@ -12338,16 +12335,16 @@
         <v>302</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C302" s="3" t="s">
         <v>1102</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="D302" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="D302" s="4" t="s">
+      <c r="E302" s="4" t="s">
         <v>1104</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>1105</v>
       </c>
       <c r="G302" s="5"/>
       <c r="H302" s="5"/>
@@ -12361,16 +12358,16 @@
         <v>303</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C303" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="D303" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="D303" s="4" t="s">
+      <c r="E303" s="4" t="s">
         <v>1108</v>
-      </c>
-      <c r="E303" s="4" t="s">
-        <v>1109</v>
       </c>
       <c r="G303" s="5"/>
       <c r="H303" s="5"/>
@@ -12384,16 +12381,16 @@
         <v>304</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>1110</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="D304" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="D304" s="4" t="s">
+      <c r="E304" s="4" t="s">
         <v>1112</v>
-      </c>
-      <c r="E304" s="4" t="s">
-        <v>1113</v>
       </c>
       <c r="G304" s="5"/>
       <c r="H304" s="5"/>
@@ -12407,16 +12404,16 @@
         <v>305</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C305" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="C305" s="3" t="s">
+      <c r="D305" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="D305" s="4" t="s">
+      <c r="E305" s="4" t="s">
         <v>1116</v>
-      </c>
-      <c r="E305" s="4" t="s">
-        <v>1117</v>
       </c>
       <c r="G305" s="5"/>
       <c r="H305" s="5"/>
@@ -12430,16 +12427,16 @@
         <v>306</v>
       </c>
       <c r="B306" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C306" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="C306" s="3" t="s">
+      <c r="D306" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="D306" s="4" t="s">
+      <c r="E306" s="4" t="s">
         <v>1120</v>
-      </c>
-      <c r="E306" s="4" t="s">
-        <v>1121</v>
       </c>
       <c r="G306" s="5"/>
       <c r="H306" s="5"/>
@@ -12453,16 +12450,16 @@
         <v>307</v>
       </c>
       <c r="B307" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C307" s="3" t="s">
         <v>1122</v>
       </c>
-      <c r="C307" s="3" t="s">
+      <c r="D307" s="4" t="s">
         <v>1123</v>
       </c>
-      <c r="D307" s="4" t="s">
+      <c r="E307" s="4" t="s">
         <v>1124</v>
-      </c>
-      <c r="E307" s="4" t="s">
-        <v>1125</v>
       </c>
       <c r="G307" s="4" t="s">
         <v>20</v>
@@ -12480,16 +12477,16 @@
         <v>308</v>
       </c>
       <c r="B308" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C308" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="C308" s="3" t="s">
+      <c r="D308" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="D308" s="4" t="s">
+      <c r="E308" s="4" t="s">
         <v>1128</v>
-      </c>
-      <c r="E308" s="4" t="s">
-        <v>1129</v>
       </c>
       <c r="G308" s="5"/>
       <c r="H308" s="5"/>
@@ -12503,16 +12500,16 @@
         <v>309</v>
       </c>
       <c r="B309" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C309" s="3" t="s">
         <v>1130</v>
       </c>
-      <c r="C309" s="3" t="s">
+      <c r="D309" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="D309" s="4" t="s">
+      <c r="E309" s="4" t="s">
         <v>1132</v>
-      </c>
-      <c r="E309" s="4" t="s">
-        <v>1133</v>
       </c>
       <c r="G309" s="4" t="s">
         <v>20</v>
@@ -12528,16 +12525,16 @@
         <v>310</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C310" s="3" t="s">
         <v>1134</v>
       </c>
-      <c r="C310" s="3" t="s">
+      <c r="D310" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="D310" s="4" t="s">
+      <c r="E310" s="4" t="s">
         <v>1136</v>
-      </c>
-      <c r="E310" s="4" t="s">
-        <v>1137</v>
       </c>
       <c r="G310" s="5"/>
       <c r="H310" s="5"/>
@@ -12551,16 +12548,16 @@
         <v>311</v>
       </c>
       <c r="B311" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C311" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="C311" s="3" t="s">
+      <c r="D311" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="D311" s="4" t="s">
+      <c r="E311" s="4" t="s">
         <v>1140</v>
-      </c>
-      <c r="E311" s="4" t="s">
-        <v>1141</v>
       </c>
       <c r="G311" s="5"/>
       <c r="H311" s="5"/>
@@ -12574,16 +12571,16 @@
         <v>312</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>1142</v>
       </c>
-      <c r="C312" s="3" t="s">
+      <c r="D312" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="D312" s="4" t="s">
+      <c r="E312" s="4" t="s">
         <v>1144</v>
-      </c>
-      <c r="E312" s="4" t="s">
-        <v>1145</v>
       </c>
       <c r="G312" s="5"/>
       <c r="H312" s="5"/>
@@ -12597,16 +12594,16 @@
         <v>313</v>
       </c>
       <c r="B313" s="3" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C313" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="C313" s="3" t="s">
+      <c r="D313" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="D313" s="4" t="s">
+      <c r="E313" s="4" t="s">
         <v>1148</v>
-      </c>
-      <c r="E313" s="4" t="s">
-        <v>1149</v>
       </c>
       <c r="G313" s="4" t="s">
         <v>20</v>
@@ -12622,16 +12619,16 @@
         <v>314</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C314" s="3" t="s">
         <v>1150</v>
       </c>
-      <c r="C314" s="3" t="s">
+      <c r="D314" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="D314" s="4" t="s">
+      <c r="E314" s="4" t="s">
         <v>1152</v>
-      </c>
-      <c r="E314" s="4" t="s">
-        <v>1153</v>
       </c>
       <c r="G314" s="5"/>
       <c r="H314" s="5"/>
@@ -12647,16 +12644,16 @@
         <v>315</v>
       </c>
       <c r="B315" s="3" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C315" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="C315" s="3" t="s">
+      <c r="D315" s="4" t="s">
         <v>1155</v>
       </c>
-      <c r="D315" s="4" t="s">
+      <c r="E315" s="4" t="s">
         <v>1156</v>
-      </c>
-      <c r="E315" s="4" t="s">
-        <v>1157</v>
       </c>
       <c r="G315" s="5"/>
       <c r="H315" s="5"/>
@@ -12670,16 +12667,16 @@
         <v>316</v>
       </c>
       <c r="B316" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>1158</v>
       </c>
-      <c r="C316" s="3" t="s">
+      <c r="D316" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="D316" s="4" t="s">
+      <c r="E316" s="4" t="s">
         <v>1160</v>
-      </c>
-      <c r="E316" s="4" t="s">
-        <v>1161</v>
       </c>
       <c r="G316" s="4" t="s">
         <v>20</v>
@@ -12697,16 +12694,16 @@
         <v>317</v>
       </c>
       <c r="B317" s="3" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C317" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="C317" s="3" t="s">
+      <c r="D317" s="4" t="s">
         <v>1163</v>
       </c>
-      <c r="D317" s="4" t="s">
+      <c r="E317" s="4" t="s">
         <v>1164</v>
-      </c>
-      <c r="E317" s="4" t="s">
-        <v>1165</v>
       </c>
       <c r="G317" s="5"/>
       <c r="H317" s="5"/>
@@ -12720,16 +12717,16 @@
         <v>318</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C318" s="3" t="s">
         <v>1166</v>
       </c>
-      <c r="C318" s="3" t="s">
+      <c r="D318" s="4" t="s">
         <v>1167</v>
       </c>
-      <c r="D318" s="4" t="s">
+      <c r="E318" s="4" t="s">
         <v>1168</v>
-      </c>
-      <c r="E318" s="4" t="s">
-        <v>1169</v>
       </c>
       <c r="G318" s="5"/>
       <c r="H318" s="4" t="s">
@@ -12745,16 +12742,16 @@
         <v>319</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C319" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="C319" s="3" t="s">
+      <c r="D319" s="4" t="s">
         <v>1171</v>
       </c>
-      <c r="D319" s="4" t="s">
-        <v>1172</v>
-      </c>
       <c r="E319" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G319" s="5"/>
       <c r="H319" s="5"/>
@@ -12768,16 +12765,16 @@
         <v>320</v>
       </c>
       <c r="B320" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C320" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="C320" s="3" t="s">
+      <c r="D320" s="4" t="s">
         <v>1174</v>
       </c>
-      <c r="D320" s="4" t="s">
+      <c r="E320" s="4" t="s">
         <v>1175</v>
-      </c>
-      <c r="E320" s="4" t="s">
-        <v>1176</v>
       </c>
       <c r="G320" s="5"/>
       <c r="H320" s="4" t="s">
@@ -12793,16 +12790,16 @@
         <v>321</v>
       </c>
       <c r="B321" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C321" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="C321" s="3" t="s">
+      <c r="D321" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="D321" s="4" t="s">
+      <c r="E321" s="4" t="s">
         <v>1179</v>
-      </c>
-      <c r="E321" s="4" t="s">
-        <v>1180</v>
       </c>
       <c r="G321" s="5"/>
       <c r="H321" s="5"/>
@@ -12816,16 +12813,16 @@
         <v>322</v>
       </c>
       <c r="B322" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C322" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="C322" s="3" t="s">
+      <c r="D322" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="D322" s="4" t="s">
+      <c r="E322" s="4" t="s">
         <v>1183</v>
-      </c>
-      <c r="E322" s="4" t="s">
-        <v>1184</v>
       </c>
       <c r="G322" s="5"/>
       <c r="H322" s="5"/>
@@ -12839,16 +12836,16 @@
         <v>323</v>
       </c>
       <c r="B323" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C323" s="3" t="s">
         <v>1185</v>
       </c>
-      <c r="C323" s="3" t="s">
+      <c r="D323" s="4" t="s">
         <v>1186</v>
       </c>
-      <c r="D323" s="4" t="s">
+      <c r="E323" s="4" t="s">
         <v>1187</v>
-      </c>
-      <c r="E323" s="4" t="s">
-        <v>1188</v>
       </c>
       <c r="G323" s="5"/>
       <c r="H323" s="5"/>
@@ -12862,16 +12859,16 @@
         <v>324</v>
       </c>
       <c r="B324" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="C324" s="3" t="s">
+      <c r="D324" s="4" t="s">
         <v>1190</v>
       </c>
-      <c r="D324" s="4" t="s">
-        <v>1191</v>
-      </c>
       <c r="E324" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="G324" s="4" t="s">
         <v>20</v>
@@ -12887,16 +12884,16 @@
         <v>325</v>
       </c>
       <c r="B325" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C325" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="C325" s="3" t="s">
+      <c r="D325" s="4" t="s">
         <v>1193</v>
       </c>
-      <c r="D325" s="4" t="s">
+      <c r="E325" s="4" t="s">
         <v>1194</v>
-      </c>
-      <c r="E325" s="4" t="s">
-        <v>1195</v>
       </c>
       <c r="G325" s="5"/>
       <c r="H325" s="5"/>
@@ -12910,16 +12907,16 @@
         <v>326</v>
       </c>
       <c r="B326" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C326" s="3" t="s">
         <v>1196</v>
       </c>
-      <c r="C326" s="3" t="s">
+      <c r="D326" s="4" t="s">
         <v>1197</v>
       </c>
-      <c r="D326" s="4" t="s">
+      <c r="E326" s="4" t="s">
         <v>1198</v>
-      </c>
-      <c r="E326" s="4" t="s">
-        <v>1199</v>
       </c>
       <c r="G326" s="5"/>
       <c r="H326" s="5"/>
@@ -12933,16 +12930,16 @@
         <v>327</v>
       </c>
       <c r="B327" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C327" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="C327" s="3" t="s">
+      <c r="D327" s="4" t="s">
         <v>1201</v>
       </c>
-      <c r="D327" s="4" t="s">
+      <c r="E327" s="4" t="s">
         <v>1202</v>
-      </c>
-      <c r="E327" s="4" t="s">
-        <v>1203</v>
       </c>
       <c r="G327" s="5"/>
       <c r="H327" s="5"/>
@@ -12956,16 +12953,16 @@
         <v>328</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="C328" s="3" t="s">
+      <c r="D328" s="4" t="s">
         <v>1205</v>
       </c>
-      <c r="D328" s="4" t="s">
+      <c r="E328" s="4" t="s">
         <v>1206</v>
-      </c>
-      <c r="E328" s="4" t="s">
-        <v>1207</v>
       </c>
       <c r="G328" s="4" t="s">
         <v>20</v>
@@ -12983,16 +12980,16 @@
         <v>329</v>
       </c>
       <c r="B329" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C329" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="C329" s="3" t="s">
+      <c r="D329" s="4" t="s">
         <v>1209</v>
       </c>
-      <c r="D329" s="4" t="s">
+      <c r="E329" s="4" t="s">
         <v>1210</v>
-      </c>
-      <c r="E329" s="4" t="s">
-        <v>1211</v>
       </c>
       <c r="G329" s="5"/>
       <c r="H329" s="5"/>
@@ -13008,16 +13005,16 @@
         <v>330</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="C330" s="3" t="s">
+      <c r="D330" s="4" t="s">
         <v>1213</v>
       </c>
-      <c r="D330" s="4" t="s">
+      <c r="E330" s="4" t="s">
         <v>1214</v>
-      </c>
-      <c r="E330" s="4" t="s">
-        <v>1215</v>
       </c>
       <c r="G330" s="4" t="s">
         <v>20</v>
@@ -13035,16 +13032,16 @@
         <v>331</v>
       </c>
       <c r="B331" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C331" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="C331" s="3" t="s">
+      <c r="D331" s="4" t="s">
         <v>1217</v>
       </c>
-      <c r="D331" s="4" t="s">
+      <c r="E331" s="4" t="s">
         <v>1218</v>
-      </c>
-      <c r="E331" s="4" t="s">
-        <v>1219</v>
       </c>
       <c r="G331" s="4" t="s">
         <v>20</v>
@@ -13062,16 +13059,16 @@
         <v>332</v>
       </c>
       <c r="B332" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C332" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="C332" s="3" t="s">
+      <c r="D332" s="4" t="s">
         <v>1221</v>
       </c>
-      <c r="D332" s="4" t="s">
-        <v>1222</v>
-      </c>
       <c r="E332" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G332" s="5"/>
       <c r="H332" s="4" t="s">
@@ -13087,16 +13084,16 @@
         <v>333</v>
       </c>
       <c r="B333" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C333" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="C333" s="3" t="s">
+      <c r="D333" s="4" t="s">
         <v>1224</v>
       </c>
-      <c r="D333" s="4" t="s">
+      <c r="E333" s="4" t="s">
         <v>1225</v>
-      </c>
-      <c r="E333" s="4" t="s">
-        <v>1226</v>
       </c>
       <c r="G333" s="4" t="s">
         <v>20</v>
@@ -13114,16 +13111,16 @@
         <v>334</v>
       </c>
       <c r="B334" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C334" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="C334" s="3" t="s">
+      <c r="D334" s="4" t="s">
         <v>1228</v>
       </c>
-      <c r="D334" s="4" t="s">
+      <c r="E334" s="4" t="s">
         <v>1229</v>
-      </c>
-      <c r="E334" s="4" t="s">
-        <v>1230</v>
       </c>
       <c r="G334" s="5"/>
       <c r="H334" s="5"/>
@@ -13137,16 +13134,16 @@
         <v>335</v>
       </c>
       <c r="B335" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C335" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="C335" s="3" t="s">
+      <c r="D335" s="4" t="s">
         <v>1232</v>
       </c>
-      <c r="D335" s="4" t="s">
+      <c r="E335" s="4" t="s">
         <v>1233</v>
-      </c>
-      <c r="E335" s="4" t="s">
-        <v>1234</v>
       </c>
       <c r="G335" s="5"/>
       <c r="H335" s="5"/>
@@ -13160,16 +13157,16 @@
         <v>336</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C336" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="C336" s="3" t="s">
+      <c r="D336" s="4" t="s">
         <v>1236</v>
       </c>
-      <c r="D336" s="4" t="s">
+      <c r="E336" s="4" t="s">
         <v>1237</v>
-      </c>
-      <c r="E336" s="4" t="s">
-        <v>1238</v>
       </c>
       <c r="G336" s="5"/>
       <c r="H336" s="5"/>
@@ -13185,16 +13182,16 @@
         <v>337</v>
       </c>
       <c r="B337" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C337" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="C337" s="3" t="s">
+      <c r="D337" s="4" t="s">
         <v>1240</v>
       </c>
-      <c r="D337" s="4" t="s">
+      <c r="E337" s="4" t="s">
         <v>1241</v>
-      </c>
-      <c r="E337" s="4" t="s">
-        <v>1242</v>
       </c>
       <c r="G337" s="5"/>
       <c r="H337" s="5"/>
@@ -13208,16 +13205,16 @@
         <v>338</v>
       </c>
       <c r="B338" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C338" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="C338" s="3" t="s">
+      <c r="D338" s="4" t="s">
         <v>1244</v>
       </c>
-      <c r="D338" s="4" t="s">
+      <c r="E338" s="4" t="s">
         <v>1245</v>
-      </c>
-      <c r="E338" s="4" t="s">
-        <v>1246</v>
       </c>
       <c r="G338" s="5"/>
       <c r="H338" s="5"/>
@@ -13233,16 +13230,16 @@
         <v>339</v>
       </c>
       <c r="B339" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C339" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="C339" s="3" t="s">
+      <c r="D339" s="4" t="s">
         <v>1248</v>
       </c>
-      <c r="D339" s="4" t="s">
+      <c r="E339" s="4" t="s">
         <v>1249</v>
-      </c>
-      <c r="E339" s="4" t="s">
-        <v>1250</v>
       </c>
       <c r="G339" s="5"/>
       <c r="H339" s="5"/>
@@ -13256,16 +13253,16 @@
         <v>340</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>1251</v>
       </c>
-      <c r="C340" s="3" t="s">
+      <c r="D340" s="4" t="s">
         <v>1252</v>
       </c>
-      <c r="D340" s="4" t="s">
+      <c r="E340" s="4" t="s">
         <v>1253</v>
-      </c>
-      <c r="E340" s="4" t="s">
-        <v>1254</v>
       </c>
       <c r="G340" s="4" t="s">
         <v>20</v>
@@ -13283,16 +13280,16 @@
         <v>341</v>
       </c>
       <c r="B341" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C341" s="3" t="s">
         <v>1255</v>
       </c>
-      <c r="C341" s="3" t="s">
+      <c r="D341" s="4" t="s">
         <v>1256</v>
       </c>
-      <c r="D341" s="4" t="s">
+      <c r="E341" s="4" t="s">
         <v>1257</v>
-      </c>
-      <c r="E341" s="4" t="s">
-        <v>1258</v>
       </c>
       <c r="G341" s="5"/>
       <c r="H341" s="5"/>
@@ -13306,16 +13303,16 @@
         <v>342</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>1259</v>
       </c>
-      <c r="C342" s="3" t="s">
+      <c r="D342" s="4" t="s">
         <v>1260</v>
       </c>
-      <c r="D342" s="4" t="s">
+      <c r="E342" s="4" t="s">
         <v>1261</v>
-      </c>
-      <c r="E342" s="4" t="s">
-        <v>1262</v>
       </c>
       <c r="G342" s="5"/>
       <c r="H342" s="5"/>
@@ -13329,16 +13326,16 @@
         <v>343</v>
       </c>
       <c r="B343" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C343" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="C343" s="3" t="s">
+      <c r="D343" s="4" t="s">
         <v>1264</v>
       </c>
-      <c r="D343" s="4" t="s">
+      <c r="E343" s="4" t="s">
         <v>1265</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>1266</v>
       </c>
       <c r="G343" s="5"/>
       <c r="H343" s="5"/>
@@ -13352,16 +13349,16 @@
         <v>344</v>
       </c>
       <c r="B344" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C344" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="C344" s="3" t="s">
+      <c r="D344" s="4" t="s">
         <v>1268</v>
       </c>
-      <c r="D344" s="4" t="s">
+      <c r="E344" s="4" t="s">
         <v>1269</v>
-      </c>
-      <c r="E344" s="4" t="s">
-        <v>1270</v>
       </c>
       <c r="G344" s="5"/>
       <c r="H344" s="5"/>
@@ -13375,16 +13372,16 @@
         <v>345</v>
       </c>
       <c r="B345" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C345" s="3" t="s">
         <v>1271</v>
       </c>
-      <c r="C345" s="3" t="s">
+      <c r="D345" s="4" t="s">
         <v>1272</v>
       </c>
-      <c r="D345" s="4" t="s">
+      <c r="E345" s="4" t="s">
         <v>1273</v>
-      </c>
-      <c r="E345" s="4" t="s">
-        <v>1274</v>
       </c>
       <c r="G345" s="5"/>
       <c r="H345" s="5"/>
@@ -13398,16 +13395,16 @@
         <v>346</v>
       </c>
       <c r="B346" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C346" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="C346" s="3" t="s">
+      <c r="D346" s="4" t="s">
         <v>1276</v>
       </c>
-      <c r="D346" s="4" t="s">
+      <c r="E346" s="4" t="s">
         <v>1277</v>
-      </c>
-      <c r="E346" s="4" t="s">
-        <v>1278</v>
       </c>
       <c r="G346" s="4" t="s">
         <v>20</v>
@@ -13425,16 +13422,16 @@
         <v>347</v>
       </c>
       <c r="B347" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C347" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="C347" s="3" t="s">
+      <c r="D347" s="4" t="s">
         <v>1280</v>
       </c>
-      <c r="D347" s="4" t="s">
+      <c r="E347" s="4" t="s">
         <v>1281</v>
-      </c>
-      <c r="E347" s="4" t="s">
-        <v>1282</v>
       </c>
       <c r="G347" s="4" t="s">
         <v>20</v>
@@ -13452,16 +13449,16 @@
         <v>348</v>
       </c>
       <c r="B348" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C348" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="C348" s="3" t="s">
+      <c r="D348" s="4" t="s">
         <v>1284</v>
       </c>
-      <c r="D348" s="4" t="s">
+      <c r="E348" s="4" t="s">
         <v>1285</v>
-      </c>
-      <c r="E348" s="4" t="s">
-        <v>1286</v>
       </c>
       <c r="G348" s="5"/>
       <c r="H348" s="5"/>
@@ -13475,16 +13472,16 @@
         <v>349</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="C349" s="3" t="s">
+      <c r="D349" s="4" t="s">
         <v>1288</v>
       </c>
-      <c r="D349" s="4" t="s">
+      <c r="E349" s="4" t="s">
         <v>1289</v>
-      </c>
-      <c r="E349" s="4" t="s">
-        <v>1290</v>
       </c>
       <c r="G349" s="4" t="s">
         <v>20</v>
@@ -13502,16 +13499,16 @@
         <v>350</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C350" s="3" t="s">
         <v>1291</v>
       </c>
-      <c r="C350" s="3" t="s">
+      <c r="D350" s="4" t="s">
         <v>1292</v>
       </c>
-      <c r="D350" s="4" t="s">
+      <c r="E350" s="4" t="s">
         <v>1293</v>
-      </c>
-      <c r="E350" s="4" t="s">
-        <v>1294</v>
       </c>
       <c r="G350" s="5"/>
       <c r="H350" s="5"/>
@@ -13525,16 +13522,16 @@
         <v>351</v>
       </c>
       <c r="B351" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C351" s="3" t="s">
         <v>1295</v>
       </c>
-      <c r="C351" s="3" t="s">
+      <c r="D351" s="4" t="s">
         <v>1296</v>
       </c>
-      <c r="D351" s="4" t="s">
+      <c r="E351" s="4" t="s">
         <v>1297</v>
-      </c>
-      <c r="E351" s="4" t="s">
-        <v>1298</v>
       </c>
       <c r="G351" s="5"/>
       <c r="H351" s="4" t="s">
@@ -13550,16 +13547,16 @@
         <v>352</v>
       </c>
       <c r="B352" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C352" s="3" t="s">
         <v>1299</v>
       </c>
-      <c r="C352" s="3" t="s">
+      <c r="D352" s="4" t="s">
         <v>1300</v>
       </c>
-      <c r="D352" s="4" t="s">
+      <c r="E352" s="4" t="s">
         <v>1301</v>
-      </c>
-      <c r="E352" s="4" t="s">
-        <v>1302</v>
       </c>
       <c r="G352" s="5"/>
       <c r="H352" s="4" t="s">
@@ -13575,16 +13572,16 @@
         <v>353</v>
       </c>
       <c r="B353" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="C353" s="3" t="s">
+      <c r="D353" s="4" t="s">
         <v>1304</v>
       </c>
-      <c r="D353" s="4" t="s">
+      <c r="E353" s="4" t="s">
         <v>1305</v>
-      </c>
-      <c r="E353" s="4" t="s">
-        <v>1306</v>
       </c>
       <c r="G353" s="4" t="s">
         <v>20</v>
@@ -13602,16 +13599,16 @@
         <v>354</v>
       </c>
       <c r="B354" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C354" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="C354" s="3" t="s">
+      <c r="D354" s="4" t="s">
         <v>1308</v>
       </c>
-      <c r="D354" s="4" t="s">
+      <c r="E354" s="4" t="s">
         <v>1309</v>
-      </c>
-      <c r="E354" s="4" t="s">
-        <v>1310</v>
       </c>
       <c r="G354" s="5"/>
       <c r="H354" s="5"/>
@@ -13625,16 +13622,16 @@
         <v>355</v>
       </c>
       <c r="B355" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="D355" s="4" t="s">
         <v>1312</v>
       </c>
-      <c r="D355" s="4" t="s">
+      <c r="E355" s="4" t="s">
         <v>1313</v>
-      </c>
-      <c r="E355" s="4" t="s">
-        <v>1314</v>
       </c>
       <c r="G355" s="4" t="s">
         <v>20</v>
@@ -13652,16 +13649,16 @@
         <v>356</v>
       </c>
       <c r="B356" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="D356" s="4" t="s">
         <v>1316</v>
       </c>
-      <c r="D356" s="4" t="s">
+      <c r="E356" s="4" t="s">
         <v>1317</v>
-      </c>
-      <c r="E356" s="4" t="s">
-        <v>1318</v>
       </c>
       <c r="G356" s="5"/>
       <c r="H356" s="5"/>
@@ -13675,16 +13672,16 @@
         <v>357</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="C357" s="3" t="s">
+      <c r="D357" s="4" t="s">
         <v>1320</v>
       </c>
-      <c r="D357" s="4" t="s">
+      <c r="E357" s="4" t="s">
         <v>1321</v>
-      </c>
-      <c r="E357" s="4" t="s">
-        <v>1322</v>
       </c>
       <c r="G357" s="4" t="s">
         <v>20</v>
@@ -13717,7 +13714,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G33" activeCellId="1" sqref="A201:A357 G33"/>
+      <selection pane="topLeft" activeCell="G33" activeCellId="0" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13739,16 +13736,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>1324</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>1325</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1326</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -13762,19 +13759,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1327</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>1328</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="8" t="s">
         <v>1329</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>1330</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13782,20 +13779,20 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>1332</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>1333</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>1334</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>1335</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>1336</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13803,22 +13800,22 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>1337</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>1338</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>1339</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>1340</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="G4" s="4" t="s">
         <v>1341</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13826,17 +13823,17 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>1343</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>1344</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>1345</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G5" s="5"/>
     </row>
@@ -13845,20 +13842,20 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>1347</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>1348</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>1349</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>1350</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13866,19 +13863,19 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>1352</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>1353</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>1354</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>1355</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>1356</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -13887,20 +13884,20 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>1357</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>1358</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>1359</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="8" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13911,19 +13908,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>1361</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>1362</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="8" t="s">
         <v>1363</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="9" t="s">
         <v>1364</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13931,17 +13928,17 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>1366</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>1367</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>1368</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="G10" s="5"/>
     </row>
@@ -13950,17 +13947,17 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>1370</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>1371</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>1372</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="8" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="G11" s="5"/>
     </row>
@@ -13969,22 +13966,22 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>1374</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>1375</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>1376</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>1377</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>1350</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>1378</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13992,22 +13989,22 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>1379</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>1380</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>1381</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="8" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>1382</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>1346</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14015,22 +14012,22 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>1384</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>1385</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>1386</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>1387</v>
-      </c>
       <c r="G14" s="4" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14038,20 +14035,20 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>1388</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>1389</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>1390</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>1350</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14059,19 +14056,19 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>1391</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>1392</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>1393</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>1394</v>
-      </c>
       <c r="F16" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -14080,19 +14077,19 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>1395</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>1396</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>1397</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>1398</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G17" s="5"/>
     </row>
@@ -14101,20 +14098,20 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>1399</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>1400</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>1401</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="8" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>1402</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14125,19 +14122,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>1404</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>1405</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="8" t="s">
         <v>1406</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="4" t="s">
         <v>1407</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>1408</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14145,20 +14142,20 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>1409</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>1410</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>1411</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="8" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14166,22 +14163,22 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>1413</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>1414</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>1416</v>
-      </c>
       <c r="F21" s="8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14189,19 +14186,19 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>1418</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>1419</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>1420</v>
-      </c>
       <c r="F22" s="8" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -14210,17 +14207,17 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>1422</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>1423</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="8" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -14229,20 +14226,20 @@
         <v>1022</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>1425</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>1426</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>1427</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="8" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14253,19 +14250,19 @@
         <v>9</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>1429</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>1430</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>1431</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>1335</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>1432</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,22 +14270,22 @@
         <v>1024</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>1433</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>1435</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>1436</v>
-      </c>
       <c r="F26" s="8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14296,20 +14293,20 @@
         <v>1025</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>1437</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>1438</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>1439</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="8" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14317,19 +14314,19 @@
         <v>1026</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>1440</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>1441</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>1442</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>1443</v>
-      </c>
       <c r="F28" s="8" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -14338,20 +14335,20 @@
         <v>1027</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>1444</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>1445</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>1446</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="8" t="s">
+        <v>1446</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>1447</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14359,19 +14356,19 @@
         <v>1028</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>1449</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>1450</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>1451</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="8" t="s">
         <v>1452</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>1453</v>
       </c>
       <c r="G30" s="5"/>
     </row>
@@ -14380,20 +14377,20 @@
         <v>1029</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>1454</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>1455</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>1456</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="8" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14401,22 +14398,22 @@
         <v>1030</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>1458</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>1460</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>1461</v>
-      </c>
       <c r="F32" s="8" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14424,19 +14421,19 @@
         <v>1031</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>1462</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>1463</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>1464</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>1465</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>1466</v>
       </c>
       <c r="G33" s="5"/>
     </row>
@@ -14445,17 +14442,17 @@
         <v>1032</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>1467</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>1468</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>1469</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="4" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G34" s="5"/>
     </row>
@@ -14464,17 +14461,17 @@
         <v>1033</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>1471</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>1472</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>1473</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="8" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G35" s="5"/>
     </row>
@@ -14483,17 +14480,17 @@
         <v>1034</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>1475</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>1476</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>1477</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="8" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G36" s="5"/>
     </row>
@@ -14502,19 +14499,19 @@
         <v>1035</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>1478</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>1479</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>1480</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="8" t="s">
         <v>1481</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>1482</v>
       </c>
       <c r="G37" s="5"/>
     </row>
@@ -14523,19 +14520,19 @@
         <v>1036</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>1483</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>1484</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>1485</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="8" t="s">
         <v>1486</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>1487</v>
       </c>
       <c r="G38" s="5"/>
     </row>
@@ -14544,17 +14541,17 @@
         <v>1037</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>1488</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>1489</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>1490</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="8" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G39" s="5"/>
     </row>
@@ -14580,7 +14577,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A201:A357 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14594,55 +14591,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>1492</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1494</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1496</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>1498</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>1500</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>1502</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>1503</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="2025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="2025">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -16784,10 +16784,10 @@
       <c r="F358" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="J358" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K358" s="0" t="s">
+      <c r="J358" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K358" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16813,7 +16813,7 @@
       <c r="G359" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="J359" s="0" t="s">
+      <c r="J359" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16836,10 +16836,10 @@
       <c r="F360" s="1" t="s">
         <v>1392</v>
       </c>
-      <c r="J360" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K360" s="0" t="s">
+      <c r="J360" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K360" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16862,13 +16862,13 @@
       <c r="F361" s="1" t="s">
         <v>1396</v>
       </c>
-      <c r="H361" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J361" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K361" s="0" t="s">
+      <c r="H361" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J361" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K361" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16891,10 +16891,10 @@
       <c r="F362" s="1" t="s">
         <v>1400</v>
       </c>
-      <c r="H362" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J362" s="0" t="s">
+      <c r="H362" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J362" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16920,10 +16920,10 @@
       <c r="G363" s="1" t="s">
         <v>1405</v>
       </c>
-      <c r="H363" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J363" s="0" t="s">
+      <c r="H363" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J363" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16946,10 +16946,10 @@
       <c r="F364" s="1" t="s">
         <v>1409</v>
       </c>
-      <c r="J364" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K364" s="0" t="s">
+      <c r="J364" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K364" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -16975,7 +16975,7 @@
       <c r="G365" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="J365" s="0" t="s">
+      <c r="J365" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17001,7 +17001,7 @@
       <c r="G366" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="J366" s="0" t="s">
+      <c r="J366" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17027,7 +17027,7 @@
       <c r="G367" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="J367" s="0" t="s">
+      <c r="J367" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17053,7 +17053,7 @@
       <c r="G368" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="J368" s="0" t="s">
+      <c r="J368" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17079,10 +17079,10 @@
       <c r="G369" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="J369" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K369" s="0" t="s">
+      <c r="J369" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K369" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17108,10 +17108,10 @@
       <c r="G370" s="1" t="s">
         <v>1439</v>
       </c>
-      <c r="J370" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K370" s="0" t="s">
+      <c r="J370" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K370" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17134,7 +17134,7 @@
       <c r="F371" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="J371" s="0" t="s">
+      <c r="J371" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17160,10 +17160,10 @@
       <c r="G372" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="J372" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K372" s="0" t="s">
+      <c r="J372" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K372" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17186,7 +17186,7 @@
       <c r="F373" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="J373" s="0" t="s">
+      <c r="J373" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17212,7 +17212,7 @@
       <c r="G374" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="J374" s="0" t="s">
+      <c r="J374" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17238,7 +17238,7 @@
       <c r="G375" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="J375" s="0" t="s">
+      <c r="J375" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17264,13 +17264,13 @@
       <c r="G376" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="H376" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J376" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K376" s="0" t="s">
+      <c r="H376" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J376" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K376" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17296,10 +17296,10 @@
       <c r="G377" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="H377" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J377" s="0" t="s">
+      <c r="H377" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J377" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17325,7 +17325,7 @@
       <c r="G378" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="J378" s="0" t="s">
+      <c r="J378" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17348,13 +17348,13 @@
       <c r="F379" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="H379" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J379" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K379" s="0" t="s">
+      <c r="H379" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J379" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K379" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17380,16 +17380,16 @@
       <c r="G380" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="H380" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="I380" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J380" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K380" s="0" t="s">
+      <c r="H380" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K380" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17412,7 +17412,7 @@
       <c r="F381" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="J381" s="0" t="s">
+      <c r="J381" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17438,7 +17438,7 @@
       <c r="G382" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="J382" s="0" t="s">
+      <c r="J382" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17464,7 +17464,7 @@
       <c r="G383" s="1" t="s">
         <v>1499</v>
       </c>
-      <c r="J383" s="0" t="s">
+      <c r="J383" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17490,7 +17490,7 @@
       <c r="G384" s="1" t="s">
         <v>1504</v>
       </c>
-      <c r="J384" s="0" t="s">
+      <c r="J384" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17516,10 +17516,10 @@
       <c r="G385" s="1" t="s">
         <v>1494</v>
       </c>
-      <c r="I385" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J385" s="0" t="s">
+      <c r="I385" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J385" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17545,10 +17545,10 @@
       <c r="G386" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="I386" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J386" s="0" t="s">
+      <c r="I386" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J386" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17571,7 +17571,7 @@
       <c r="F387" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="J387" s="0" t="s">
+      <c r="J387" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17597,10 +17597,10 @@
       <c r="G388" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="I388" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J388" s="0" t="s">
+      <c r="I388" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J388" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17626,10 +17626,10 @@
       <c r="G389" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="J389" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K389" s="0" t="s">
+      <c r="J389" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K389" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17655,7 +17655,7 @@
       <c r="G390" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="J390" s="0" t="s">
+      <c r="J390" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17681,7 +17681,7 @@
       <c r="G391" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="J391" s="0" t="s">
+      <c r="J391" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17707,10 +17707,10 @@
       <c r="G392" s="1" t="s">
         <v>1540</v>
       </c>
-      <c r="I392" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J392" s="0" t="s">
+      <c r="I392" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J392" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17733,7 +17733,7 @@
       <c r="F393" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="J393" s="0" t="s">
+      <c r="J393" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17759,10 +17759,10 @@
       <c r="G394" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="H394" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J394" s="0" t="s">
+      <c r="H394" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J394" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17788,10 +17788,10 @@
       <c r="G395" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="I395" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J395" s="0" t="s">
+      <c r="I395" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J395" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17817,7 +17817,7 @@
       <c r="G396" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="J396" s="0" t="s">
+      <c r="J396" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17843,10 +17843,10 @@
       <c r="G397" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="I397" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J397" s="0" t="s">
+      <c r="I397" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J397" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17869,10 +17869,10 @@
       <c r="F398" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="I398" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J398" s="0" t="s">
+      <c r="I398" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J398" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17898,10 +17898,10 @@
       <c r="G399" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="J399" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K399" s="0" t="s">
+      <c r="J399" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K399" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17927,10 +17927,10 @@
       <c r="G400" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="I400" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J400" s="0" t="s">
+      <c r="I400" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J400" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17956,10 +17956,10 @@
       <c r="G401" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="I401" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J401" s="0" t="s">
+      <c r="I401" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J401" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -17982,10 +17982,10 @@
       <c r="F402" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="H402" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J402" s="0" t="s">
+      <c r="H402" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J402" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18011,10 +18011,10 @@
       <c r="G403" s="1" t="s">
         <v>1590</v>
       </c>
-      <c r="I403" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J403" s="0" t="s">
+      <c r="I403" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J403" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18040,10 +18040,10 @@
       <c r="G404" s="1" t="s">
         <v>1563</v>
       </c>
-      <c r="I404" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J404" s="0" t="s">
+      <c r="I404" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J404" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18069,10 +18069,10 @@
       <c r="G405" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="H405" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J405" s="0" t="s">
+      <c r="H405" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J405" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18095,7 +18095,7 @@
       <c r="F406" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="J406" s="0" t="s">
+      <c r="J406" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18118,7 +18118,7 @@
       <c r="F407" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="J407" s="0" t="s">
+      <c r="J407" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18141,10 +18141,10 @@
       <c r="F408" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="I408" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J408" s="0" t="s">
+      <c r="I408" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J408" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18170,7 +18170,7 @@
       <c r="G409" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="J409" s="0" t="s">
+      <c r="J409" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18196,13 +18196,13 @@
       <c r="G410" s="1" t="s">
         <v>1620</v>
       </c>
-      <c r="H410" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J410" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K410" s="0" t="s">
+      <c r="H410" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K410" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18228,7 +18228,7 @@
       <c r="G411" s="1" t="s">
         <v>1625</v>
       </c>
-      <c r="J411" s="0" t="s">
+      <c r="J411" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18254,7 +18254,7 @@
       <c r="G412" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="J412" s="0" t="s">
+      <c r="J412" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18280,7 +18280,7 @@
       <c r="G413" s="1" t="s">
         <v>1634</v>
       </c>
-      <c r="J413" s="0" t="s">
+      <c r="J413" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18306,7 +18306,7 @@
       <c r="G414" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="J414" s="0" t="s">
+      <c r="J414" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18332,10 +18332,10 @@
       <c r="G415" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="J415" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K415" s="0" t="s">
+      <c r="J415" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K415" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18361,13 +18361,13 @@
       <c r="G416" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="I416" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J416" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K416" s="0" t="s">
+      <c r="I416" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K416" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18390,7 +18390,7 @@
       <c r="F417" s="1" t="s">
         <v>1652</v>
       </c>
-      <c r="J417" s="0" t="s">
+      <c r="J417" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18416,10 +18416,10 @@
       <c r="G418" s="1" t="s">
         <v>1554</v>
       </c>
-      <c r="I418" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J418" s="0" t="s">
+      <c r="I418" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J418" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18445,10 +18445,10 @@
       <c r="G419" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="J419" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K419" s="0" t="s">
+      <c r="J419" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K419" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18471,10 +18471,10 @@
       <c r="F420" s="1" t="s">
         <v>1665</v>
       </c>
-      <c r="I420" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J420" s="0" t="s">
+      <c r="I420" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J420" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18497,7 +18497,7 @@
       <c r="F421" s="1" t="s">
         <v>1669</v>
       </c>
-      <c r="J421" s="0" t="s">
+      <c r="J421" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18523,7 +18523,7 @@
       <c r="G422" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="J422" s="0" t="s">
+      <c r="J422" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18546,7 +18546,7 @@
       <c r="F423" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="J423" s="0" t="s">
+      <c r="J423" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18572,7 +18572,7 @@
       <c r="G424" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="J424" s="0" t="s">
+      <c r="J424" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18595,7 +18595,7 @@
       <c r="F425" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="J425" s="0" t="s">
+      <c r="J425" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18621,10 +18621,10 @@
       <c r="G426" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="J426" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K426" s="0" t="s">
+      <c r="J426" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K426" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18647,10 +18647,10 @@
       <c r="F427" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="I427" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J427" s="0" t="s">
+      <c r="I427" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J427" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18676,10 +18676,10 @@
       <c r="G428" s="1" t="s">
         <v>1648</v>
       </c>
-      <c r="J428" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K428" s="0" t="s">
+      <c r="J428" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K428" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18702,7 +18702,7 @@
       <c r="F429" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="J429" s="0" t="s">
+      <c r="J429" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18728,13 +18728,13 @@
       <c r="G430" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="H430" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J430" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K430" s="0" t="s">
+      <c r="H430" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K430" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18760,10 +18760,10 @@
       <c r="G431" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="J431" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K431" s="0" t="s">
+      <c r="J431" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K431" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18789,10 +18789,10 @@
       <c r="G432" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="H432" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J432" s="0" t="s">
+      <c r="H432" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J432" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18818,10 +18818,13 @@
       <c r="G433" s="1" t="s">
         <v>1419</v>
       </c>
-      <c r="H433" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J433" s="0" t="s">
+      <c r="H433" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K433" s="0" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18847,7 +18850,7 @@
       <c r="G434" s="1" t="s">
         <v>1434</v>
       </c>
-      <c r="J434" s="0" t="s">
+      <c r="J434" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18873,10 +18876,10 @@
       <c r="G435" s="1" t="s">
         <v>1728</v>
       </c>
-      <c r="I435" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J435" s="0" t="s">
+      <c r="I435" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J435" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18902,13 +18905,13 @@
       <c r="G436" s="1" t="s">
         <v>1733</v>
       </c>
-      <c r="H436" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J436" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K436" s="0" t="s">
+      <c r="H436" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K436" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18934,10 +18937,10 @@
       <c r="G437" s="1" t="s">
         <v>1738</v>
       </c>
-      <c r="I437" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J437" s="0" t="s">
+      <c r="I437" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J437" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18963,7 +18966,7 @@
       <c r="G438" s="1" t="s">
         <v>1743</v>
       </c>
-      <c r="J438" s="0" t="s">
+      <c r="J438" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -18989,10 +18992,10 @@
       <c r="G439" s="1" t="s">
         <v>1748</v>
       </c>
-      <c r="J439" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K439" s="0" t="s">
+      <c r="J439" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K439" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19018,10 +19021,10 @@
       <c r="G440" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="J440" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K440" s="0" t="s">
+      <c r="J440" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K440" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19047,10 +19050,10 @@
       <c r="G441" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="I441" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J441" s="0" t="s">
+      <c r="I441" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J441" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19076,13 +19079,13 @@
       <c r="G442" s="1" t="s">
         <v>1761</v>
       </c>
-      <c r="H442" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J442" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K442" s="0" t="s">
+      <c r="H442" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K442" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19108,7 +19111,7 @@
       <c r="G443" s="1" t="s">
         <v>1766</v>
       </c>
-      <c r="J443" s="0" t="s">
+      <c r="J443" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19134,13 +19137,13 @@
       <c r="G444" s="1" t="s">
         <v>1424</v>
       </c>
-      <c r="H444" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J444" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K444" s="0" t="s">
+      <c r="H444" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K444" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19166,13 +19169,13 @@
       <c r="G445" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="H445" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="J445" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K445" s="0" t="s">
+      <c r="H445" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K445" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19198,10 +19201,10 @@
       <c r="G446" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="J446" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K446" s="0" t="s">
+      <c r="J446" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K446" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19227,7 +19230,7 @@
       <c r="G447" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="J447" s="0" t="s">
+      <c r="J447" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Birds" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
@@ -79,7 +79,7 @@
     <t xml:space="preserve">Ptaki obdarzone tą zdolnością znane są z przechowywania pożywienia na później. Zdolność ta pozwala przechować (położyć na karcie ptaka) 1 żeton pożywienia podczas każdej aktywacji tej karty. Przechowywane na karcie żetony nie mogą zostać wykorzystane w trakcie gry. Każdy z tych żetonów jest wart 1 punkt na koniec gry.</t>
   </si>
   <si>
-    <t xml:space="preserve">American Avocet </t>
+    <t xml:space="preserve">American Avocet</t>
   </si>
   <si>
     <t xml:space="preserve">Recurvirostra americana</t>
@@ -97,7 +97,7 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">American Bittern </t>
+    <t xml:space="preserve">American Bittern</t>
   </si>
   <si>
     <t xml:space="preserve">Botaurus lentiginosus</t>
@@ -127,7 +127,7 @@
     <t xml:space="preserve">Pod karty tych ptaków możesz wsunąć kartę z ręki. Na koniec gry za każdą wsuniętą kartę otrzymasz 1 punkt. Dodatkowo karty ptaków z tej grupy oferują jeszcze jakąś korzyść (złożenie jaja, dobranie karty, zdobycie pożywienia). Możesz z niej skorzystać tylko wtedy, gdy najpierw wsunąłeś kartę z ręki pod tę kartę.</t>
   </si>
   <si>
-    <t xml:space="preserve">American Crow </t>
+    <t xml:space="preserve">American Crow</t>
   </si>
   <si>
     <t xml:space="preserve">Corvus brachyrhynchos</t>
@@ -142,7 +142,7 @@
     <t xml:space="preserve">Te gatunki znane są z podjadania jaj z gniazd innych ptaków. Aby użyć tej zdolności, musisz mieć już złożone wcześniej jajo na innym ptaku. Odrzuć jajo do zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">American Goldfinch </t>
+    <t xml:space="preserve">American Goldfinch</t>
   </si>
   <si>
     <t xml:space="preserve">Spinus tristis</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">Weź 3 [seed] z zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">American Kestrel </t>
+    <t xml:space="preserve">American Kestrel</t>
   </si>
   <si>
     <t xml:space="preserve">Falco sparverius</t>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">Drozd Wędrowny</t>
   </si>
   <si>
-    <t xml:space="preserve">American White Pelican </t>
+    <t xml:space="preserve">American White Pelican</t>
   </si>
   <si>
     <t xml:space="preserve">Pelecanus erythrorhynchos</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Rzuć wszystkimi kośćmi znajdującymi się poza karmnikiem. Jeśli choć 1 kość wskaże [fish], weź 1 [fish] i przechowaj na tej karcie.</t>
   </si>
   <si>
-    <t xml:space="preserve">Anna's Hummingbird </t>
+    <t xml:space="preserve">Anna's Hummingbird</t>
   </si>
   <si>
     <t xml:space="preserve">Calypte anna</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">Właściciel kolibra decyduje, kto otrzymuje pożywienie jako pierwszy, a następnie obowiązuje kolejność rozgrywania. Gracze mogą napełniać karmnik, gdy opustoszeje, a także gdy wszystkie kości wskazują ten sam symbol (dotyczy także pojedynczej kostki).</t>
   </si>
   <si>
-    <t xml:space="preserve">Ash-Throated Flycatcher </t>
+    <t xml:space="preserve">Ash-Throated Flycatcher</t>
   </si>
   <si>
     <t xml:space="preserve">Myiarchus cinerascens</t>
@@ -304,7 +304,7 @@
     <t xml:space="preserve">Dobierz 2 [card] ze stosu. Wsuń 1 z nich pod tę kartę i zatrzymaj drugą.</t>
   </si>
   <si>
-    <t xml:space="preserve">Baird's Sparrow </t>
+    <t xml:space="preserve">Baird's Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Ammodramus bairdii</t>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">Złóż 1 [egg] i połóż na swojej dowolnej karcie ptaka.</t>
   </si>
   <si>
-    <t xml:space="preserve">Bald Eagle </t>
+    <t xml:space="preserve">Bald Eagle</t>
   </si>
   <si>
     <t xml:space="preserve">Haliaeetus leucocephalus</t>
@@ -328,7 +328,7 @@
     <t xml:space="preserve">Weź wszystkie [fish] z karmnika.</t>
   </si>
   <si>
-    <t xml:space="preserve">Baltimore Oriole </t>
+    <t xml:space="preserve">Baltimore Oriole</t>
   </si>
   <si>
     <t xml:space="preserve">Icterus galbula</t>
@@ -373,7 +373,7 @@
     <t xml:space="preserve">Te ptaki żywią się innymi ptakami. Porównaj rozpiętość skrzydeł wierzchniej karty ze stosu ze zdolnością drapieżnika.&lt;br&gt;Jeśli rozpiętość skrzydeł na wierzchniej karcie ze stosu jest mniejsza od limitu zdolności drapieżnika, wsuń tę kartę pod swoją kartę, aby zaznaczyć, że Twój drapieżnik skutecznie zapolował. Na koniec gry każda taka wsunięta karta warta jest 1 punkt.&lt;br&gt;Jeśli rozpiętość skrzydeł wierzchniej karty jest równa lub większa od zdolności Twojego drapieżnika, odrzuć ją.</t>
   </si>
   <si>
-    <t xml:space="preserve">Barrow's Goldeneye </t>
+    <t xml:space="preserve">Barrow's Goldeneye</t>
   </si>
   <si>
     <t xml:space="preserve">Bucephala islandica</t>
@@ -394,7 +394,7 @@
     <t xml:space="preserve">Wireonek Skromny</t>
   </si>
   <si>
-    <t xml:space="preserve">Belted Kingfisher </t>
+    <t xml:space="preserve">Belted Kingfisher</t>
   </si>
   <si>
     <t xml:space="preserve">Megaceryle alcyon</t>
@@ -436,7 +436,7 @@
     <t xml:space="preserve">Wybierz siedlisko bez żadnych [egg]. Złóż 1 [egg] na każdej karcie w tym siedlisku.</t>
   </si>
   <si>
-    <t xml:space="preserve">Black Skimmer </t>
+    <t xml:space="preserve">Black Skimmer</t>
   </si>
   <si>
     <t xml:space="preserve">Rynchops niger</t>
@@ -460,7 +460,7 @@
     <t xml:space="preserve">Ta zdolność pozwala dobrać dodatkowe karty ptaków podczas wykonywania akcji „Dobierz karty ptaków”, ale ma swój koszt (odrzucenie karty). Gdy zastanawiasz się, którą kartę odrzucić, kolejny gracz może zacząć swoją turę.</t>
   </si>
   <si>
-    <t xml:space="preserve">Black Vulture </t>
+    <t xml:space="preserve">Black Vulture</t>
   </si>
   <si>
     <t xml:space="preserve">Coragyps atratus</t>
@@ -502,7 +502,7 @@
     <t xml:space="preserve">Odrzuć 1 [seed], aby wsunąć 2 [card] ze stosu pod tę kartę.</t>
   </si>
   <si>
-    <t xml:space="preserve">Black-Billed Magpie </t>
+    <t xml:space="preserve">Black-Billed Magpie</t>
   </si>
   <si>
     <t xml:space="preserve">Pica hudsonia</t>
@@ -523,7 +523,7 @@
     <t xml:space="preserve">Wszyscy gracze otrzymują po 1 [fruit] z zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">Black-Crowned Night-Heron </t>
+    <t xml:space="preserve">Black-Crowned Night-Heron</t>
   </si>
   <si>
     <t xml:space="preserve">Nycticorax nycticorax</t>
@@ -547,7 +547,7 @@
     <t xml:space="preserve">Pożywienie, które ten gracz bierze z karmnika, nie musi być tego samego rodzaju co pożywienie zabrane przez Ciebie z jego zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">Black-Necked Stilt </t>
+    <t xml:space="preserve">Black-Necked Stilt</t>
   </si>
   <si>
     <t xml:space="preserve">Himantopus mexicanus</t>
@@ -607,7 +607,7 @@
     <t xml:space="preserve">Modrosójka Błękitna</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue-Gray Gnatcatcher </t>
+    <t xml:space="preserve">Blue-Gray Gnatcatcher</t>
   </si>
   <si>
     <t xml:space="preserve">Polioptila caerulea</t>
@@ -679,7 +679,7 @@
     <t xml:space="preserve">Dobierz 3 odkryte [card] z tacki.</t>
   </si>
   <si>
-    <t xml:space="preserve">Brewer's Blackbird </t>
+    <t xml:space="preserve">Brewer's Blackbird</t>
   </si>
   <si>
     <t xml:space="preserve">Euphagus cyanocephalus</t>
@@ -700,7 +700,7 @@
     <t xml:space="preserve">Myszołów Szerokoskrzydły</t>
   </si>
   <si>
-    <t xml:space="preserve">Bronzed Cowbird </t>
+    <t xml:space="preserve">Bronzed Cowbird</t>
   </si>
   <si>
     <t xml:space="preserve">Molothrus aeneus</t>
@@ -724,7 +724,7 @@
     <t xml:space="preserve">Weź 3 [fish] z zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">Brown-Headed Cowbird </t>
+    <t xml:space="preserve">Brown-Headed Cowbird</t>
   </si>
   <si>
     <t xml:space="preserve">Molothrus ater</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">Jeśli po napełnieniu karmnika nie ma w nim określonego rodzaju pożywienia, nie otrzymujesz pożywienia.</t>
   </si>
   <si>
-    <t xml:space="preserve">Burrowing Owl </t>
+    <t xml:space="preserve">Burrowing Owl</t>
   </si>
   <si>
     <t xml:space="preserve">Athene cunicularia</t>
@@ -775,7 +775,7 @@
     <t xml:space="preserve">Kondor Kalifornijski</t>
   </si>
   <si>
-    <t xml:space="preserve">California Quail </t>
+    <t xml:space="preserve">California Quail</t>
   </si>
   <si>
     <t xml:space="preserve">Callipepla californica</t>
@@ -787,7 +787,7 @@
     <t xml:space="preserve">Złóż 1 [egg] i połóż na tej karcie.</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada Goose </t>
+    <t xml:space="preserve">Canada Goose</t>
   </si>
   <si>
     <t xml:space="preserve">Branta canadensis</t>
@@ -808,7 +808,7 @@
     <t xml:space="preserve">Wszyscy gracze dobierają 1 [card] ze stosu.</t>
   </si>
   <si>
-    <t xml:space="preserve">Carolina Chickadee </t>
+    <t xml:space="preserve">Carolina Chickadee</t>
   </si>
   <si>
     <t xml:space="preserve">Poecile carolinensis</t>
@@ -850,7 +850,7 @@
     <t xml:space="preserve">Dziwuszka Czerwonoczelna</t>
   </si>
   <si>
-    <t xml:space="preserve">Cassin's Sparrow </t>
+    <t xml:space="preserve">Cassin's Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Peucaea cassinii</t>
@@ -871,7 +871,7 @@
     <t xml:space="preserve">Wsuń [card] z ręki pod tę kartę. Jeśli to zrobisz, weź 1 [fruit] z zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cerulean Warbler </t>
+    <t xml:space="preserve">Cerulean Warbler</t>
   </si>
   <si>
     <t xml:space="preserve">Setophaga cerulea</t>
@@ -895,7 +895,7 @@
     <t xml:space="preserve">Te ptaki liczą się podwójnie tylko na potrzeby realizacji celów, ale już nie w przypadku kart bonusowych czy punktów na koniec gry.&lt;br&gt;Jaja na kartach tych ptaków nie liczą się podwójnie na potrzeby realizacji celów zliczających jaja.</t>
   </si>
   <si>
-    <t xml:space="preserve">Chestnut-Collared Longspur </t>
+    <t xml:space="preserve">Chestnut-Collared Longspur</t>
   </si>
   <si>
     <t xml:space="preserve">Calcarius ornatus</t>
@@ -925,7 +925,7 @@
     <t xml:space="preserve">Kominiarczyk Amerykański</t>
   </si>
   <si>
-    <t xml:space="preserve">Chipping Sparrow </t>
+    <t xml:space="preserve">Chipping Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Spizella passerina</t>
@@ -934,7 +934,7 @@
     <t xml:space="preserve">Spizela Białobrewa</t>
   </si>
   <si>
-    <t xml:space="preserve">Clark's Grebe </t>
+    <t xml:space="preserve">Clark's Grebe</t>
   </si>
   <si>
     <t xml:space="preserve">Aechmophorus clarkii</t>
@@ -943,7 +943,7 @@
     <t xml:space="preserve">Perkoz Żółtodzioby</t>
   </si>
   <si>
-    <t xml:space="preserve">Clark's Nutcracker </t>
+    <t xml:space="preserve">Clark's Nutcracker</t>
   </si>
   <si>
     <t xml:space="preserve">Nucifraga columbiana</t>
@@ -1051,7 +1051,7 @@
     <t xml:space="preserve">W przypadku zdolności tego ptaka symbol [star] liczy się jako [cavity].</t>
   </si>
   <si>
-    <t xml:space="preserve">Common Grackle </t>
+    <t xml:space="preserve">Common Grackle</t>
   </si>
   <si>
     <t xml:space="preserve">Quiscalus quiscula</t>
@@ -1096,7 +1096,7 @@
     <t xml:space="preserve">Nur Lodowiec</t>
   </si>
   <si>
-    <t xml:space="preserve">Common Merganser </t>
+    <t xml:space="preserve">Common Merganser</t>
   </si>
   <si>
     <t xml:space="preserve">Mergus merganser</t>
@@ -1120,7 +1120,7 @@
     <t xml:space="preserve">Jeśli zagrany ptak ma zdolność „GDY ZAGRYWASZ”, aktywuje się ona w momencie zagrania.</t>
   </si>
   <si>
-    <t xml:space="preserve">Common Nighthawk </t>
+    <t xml:space="preserve">Common Nighthawk</t>
   </si>
   <si>
     <t xml:space="preserve">Chordeiles minor</t>
@@ -1171,7 +1171,7 @@
     <t xml:space="preserve">Odrzuć do 5 [invertebrate] ze swoich zasobów. Za każdy odrzucony żeton wsuń po 1 [card] ze stosu pod tę kartę.</t>
   </si>
   <si>
-    <t xml:space="preserve">Common Yellowthroat </t>
+    <t xml:space="preserve">Common Yellowthroat</t>
   </si>
   <si>
     <t xml:space="preserve">Geothlypis trichas</t>
@@ -1183,7 +1183,7 @@
     <t xml:space="preserve">Dobierz 2 [card]. Jeśli to zrobisz, na koniec tury odrzuć 1 [card] z ręki.</t>
   </si>
   <si>
-    <t xml:space="preserve">Cooper's Hawk </t>
+    <t xml:space="preserve">Cooper's Hawk</t>
   </si>
   <si>
     <t xml:space="preserve">Accipiter cooperii</t>
@@ -1225,7 +1225,7 @@
     <t xml:space="preserve">Łuszczyk Czarnogardły</t>
   </si>
   <si>
-    <t xml:space="preserve">Double-Crested Cormorant </t>
+    <t xml:space="preserve">Double-Crested Cormorant</t>
   </si>
   <si>
     <t xml:space="preserve">Phalacrocorax auritus</t>
@@ -1234,7 +1234,7 @@
     <t xml:space="preserve">Kormoran Rogaty</t>
   </si>
   <si>
-    <t xml:space="preserve">Downy Woodpecker </t>
+    <t xml:space="preserve">Downy Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Picoides pubescens</t>
@@ -1294,7 +1294,7 @@
     <t xml:space="preserve">Gdy inny gracz zagrywa ptaka na [forest], weź 1 [invertebrate] z zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">Eastern Phoebe </t>
+    <t xml:space="preserve">Eastern Phoebe</t>
   </si>
   <si>
     <t xml:space="preserve">Sayornis phoebe</t>
@@ -1306,7 +1306,7 @@
     <t xml:space="preserve">Wszyscy gracze otrzymują 1 [invertebrate] z zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">Eastern Screech Owl </t>
+    <t xml:space="preserve">Eastern Screech Owl</t>
   </si>
   <si>
     <t xml:space="preserve">Megascops asio</t>
@@ -1516,7 +1516,7 @@
     <t xml:space="preserve">Dobierz 1 nową kartę bonusową. Następnie weź 1 [die] z karmnika, złóż 1 [egg] na karcie dowolnego ptaka albo dobierz 1 [card].</t>
   </si>
   <si>
-    <t xml:space="preserve">Ferruginous Hawk </t>
+    <t xml:space="preserve">Ferruginous Hawk</t>
   </si>
   <si>
     <t xml:space="preserve">Buteo regalis</t>
@@ -1534,7 +1534,7 @@
     <t xml:space="preserve">Wrona Rybożerna</t>
   </si>
   <si>
-    <t xml:space="preserve">Forster's Tern </t>
+    <t xml:space="preserve">Forster's Tern</t>
   </si>
   <si>
     <t xml:space="preserve">Sterna forsteri</t>
@@ -1543,7 +1543,7 @@
     <t xml:space="preserve">Rybitwa Czarnoucha</t>
   </si>
   <si>
-    <t xml:space="preserve">Franklin's Gull </t>
+    <t xml:space="preserve">Franklin's Gull</t>
   </si>
   <si>
     <t xml:space="preserve">Leucophaeus pipixcan</t>
@@ -1582,7 +1582,7 @@
     <t xml:space="preserve">Podejrzyj [card] ze stosu. Jeśli &lt;100 cm, wsuń kartę ofiary pod tę kartę. Jeśli nie spełnia warunku, odrzuć.</t>
   </si>
   <si>
-    <t xml:space="preserve">Grasshopper Sparrow </t>
+    <t xml:space="preserve">Grasshopper Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Ammodramus savannarum</t>
@@ -1618,7 +1618,7 @@
     <t xml:space="preserve">Zagraj drugiego ptaka na [wetland]. Zapłać jego standardowy koszt.</t>
   </si>
   <si>
-    <t xml:space="preserve">Great Crested Flycatcher </t>
+    <t xml:space="preserve">Great Crested Flycatcher</t>
   </si>
   <si>
     <t xml:space="preserve">Myiarchus crinitus</t>
@@ -1654,7 +1654,7 @@
     <t xml:space="preserve">Czapla Biała</t>
   </si>
   <si>
-    <t xml:space="preserve">Great Horned Owl </t>
+    <t xml:space="preserve">Great Horned Owl</t>
   </si>
   <si>
     <t xml:space="preserve">Bubo virginianus</t>
@@ -1690,7 +1690,7 @@
     <t xml:space="preserve">Możesz wsunąć maksymalnie tyle kart, ile wynosi liczba kostek akcji wybranego gracza w danym siedlisku.</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater Prairie Chicken </t>
+    <t xml:space="preserve">Greater Prairie Chicken</t>
   </si>
   <si>
     <t xml:space="preserve">Tympanuchus cupido</t>
@@ -1699,7 +1699,7 @@
     <t xml:space="preserve">Preriokur Dwuczuby</t>
   </si>
   <si>
-    <t xml:space="preserve">Greater Roadrunner </t>
+    <t xml:space="preserve">Greater Roadrunner</t>
   </si>
   <si>
     <t xml:space="preserve">Geococcyx californianus</t>
@@ -1870,7 +1870,7 @@
     <t xml:space="preserve">Połóż 1 [egg] na każdej swojej karcie ptaka z gniazdem [platform].</t>
   </si>
   <si>
-    <t xml:space="preserve">Indigo Bunting </t>
+    <t xml:space="preserve">Indigo Bunting</t>
   </si>
   <si>
     <t xml:space="preserve">Passerina cyanea</t>
@@ -1882,7 +1882,7 @@
     <t xml:space="preserve">Weź 1 [invertebrate] albo [fruit] z karmnika (jeśli są dostępne).</t>
   </si>
   <si>
-    <t xml:space="preserve">Juniper Titmouse </t>
+    <t xml:space="preserve">Juniper Titmouse</t>
   </si>
   <si>
     <t xml:space="preserve">Baeolophus ridgwayi</t>
@@ -1909,7 +1909,7 @@
     <t xml:space="preserve">Wodnik Królewski</t>
   </si>
   <si>
-    <t xml:space="preserve">Lazuli Bunting </t>
+    <t xml:space="preserve">Lazuli Bunting</t>
   </si>
   <si>
     <t xml:space="preserve">Passerina amoena</t>
@@ -2032,7 +2032,7 @@
     <t xml:space="preserve">Błotniak Łąkowy</t>
   </si>
   <si>
-    <t xml:space="preserve">Mountain Bluebird </t>
+    <t xml:space="preserve">Mountain Bluebird</t>
   </si>
   <si>
     <t xml:space="preserve">Sialia currucoides</t>
@@ -2041,7 +2041,7 @@
     <t xml:space="preserve">Błękitnik Górski</t>
   </si>
   <si>
-    <t xml:space="preserve">Mountain Chickadee </t>
+    <t xml:space="preserve">Mountain Chickadee</t>
   </si>
   <si>
     <t xml:space="preserve">Poecile gambeli</t>
@@ -2050,7 +2050,7 @@
     <t xml:space="preserve">Sikora Górska</t>
   </si>
   <si>
-    <t xml:space="preserve">Mourning Dove </t>
+    <t xml:space="preserve">Mourning Dove</t>
   </si>
   <si>
     <t xml:space="preserve">Zenaida macroura</t>
@@ -2083,7 +2083,7 @@
     <t xml:space="preserve">Przepiór Wirginijski</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern Cardinal </t>
+    <t xml:space="preserve">Northern Cardinal</t>
   </si>
   <si>
     <t xml:space="preserve">Cardinalis cardinalis</t>
@@ -2125,7 +2125,7 @@
     <t xml:space="preserve">Jastrząb Zwyczajny</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern Harrier </t>
+    <t xml:space="preserve">Northern Harrier</t>
   </si>
   <si>
     <t xml:space="preserve">Circus cyaneus</t>
@@ -2134,7 +2134,7 @@
     <t xml:space="preserve">Błotniak Zbożowy</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern Mockingbird </t>
+    <t xml:space="preserve">Northern Mockingbird</t>
   </si>
   <si>
     <t xml:space="preserve">Mimus polyglottos</t>
@@ -2143,7 +2143,7 @@
     <t xml:space="preserve">Przedrzeźniacz Północny</t>
   </si>
   <si>
-    <t xml:space="preserve">Northern Shoveler </t>
+    <t xml:space="preserve">Northern Shoveler</t>
   </si>
   <si>
     <t xml:space="preserve">Spatula clypeata</t>
@@ -2167,7 +2167,7 @@
     <t xml:space="preserve">Wszyscy gracze otrzymują 1 [fish] z zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">Painted Bunting </t>
+    <t xml:space="preserve">Painted Bunting</t>
   </si>
   <si>
     <t xml:space="preserve">Passerina ciris</t>
@@ -2200,7 +2200,7 @@
     <t xml:space="preserve">Otrzymujesz [seed] bez względu na to, jaką kość pożywienia usunąłeś z karmnika.</t>
   </si>
   <si>
-    <t xml:space="preserve">Peregrine Falcon </t>
+    <t xml:space="preserve">Peregrine Falcon</t>
   </si>
   <si>
     <t xml:space="preserve">Falco peregrinus</t>
@@ -2209,7 +2209,7 @@
     <t xml:space="preserve">Sokół Wędrowny</t>
   </si>
   <si>
-    <t xml:space="preserve">Pied-Billed Grebe </t>
+    <t xml:space="preserve">Pied-Billed Grebe</t>
   </si>
   <si>
     <t xml:space="preserve">Podilymbus podiceps</t>
@@ -2218,7 +2218,7 @@
     <t xml:space="preserve">Perkoz Grubodzioby</t>
   </si>
   <si>
-    <t xml:space="preserve">Pileated Woodpecker </t>
+    <t xml:space="preserve">Pileated Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Dryocopus pileatus</t>
@@ -2248,7 +2248,7 @@
     <t xml:space="preserve">Bursztynka</t>
   </si>
   <si>
-    <t xml:space="preserve">Purple Gallinule </t>
+    <t xml:space="preserve">Purple Gallinule</t>
   </si>
   <si>
     <t xml:space="preserve">Porphyrio martinicus</t>
@@ -2320,7 +2320,7 @@
     <t xml:space="preserve">Zabierz 1 [invertebrate] z zasobów innego gracza i przechowaj na tej karcie. Ten gracz bierze 1 [die] z karmnika.</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Bellied Woodpecker </t>
+    <t xml:space="preserve">Red-Bellied Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Melanerpes carolinus</t>
@@ -2338,7 +2338,7 @@
     <t xml:space="preserve">Szlachar</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Breasted Nuthatch </t>
+    <t xml:space="preserve">Red-Breasted Nuthatch</t>
   </si>
   <si>
     <t xml:space="preserve">Sitta canadensis</t>
@@ -2347,7 +2347,7 @@
     <t xml:space="preserve">Kowalik Czarnogłowy</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Cockaded Woodpecker </t>
+    <t xml:space="preserve">Red-Cockaded Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Picoides borealis</t>
@@ -2356,7 +2356,7 @@
     <t xml:space="preserve">Dzięcioł Skromny</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Eyed Vireo </t>
+    <t xml:space="preserve">Red-Eyed Vireo</t>
   </si>
   <si>
     <t xml:space="preserve">Vireo olivaceus</t>
@@ -2365,7 +2365,7 @@
     <t xml:space="preserve">Wireonek Czerwonooki</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Headed Woodpecker </t>
+    <t xml:space="preserve">Red-Headed Woodpecker</t>
   </si>
   <si>
     <t xml:space="preserve">Melanerpes erythrocephalus</t>
@@ -2386,7 +2386,7 @@
     <t xml:space="preserve">Złóż 1 [egg] na każdej karcie ptaka w tej kolumnie, włączając tę kartę.</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Shouldered Hawk </t>
+    <t xml:space="preserve">Red-Shouldered Hawk</t>
   </si>
   <si>
     <t xml:space="preserve">Buteo lineatus</t>
@@ -2395,7 +2395,7 @@
     <t xml:space="preserve">Myszołów Rdzawoskrzydły</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Tailed Hawk </t>
+    <t xml:space="preserve">Red-Tailed Hawk</t>
   </si>
   <si>
     <t xml:space="preserve">Buteo jamaicensis</t>
@@ -2404,7 +2404,7 @@
     <t xml:space="preserve">Myszołów Rdzawosterny</t>
   </si>
   <si>
-    <t xml:space="preserve">Red-Winged Blackbird </t>
+    <t xml:space="preserve">Red-Winged Blackbird</t>
   </si>
   <si>
     <t xml:space="preserve">Agelaius phoeniceus</t>
@@ -2422,7 +2422,7 @@
     <t xml:space="preserve">Mewa Delawarska</t>
   </si>
   <si>
-    <t xml:space="preserve">Rose-Breasted Grosbeak </t>
+    <t xml:space="preserve">Rose-Breasted Grosbeak</t>
   </si>
   <si>
     <t xml:space="preserve">Pheucticus ludovicianus</t>
@@ -2434,7 +2434,7 @@
     <t xml:space="preserve">Weź 1 [seed] albo [fruit] z karmnika (jeśli są dostępne).</t>
   </si>
   <si>
-    <t xml:space="preserve">Roseate Spoonbill </t>
+    <t xml:space="preserve">Roseate Spoonbill</t>
   </si>
   <si>
     <t xml:space="preserve">Platalea ajaja</t>
@@ -2443,7 +2443,7 @@
     <t xml:space="preserve">Warzęcha Różowa</t>
   </si>
   <si>
-    <t xml:space="preserve">Ruby-Crowned Kinglet </t>
+    <t xml:space="preserve">Ruby-Crowned Kinglet</t>
   </si>
   <si>
     <t xml:space="preserve">Regulus calendula</t>
@@ -2491,7 +2491,7 @@
     <t xml:space="preserve">Żuraw Kanadyjski</t>
   </si>
   <si>
-    <t xml:space="preserve">Savannah Sparrow </t>
+    <t xml:space="preserve">Savannah Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Passerculus sandwichensis</t>
@@ -2539,7 +2539,7 @@
     <t xml:space="preserve">Złóż 1 [egg] na tej karcie.</t>
   </si>
   <si>
-    <t xml:space="preserve">Scissor-Tailed Flycatcher </t>
+    <t xml:space="preserve">Scissor-Tailed Flycatcher</t>
   </si>
   <si>
     <t xml:space="preserve">Tyrannus forficatus</t>
@@ -2572,7 +2572,7 @@
     <t xml:space="preserve">Gdy inny gracz z jakiegokolwiek powodu wsuwa [card], wsuń 1 [card] z ręki pod tę kartę. Następnie dobierz 1 [card] na koniec jego tury.</t>
   </si>
   <si>
-    <t xml:space="preserve">Snowy Egret </t>
+    <t xml:space="preserve">Snowy Egret</t>
   </si>
   <si>
     <t xml:space="preserve">Egretta thula</t>
@@ -2590,7 +2590,7 @@
     <t xml:space="preserve">Puchacz Śnieżny</t>
   </si>
   <si>
-    <t xml:space="preserve">Song Sparrow </t>
+    <t xml:space="preserve">Song Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Melospiza melodia</t>
@@ -2608,7 +2608,7 @@
     <t xml:space="preserve">Puszczyk Plamisty</t>
   </si>
   <si>
-    <t xml:space="preserve">Spotted Sandpiper </t>
+    <t xml:space="preserve">Spotted Sandpiper</t>
   </si>
   <si>
     <t xml:space="preserve">Actitis macularius</t>
@@ -2617,7 +2617,7 @@
     <t xml:space="preserve">Brodziec Plamisty</t>
   </si>
   <si>
-    <t xml:space="preserve">Spotted Towhee </t>
+    <t xml:space="preserve">Spotted Towhee</t>
   </si>
   <si>
     <t xml:space="preserve">Pipilo maculatus</t>
@@ -2680,7 +2680,7 @@
     <t xml:space="preserve">Odrzuć 1 [seed] ze swoich zasobów. Jeśli to zrobisz, złóż 2 [egg] na tej karcie.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tree Swallow </t>
+    <t xml:space="preserve">Tree Swallow</t>
   </si>
   <si>
     <t xml:space="preserve">Tachycineta bicolor</t>
@@ -2728,7 +2728,7 @@
     <t xml:space="preserve">Wsuń [card] z ręki pod tę kartę. Jeśli to zrobisz, weź 1 [invertebrate] z zasobów.</t>
   </si>
   <si>
-    <t xml:space="preserve">Violet-Green Swallow </t>
+    <t xml:space="preserve">Violet-Green Swallow</t>
   </si>
   <si>
     <t xml:space="preserve">Tachycineta thalassina</t>
@@ -2791,7 +2791,7 @@
     <t xml:space="preserve">Jeśli wszystkie kości w karmniku wskazują ten sam symbol, możesz go opróżnić i ponownie napełnić przed pobraniem [die].</t>
   </si>
   <si>
-    <t xml:space="preserve">White-Breasted Nuthatch </t>
+    <t xml:space="preserve">White-Breasted Nuthatch</t>
   </si>
   <si>
     <t xml:space="preserve">Sitta carolinensis</t>
@@ -2800,7 +2800,7 @@
     <t xml:space="preserve">Kowalik Karoliński</t>
   </si>
   <si>
-    <t xml:space="preserve">White-Crowned Sparrow </t>
+    <t xml:space="preserve">White-Crowned Sparrow</t>
   </si>
   <si>
     <t xml:space="preserve">Zonotrichia leucophrys</t>
@@ -2809,7 +2809,7 @@
     <t xml:space="preserve">Pasówka Białobrewa</t>
   </si>
   <si>
-    <t xml:space="preserve">White-Faced Ibis </t>
+    <t xml:space="preserve">White-Faced Ibis</t>
   </si>
   <si>
     <t xml:space="preserve">Plegadis chihi</t>
@@ -2902,7 +2902,7 @@
     <t xml:space="preserve">Dławigad Amerykański</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow-Bellied Sapsucker </t>
+    <t xml:space="preserve">Yellow-Bellied Sapsucker</t>
   </si>
   <si>
     <t xml:space="preserve">Sphyrapicus varius</t>
@@ -2920,7 +2920,7 @@
     <t xml:space="preserve">Kukawik Żółtodzioby</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow-Breasted Chat </t>
+    <t xml:space="preserve">Yellow-Breasted Chat</t>
   </si>
   <si>
     <t xml:space="preserve">Icteria virens</t>
@@ -2929,7 +2929,7 @@
     <t xml:space="preserve">Słowikówka</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow-Headed Blackbird </t>
+    <t xml:space="preserve">Yellow-Headed Blackbird</t>
   </si>
   <si>
     <t xml:space="preserve">Xanthocephalus xanthocephalus</t>
@@ -2938,7 +2938,7 @@
     <t xml:space="preserve">Żółtogłowiec</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow-Rumped Warbler </t>
+    <t xml:space="preserve">Yellow-Rumped Warbler</t>
   </si>
   <si>
     <t xml:space="preserve">Setophaga coronata</t>
@@ -6031,30 +6031,6 @@
     <t xml:space="preserve">Szereg ptaków w [wetland] o rosnącej albo malejącej rozpiętości skrzydeł.</t>
   </si>
   <si>
-    <t xml:space="preserve">[automa] Avid Asian Avian Admirer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[automa] Zagorzały miłośnik ptaków azjatyckich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;table&gt;&lt;th&gt;Poziom trudności&lt;/th&gt;&lt;th&gt;Ptaki warte&lt;/th&gt;&lt;tr&gt;&lt;td&gt;Orlę&lt;/td&gt;&lt;td&gt;&lt;b&gt;2&lt;/b&gt; albo &lt;b&gt;3&lt;/b&gt; punkty&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Orzeł&lt;/td&gt;&lt;td&gt;&lt;b&gt;3&lt;/b&gt; albo &lt;b&gt;4&lt;/b&gt; punkty&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Szybujący orzeł&lt;/td&gt;&lt;td&gt;&lt;b&gt;4&lt;/b&gt; albo &lt;b&gt;5&lt;/b&gt; punktów&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(Zaczyna od kart z niższą wartością).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[automa] Rare Species Lister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[automa] Znawca rzadkich gatunków</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;table&gt;&lt;th&gt;Poziom trudności&lt;/th&gt;&lt;th&gt;Ptaki warte&lt;/th&gt;&lt;tr&gt;&lt;td&gt;Orlę&lt;/td&gt;&lt;td&gt;&lt;b&gt;4&lt;/b&gt;, &lt;b&gt;5&lt;/b&gt; albo &lt;b&gt;6&lt;/b&gt; punktów&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Orzeł&lt;/td&gt;&lt;td&gt;&lt;b&gt;5&lt;/b&gt;, &lt;b&gt;6&lt;/b&gt; albo &lt;b&gt;7&lt;/b&gt; punktów&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Szybujący orzeł&lt;/td&gt;&lt;td&gt;&lt;b&gt;6&lt;/b&gt;, &lt;b&gt;7&lt;/b&gt; albo &lt;b&gt;8&lt;/b&gt; punktów&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automa zatrzymuje kartę o najniższej wartości.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avian Theriogenologist</t>
   </si>
   <si>
@@ -6273,6 +6249,30 @@
   </si>
   <si>
     <t xml:space="preserve">Policz, ile niewykorzystanych żetonów pożywienia masz na koniec gry w swoich zasobach. Pożywienie przechowywane na kartach ptaków nie liczy się jako część zasobów.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[automa] Avid Asian Avian Admirer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[automa] Zagorzały miłośnik ptaków azjatyckich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;table&gt;&lt;th&gt;Poziom trudności&lt;/th&gt;&lt;th&gt;Ptaki warte&lt;/th&gt;&lt;tr&gt;&lt;td&gt;Orlę&lt;/td&gt;&lt;td&gt;&lt;b&gt;2&lt;/b&gt; albo &lt;b&gt;3&lt;/b&gt; punkty&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Orzeł&lt;/td&gt;&lt;td&gt;&lt;b&gt;3&lt;/b&gt; albo &lt;b&gt;4&lt;/b&gt; punkty&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Szybujący orzeł&lt;/td&gt;&lt;td&gt;&lt;b&gt;4&lt;/b&gt; albo &lt;b&gt;5&lt;/b&gt; punktów&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Zaczyna od kart z niższą wartością).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[automa] Rare Species Lister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[automa] Znawca rzadkich gatunków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;table&gt;&lt;th&gt;Poziom trudności&lt;/th&gt;&lt;th&gt;Ptaki warte&lt;/th&gt;&lt;tr&gt;&lt;td&gt;Orlę&lt;/td&gt;&lt;td&gt;&lt;b&gt;4&lt;/b&gt;, &lt;b&gt;5&lt;/b&gt; albo &lt;b&gt;6&lt;/b&gt; punktów&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Orzeł&lt;/td&gt;&lt;td&gt;&lt;b&gt;5&lt;/b&gt;, &lt;b&gt;6&lt;/b&gt; albo &lt;b&gt;7&lt;/b&gt; punktów&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Szybujący orzeł&lt;/td&gt;&lt;td&gt;&lt;b&gt;6&lt;/b&gt;, &lt;b&gt;7&lt;/b&gt; albo &lt;b&gt;8&lt;/b&gt; punktów&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automa zatrzymuje kartę o najniższej wartości.</t>
   </si>
   <si>
     <t xml:space="preserve">Translated</t>
@@ -6507,7 +6507,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6515,7 +6515,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6568,6 +6568,112 @@
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -6575,8 +6681,10 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="C271" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G271" activeCellId="0" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18824,7 +18932,7 @@
       <c r="J433" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K433" s="0" t="s">
+      <c r="K433" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -19255,8 +19363,10 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19265,7 +19375,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="53.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.88"/>
@@ -20227,7 +20337,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>1956</v>
@@ -20235,166 +20345,169 @@
       <c r="C40" s="11" t="s">
         <v>1381</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="1" t="s">
         <v>1957</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="1" t="s">
         <v>1959</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>1928</v>
+      <c r="G40" s="9" t="s">
+        <v>1960</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>1961</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1960</v>
+        <v>1962</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>1381</v>
       </c>
-      <c r="D41" s="9" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>1962</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="D41" s="1" t="s">
         <v>1963</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>1965</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>1381</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>1381</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1973</v>
+        <v>1936</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>1974</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
-        <v>1041</v>
+      <c r="A44" s="9" t="n">
+        <v>1043</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>1381</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>1980</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>1381</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>1982</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>1983</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>1936</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1984</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="9" t="n">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>1381</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>1986</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>1987</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>1978</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>1979</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>1988</v>
@@ -20408,39 +20521,45 @@
       <c r="E47" s="1" t="s">
         <v>1990</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>1991</v>
+      </c>
       <c r="G47" s="9" t="s">
-        <v>1936</v>
+        <v>1818</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>1984</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="9" t="n">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>1381</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1992</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>1993</v>
+        <v>1994</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>1970</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1994</v>
+        <v>1971</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>1995</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>1996</v>
@@ -20454,45 +20573,39 @@
       <c r="E49" s="1" t="s">
         <v>1998</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>1999</v>
-      </c>
       <c r="G49" s="9" t="s">
-        <v>1818</v>
+        <v>1936</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2000</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="9" t="n">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>1381</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>2002</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>2003</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>1978</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>1979</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>1980</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>2004</v>
@@ -20500,39 +20613,36 @@
       <c r="C51" s="11" t="s">
         <v>1381</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="9" t="s">
         <v>2005</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="9" t="s">
         <v>2006</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>1936</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>1984</v>
+      <c r="F51" s="4" t="s">
+        <v>2007</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>1928</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="9" t="n">
-        <v>1049</v>
+      <c r="A52" s="2" t="n">
+        <v>1051</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>1381</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>2008</v>
-      </c>
-      <c r="E52" s="1" t="s">
+      <c r="D52" s="9" t="s">
         <v>2009</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="E52" s="9" t="s">
         <v>2010</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="G52" s="4" t="s">
         <v>2011</v>
       </c>
     </row>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3525" uniqueCount="2025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="2027">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -6284,19 +6286,19 @@
     <t xml:space="preserve">Gdy aktywujesz</t>
   </si>
   <si>
-    <t xml:space="preserve">WHEN PLAYED</t>
+    <t xml:space="preserve">WHEN PLAYED</t>
   </si>
   <si>
     <t xml:space="preserve">Gdy zagrywasz</t>
   </si>
   <si>
-    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
+    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
   </si>
   <si>
     <t xml:space="preserve">Raz między turami</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUND END</t>
+    <t xml:space="preserve">ROUND END</t>
   </si>
   <si>
     <t xml:space="preserve">Koniec rundy</t>
@@ -6308,18 +6310,27 @@
     <t xml:space="preserve">Koniec gry</t>
   </si>
   <si>
-    <t xml:space="preserve">of cards</t>
+    <t xml:space="preserve">of cards</t>
   </si>
   <si>
     <t xml:space="preserve">kart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show bonus cards match symbols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -6445,7 +6456,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6494,6 +6505,22 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6521,6 +6548,10 @@
     </dxf>
   </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19363,7 +19394,7 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
@@ -19375,7 +19406,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="53.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="53.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.88"/>
@@ -20668,7 +20699,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20685,7 +20716,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2013</v>
       </c>
@@ -20693,7 +20724,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>2015</v>
       </c>
@@ -20701,7 +20732,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>2017</v>
       </c>
@@ -20709,7 +20740,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>2019</v>
       </c>
@@ -20717,7 +20748,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>2021</v>
       </c>
@@ -20725,7 +20756,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>2023</v>
       </c>
@@ -20745,4 +20776,51 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B2" s="15" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -5,16 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Goals" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Other" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Goals!$A$1:$F$47</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3528" uniqueCount="2027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3745" uniqueCount="2177">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -288,7 +290,7 @@
     <t xml:space="preserve">Dobierz 2 karty bonusowe i zatrzymaj 1 z nich.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dobierz 2 karty bonusowe, wybierz i zatrzymaj jedną z nich, a drugą odrzuć. Jeśli stos kart bonusowych się wyczerpie, potasujcie odrzucone karty i uformujcie nowy zakryty stos.&lt;br&gt; Ptaki obdarzone tą zdolnością są gatunkami zagrożonymi lub przewiduje się, że mogą się wkrótce takimi stać wskutek znacznego zmniejszenia się ich populacji.</t>
+    <t xml:space="preserve">Dobierz 2 karty bonusowe, wybierz i zatrzymaj jedną z nich, a drugą odrzuć. Jeśli stos kart bonusowych się wyczerpie, potasujcie odrzucone karty i uformujcie nowy zakryty stos.&lt;br&gt;Ptaki obdarzone tą zdolnością są gatunkami zagrożonymi lub przewiduje się, że mogą się wkrótce takimi stać wskutek znacznego zmniejszenia się ich populacji.</t>
   </si>
   <si>
     <t xml:space="preserve">Audouin's Gull</t>
@@ -6275,6 +6277,456 @@
   </si>
   <si>
     <t xml:space="preserve">Automa zatrzymuje kartę o najniższej wartości.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanatory Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] w [forest]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę ptaków, jakie aktualnie masz &lt;b&gt;w tym konkretnym rzędzie.&lt;/b&gt;&lt;br&gt;&lt;i&gt;Istnieje 1 kopia tego celu dla każdego siedliska.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] w [grassland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] w [wetland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[egg] w [forest]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę jaj leżących na ptakach &lt;b&gt;w tym konkretnym rzędzie.&lt;/b&gt; Licz wszystkie sztuki, nawet leżące na 1 karcie.&lt;br&gt;&lt;i&gt;Istnieje 1 kopia tego celu dla każdego siedliska.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[egg] w [grassland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[egg] w [wetland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavity Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cavity] [bird] z [egg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę &lt;b&gt;ptaków wijących dany typ gniazda&lt;/b&gt; (liczą się też gniazda z symbolem gwiazdy), na których leży co najmniej 1 jajo. Licz ptaki, a nie jaja.&lt;br&gt;&lt;i&gt;Istnieje 1 kopia tego celu dla każdego typu gniazda.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bowl] [bird] z [egg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ground] [bird] z [egg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[platform] [bird] z [egg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Cavity Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[egg] w [cavity]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę jaj leżących na ptakach wijących &lt;b&gt;dany typ gniazda&lt;/b&gt; (liczą się też gniazda z symbolem gwiazdy). Licz wszystkie sztuki, nawet leżące na 1 karcie.&lt;br&gt;&lt;i&gt;Istnieje 1 kopia tego celu dla każdego typu gniazda.&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Bowl Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[egg] w [bowl]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Ground Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[egg] w [ground]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Platform Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[egg] w [platform]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets of Eggs in 3 Habitats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zestawy [egg][egg][egg] w [wetland][grassland][forest]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 zestaw jaj składa się z 1 jaja w lesie, 1 jaja na łące i 1 na mokradłach. Policz liczbę takich zestawów.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wszystkie [bird]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę wszystkich zagranych kart ptaków.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food in Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Żywność w zasobach własnych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[wild] w zasobach własnych</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę żetonów pożywienia w swoich zasobach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Cards in Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karty ptaków na ręce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[card] na ręce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę wszystkich kart ptaków na ręce.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth over 4 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptaki warte &gt;4 punkty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] warte &gt;4[point]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę zagranych przez siebie kart ptaków, których nadrukowana wartość wynosi więcej niż 4 punkty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with No Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptaki bez jaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] bez [egg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę zagranych przez siebie kart ptaków, na których nie leżą żadne jaja w momencie punktowania tego celu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds in 1 Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptaki w 1 rzędzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] w 1 rzędzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę zagranych przez siebie kart ptaków w rzędzie, w którym masz ich najwięcej.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zapełnione kolumny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zapełnione kolumny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę kolumn, w których są zapełnione wszystkie 3 pola ptaków.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brązowe zdolności</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brązowe zdolności</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę zagranych przez siebie kart ptaków z brązową zdolnością „GDY AKTYWUJESZ”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White &amp; No Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zdolności bez koloru i brak zdolności</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę zagranych przez siebie kart ptaków, które mają zdolność „GDY ZAGRYWASZ” albo nie mają żadnej zdolności.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with Tucked Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptaki z wsuniętymi kartami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[flocking] ptaki z wsuniętymi kartami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę zagranych przez siebie kart ptaków, pod którymi znajduje się co najmniej 1 wsunięta karta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Cost of Played Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koszt w pożywieniu zagranych ptaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koszt w pożywieniu zagranych [bird]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz koszt w pożywieniu na zagranych przez siebie kartach ptaków, pamiętając, aby policzyć tylko 1 rodzaj pożywienia z kart ptaków, które mają możliwość wyboru rodzaju pożywienia (z ukośnikiem).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bezkręgowiec w koszcie Twoich ptaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[invertebrate] w koszcie twoich ptaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę symboli wskazanego rodzaju pożywienia na zagranych przez siebie kartach ptaków. Na przykład, jeśli cel brzmi „[fruit]+[seed] w koszcie Twoich ptaków”, policz wszystkie [fruit] i [seed], które znajdują się w lewym górnym rogu wszystkich zagranych przez Ciebie kart na Twojej planszy. Pamiętaj, aby policzyć tylko 1 rodzaj pożywienia z kart ptaków, które mają możliwość wyboru rodzaju pożywienia np. „[fruit]/[seed]” (te ptaki kosztowały Cię [fruit] ALBO [seed]). Nie licz [wild] ani [nectar].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owoc + Ziarno w koszcie Twoich ptaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[fruit] + [seed] w koszcie twoich ptaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gryzoń + Ryba w koszcie Twoich ptaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[rodent] + [fish] w koszcie twoich ptaków</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brak celu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brak celu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na koniec danej rundy nie punktujecie żadnego celu. Nie odkładajcie w tej rundzie żadnych kostek akcji na planszę celów. We wszystkich kolejnych rundach rozgrywacie o 1 turę więcej.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwrócone dziobem w lewo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[beak-left] zwrócone dziobem w lewo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Te cele zapewniają punkty za ptaki zwrócone dziobem w określonym kierunku. Do tych celów nie wliczają się ptaki z dziobem skierowanym na wprost albo w górę.&lt;br&gt;Cele związane z kierunkiem dzioba zostały stworzone po to, abyście mieli kolejny powód do przyjrzenia się pięknym ilustracjom. Po przejrzeniu wszystkich kart uznaliśmy, że określenie, w którą stronę skierowany jest dziób ptaka, nie powinno sprawiać trudności. Jeśli jednak uznacie, że jest to kwestia dyskusyjna, usuńcie ten żeton celu z gry. Kilka ptaków wymaga jednak dodatkowych wyjaśnień:&lt;br&gt;&lt;ul&gt;&lt;li&gt;Skrętodziób ma dziób skierowany w lewo, chociaż patrzy przed siebie.&lt;/li&gt;&lt;li&gt;Na karcie nura lodowca (z gry podstawowej) znajdują się 2 ptaki zwrócone dziobami w przeciwnym kierunku, więc punktuje oba cele.&lt;/li&gt;&lt;li&gt;Na karcie perkoza dwuczubego (z dodatku Ptaki Europy) znajdują się 2 ptaki zwrócone dziobami w tym samym kierunku. Na potrzeby celu ta karta liczy się tylko raz.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Poniżej prezentujemy listę ptaków, które nie są zwrócone dziobem ani w prawo, ani w lewo.&lt;br&gt;&lt;b&gt;Gra podstawowa&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Górniczek zwyczajny&lt;/li&gt;&lt;li&gt;Kondor kalifornijski&lt;/li&gt;&lt;li&gt;Płomykówka zwyczajna&lt;/li&gt;&lt;li&gt;Pójdźka ziemna&lt;/li&gt;&lt;li&gt;Puchacz wirginijski&lt;/li&gt;&lt;li&gt;Puszczyk kreskowany&lt;/li&gt;&lt;li&gt;Puszczyk plamisty&lt;/li&gt;&lt;li&gt;Syczoń krzykliwy&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ptaki Europy&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Pełzacz ogrodowy&lt;/li&gt;&lt;li&gt;Pójdźka zwyczajna&lt;/li&gt;&lt;li&gt;Puchacz śnieżny&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ptaki Oceanii&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Kakapo&lt;/li&gt;&lt;li&gt;Sownik australijski&lt;/li&gt;&lt;li&gt;Sowica maskowa&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ptaki Azji&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Biegus łyżkodzioby&lt;/li&gt;&lt;li&gt;Gębal cejloński&lt;/li&gt;&lt;li&gt;Pójdźka leśna&lt;/li&gt;&lt;li&gt;Puchacz zwyczajny&lt;/li&gt;&lt;li&gt;Puchówka&lt;/li&gt;&lt;li&gt;Wąsatka&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwrócone dziobem w prawo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[beak-right] zwrócone dziobem w prawo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubes on "Play a Bird"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kostki akcji w rzędzie „zagraj kartę”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cube] w rzędzie „zagraj kartę”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz liczbę kostek, jakie w tej rundzie umieściłeś w rzędzie „Zagraj kartę”. Pamiętaj, że ten cel wymaga zachowania kostek akcji na planszy aż do zakończenia rundy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] warte ≤3[point]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Matching Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pary pasujących symboli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] na parach pasujących symboli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz, ile Twoich znaczników duetu znajduje się na parach pól z identycznymi symbolami. Symbole muszą być takie same, np. 2 gryzonie albo 2 pola rozpiętości skrzydeł &lt;50 cm. Bonusy tych pól nie muszą do siebie pasować. Każdy znacznik liczy się tylko raz. Jeśli masz 4 znaczniki na polach z identycznymi symbolami, liczą się jako 2 pary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nest Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbole gniazd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] na [bowl][cavity][ground][platform]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz wszystkie swoje znaczniki duetu na polach z symbolem gniazda ([bowl], [cavity], [ground], [platform]). Symbole mogą się powtarzać (np.. oba znaczniki na 2 różnych polach [platform] się liczą).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symbole pożywienia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] na [fish][fruit][rodent][seed][invertebrate]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz wszystkie swoje znaczniki duetu na polach z symbolem pożywienia ([fruit], [seed], [invertebrate], [rodent], [fish]). Symbole mogą się powtarzać (np.. oba znaczniki na 2 różnych polach [fish] się liczą).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not on Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nie na skraju mapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] nie na skraju mapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Każda krawędź mapy ma 6 pól. Na każdej z bocznych krawędzi znajdują się 3 pola przesunięte do środka, które wciąż są na skraju. Na mapie jest w sumie 20 pól zewnętrznych i 16 pól wewnętrznych. Policz, ile Twoich znaczników znajduje się na skraju mapy (pola zewnętrzne) albo nie na skraju (pola wewnętrzne).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na skraju mapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] na skraju mapy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokens in Any One Horizontal Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Znaczniki w 1 dowolnym poziomym rzędzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] w 1 dowolnym poziomym rzędzie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybierz najkorzystniejszy dla siebie poziomy rząd i policz, ile Twoich znaczników duetu się w nim znajduje. Znaczniki nie muszą leżeć obok siebie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Rows with at Least One of Your Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poziome rzędy z przynajmniej 1 Twoim znacznikiem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poziome rzędy z przynajmniej 1 Twoim [duet-token]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz, w ilu spośród wszystkich 6 poziomych rzędów znajduje się przynajmniej 1 Twój znacznik duetu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewest Tokens on Bonus Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Najmniej znaczników na polach z bonusami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">najmniej [duet-token] na polach z bonusami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonusy na polach mapy zapewniają [dice]/[egg]/[card], gdy umieści się na nich znacznik. Policz, ile Twoich znaczników jest na tych 9 polach. Cel zostaje osiągnięty przez gracza z najmniejszą liczbą takich znaczników.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W lesie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] w [forest]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz, ile Twoich znaczników na mapie znajduje się we wskazanym siedlisku. Ich liczba na mapie może się różnić od liczby ptaków w tym siedlisku na Twojej planszy, jeśli w trakcie gry karty ptaków były przemieszczane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na łące</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] w [grassland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na mokradłach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[duet-token] w [wetland]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Duet Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suma znaczników na mapie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suma [duet-token] na mapie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policz, ile Twoich znaczników duetu znajduje się na mapie. Ich liczba na mapie może się różnić od liczby ptaków na Twojej planszy, jeśli w trakcie gry karty ptaków były przemieszczane.</t>
   </si>
   <si>
     <t xml:space="preserve">Translated</t>
@@ -6456,7 +6908,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6505,19 +6957,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6554,6 +7002,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K447" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:K447"/>
@@ -6574,8 +7026,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="bonuses" displayName="bonuses" ref="A1:H39" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:H39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="bonuses" displayName="bonuses" ref="A1:H52" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H52"/>
   <tableColumns count="8">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
@@ -6713,9 +7165,11 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="C271" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C414" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G271" activeCellId="0" sqref="G271"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A414" activeCellId="0" sqref="A414"/>
+      <selection pane="bottomRight" activeCell="G432" activeCellId="0" sqref="G432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19394,15 +19848,17 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E51" activeCellId="0" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.67"/>
@@ -20696,10 +21152,952 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="51.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>2013</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="9" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="9" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>2020</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="9" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9" t="s">
+        <v>2024</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9" t="s">
+        <v>2028</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="9" t="s">
+        <v>2031</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>2032</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="9" t="s">
+        <v>2033</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>2034</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="9" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>2036</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="9" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="9" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="9" t="s">
+        <v>2042</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="9" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="9" t="s">
+        <v>2049</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>2056</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>2057</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>2060</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>2061</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>2069</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>2073</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>2084</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2098</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>2105</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="9" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>2158</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F47"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20713,55 +22111,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2012</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2013</v>
+        <v>2163</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2014</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2015</v>
+        <v>2165</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2016</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2017</v>
+        <v>2167</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2018</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>2019</v>
+        <v>2169</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2020</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>2021</v>
+        <v>2171</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2022</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>2023</v>
+        <v>2173</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2024</v>
+        <v>2174</v>
       </c>
     </row>
   </sheetData>
@@ -20778,36 +22176,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="12" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="2" t="s">
         <v>1785</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>2025</v>
+      <c r="B1" s="13" t="s">
+        <v>2175</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2026</v>
-      </c>
-      <c r="B2" s="15" t="b">
+      <c r="A2" s="1" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B2" s="14" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/i18n/pl.xlsx
+++ b/i18n/pl.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3745" uniqueCount="2177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3746" uniqueCount="2178">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -6564,7 +6564,7 @@
     <t xml:space="preserve">[beak-left] zwrócone dziobem w lewo</t>
   </si>
   <si>
-    <t xml:space="preserve">Te cele zapewniają punkty za ptaki zwrócone dziobem w określonym kierunku. Do tych celów nie wliczają się ptaki z dziobem skierowanym na wprost albo w górę.&lt;br&gt;Cele związane z kierunkiem dzioba zostały stworzone po to, abyście mieli kolejny powód do przyjrzenia się pięknym ilustracjom. Po przejrzeniu wszystkich kart uznaliśmy, że określenie, w którą stronę skierowany jest dziób ptaka, nie powinno sprawiać trudności. Jeśli jednak uznacie, że jest to kwestia dyskusyjna, usuńcie ten żeton celu z gry. Kilka ptaków wymaga jednak dodatkowych wyjaśnień:&lt;br&gt;&lt;ul&gt;&lt;li&gt;Skrętodziób ma dziób skierowany w lewo, chociaż patrzy przed siebie.&lt;/li&gt;&lt;li&gt;Na karcie nura lodowca (z gry podstawowej) znajdują się 2 ptaki zwrócone dziobami w przeciwnym kierunku, więc punktuje oba cele.&lt;/li&gt;&lt;li&gt;Na karcie perkoza dwuczubego (z dodatku Ptaki Europy) znajdują się 2 ptaki zwrócone dziobami w tym samym kierunku. Na potrzeby celu ta karta liczy się tylko raz.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Poniżej prezentujemy listę ptaków, które nie są zwrócone dziobem ani w prawo, ani w lewo.&lt;br&gt;&lt;b&gt;Gra podstawowa&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Górniczek zwyczajny&lt;/li&gt;&lt;li&gt;Kondor kalifornijski&lt;/li&gt;&lt;li&gt;Płomykówka zwyczajna&lt;/li&gt;&lt;li&gt;Pójdźka ziemna&lt;/li&gt;&lt;li&gt;Puchacz wirginijski&lt;/li&gt;&lt;li&gt;Puszczyk kreskowany&lt;/li&gt;&lt;li&gt;Puszczyk plamisty&lt;/li&gt;&lt;li&gt;Syczoń krzykliwy&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ptaki Europy&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Pełzacz ogrodowy&lt;/li&gt;&lt;li&gt;Pójdźka zwyczajna&lt;/li&gt;&lt;li&gt;Puchacz śnieżny&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ptaki Oceanii&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Kakapo&lt;/li&gt;&lt;li&gt;Sownik australijski&lt;/li&gt;&lt;li&gt;Sowica maskowa&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ptaki Azji&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Biegus łyżkodzioby&lt;/li&gt;&lt;li&gt;Gębal cejloński&lt;/li&gt;&lt;li&gt;Pójdźka leśna&lt;/li&gt;&lt;li&gt;Puchacz zwyczajny&lt;/li&gt;&lt;li&gt;Puchówka&lt;/li&gt;&lt;li&gt;Wąsatka&lt;/li&gt;&lt;/ul&gt;</t>
+    <t xml:space="preserve">Te cele zapewniają punkty za ptaki zwrócone dziobem w określonym kierunku. Do tych celów nie wliczają się ptaki z dziobem skierowanym na wprost albo w górę.&lt;br&gt;Cele związane z kierunkiem dzioba zostały stworzone po to, abyście mieli kolejny powód do przyjrzenia się pięknym ilustracjom. Po przejrzeniu wszystkich kart uznaliśmy, że określenie, w którą stronę skierowany jest dziób ptaka, nie powinno sprawiać trudności. Jeśli jednak uznacie, że jest to kwestia dyskusyjna, usuńcie ten żeton celu z gry. Kilka ptaków wymaga jednak dodatkowych wyjaśnień:&lt;br&gt;&lt;ul&gt;&lt;li&gt;Skrętodziób (dodatek &lt;i&gt;Ptaki Oceanii&lt;/i&gt;) ma dziób skierowany w lewo, chociaż patrzy przed siebie.&lt;/li&gt;&lt;li&gt;Nur lodowiec (gra podstawowa) oraz perkozek zwyczajny (dodatek &lt;i&gt;Ptaki Azji&lt;/i&gt;) mają na kartach ptaki z dziobami skierowanymi w obie strony, więc punktuje oba cele.&lt;/li&gt;&lt;li&gt;Perkoz dwuczuby (dodatek &lt;i&gt;Ptaki Europy&lt;/i&gt;) ma na karcie 2 ptaki z dziobami skierowanymi w tę samą stronę. Na potrzeby celu ta karta liczy się tylko raz.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Poniżej prezentujemy listę ptaków, które nie są zwrócone dziobem ani w prawo, ani w lewo.&lt;br&gt;&lt;b&gt;Gra podstawowa&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Górniczek zwyczajny&lt;/li&gt;&lt;li&gt;Kondor kalifornijski&lt;/li&gt;&lt;li&gt;Płomykówka zwyczajna&lt;/li&gt;&lt;li&gt;Pójdźka ziemna&lt;/li&gt;&lt;li&gt;Puchacz wirginijski&lt;/li&gt;&lt;li&gt;Puszczyk kreskowany&lt;/li&gt;&lt;li&gt;Puszczyk plamisty&lt;/li&gt;&lt;li&gt;Syczoń krzykliwy&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ptaki Europy&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Pełzacz ogrodowy&lt;/li&gt;&lt;li&gt;Pójdźka zwyczajna&lt;/li&gt;&lt;li&gt;Puchacz śnieżny&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ptaki Oceanii&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Kakapo&lt;/li&gt;&lt;li&gt;Sownik australijski&lt;/li&gt;&lt;li&gt;Sowica maskowa&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Ptaki Azji&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Biegus łyżkodzioby&lt;/li&gt;&lt;li&gt;Gębal cejloński&lt;/li&gt;&lt;li&gt;Pójdźka leśna&lt;/li&gt;&lt;li&gt;Puchacz zwyczajny&lt;/li&gt;&lt;li&gt;Puchówka&lt;/li&gt;&lt;li&gt;Wąsatka&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Beak Pointing Right</t>
@@ -6589,6 +6589,9 @@
   </si>
   <si>
     <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptaki warte ≤3 punkty</t>
   </si>
   <si>
     <t xml:space="preserve">[bird] warte ≤3[point]</t>
@@ -7169,7 +7172,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A414" activeCellId="0" sqref="A414"/>
-      <selection pane="bottomRight" activeCell="G432" activeCellId="0" sqref="G432"/>
+      <selection pane="bottomRight" activeCell="F417" activeCellId="1" sqref="F33 F417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19848,12 +19851,12 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E51" activeCellId="0" sqref="E51"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="H37" activeCellId="1" sqref="F33 H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21154,12 +21157,12 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21828,9 +21831,11 @@
       <c r="C35" s="9" t="s">
         <v>978</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>2116</v>
+      </c>
       <c r="E35" s="9" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="F35" s="9"/>
     </row>
@@ -21839,19 +21844,19 @@
         <v>2043</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21859,19 +21864,19 @@
         <v>2040</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21879,19 +21884,19 @@
         <v>2035</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21899,19 +21904,19 @@
         <v>2041</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21919,19 +21924,19 @@
         <v>2042</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21939,19 +21944,19 @@
         <v>2044</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21959,19 +21964,19 @@
         <v>2036</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21979,19 +21984,19 @@
         <v>2034</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21999,19 +22004,19 @@
         <v>2037</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22019,19 +22024,19 @@
         <v>2038</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22039,19 +22044,19 @@
         <v>2039</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22059,19 +22064,19 @@
         <v>2045</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>1381</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
   </sheetData>
@@ -22097,7 +22102,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="F33 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22111,55 +22116,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
     </row>
   </sheetData>
@@ -22186,7 +22191,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="F33 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22200,12 +22205,12 @@
         <v>1785</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="B2" s="14" t="b">
         <f aca="false">FALSE()</f>
